--- a/Document/My Ais/T9/T9_Test_MyAIS_APP_3PE_EN.xlsx
+++ b/Document/My Ais/T9/T9_Test_MyAIS_APP_3PE_EN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN T9\My Ais\T9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RobotFramework\Document\My Ais\T9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2115" windowWidth="20115" windowHeight="5955" tabRatio="879" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="2115" windowWidth="20115" windowHeight="5955" tabRatio="879" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="2315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="2325">
   <si>
     <t>ADVANCE INFO SERVICE (AIS)</t>
   </si>
@@ -29073,6 +29073,83 @@
 7.Click "OK"
 8.Verify popup msg: Your top up cannot be processed at this time due to the remaining balance of destination number has exceeded the allowing limit for 10,000 Baht.
 9.Capture Screen</t>
+  </si>
+  <si>
+    <t>F10 : Roaming Package (International Service)</t>
+  </si>
+  <si>
+    <t>Verify page "International Service"</t>
+  </si>
+  <si>
+    <t>1. Login MyAIS.
+2. Click "Package" menu
+3. Click "International Service" menu
+4. Verify page "International Service"
+- International Service
+- Mobile no
+- International Roaming Service
+- International Call Service
+5. Capture screen</t>
+  </si>
+  <si>
+    <t>F10_Package_1_2_Y_1_2</t>
+  </si>
+  <si>
+    <t>F10_Package_1_2_Y_2_2</t>
+  </si>
+  <si>
+    <t>F10_Package_1_2_Y_3_2</t>
+  </si>
+  <si>
+    <t>1. Login MyAIS.
+2. Click "Package" menu
+3. Click "International Service" menu
+4. Click "International Roaming Service"
+5. Verify page popup message "xxx"
+6. Capture screen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify page popup message
+In Case: เปิดใช้งาน "บริการข้ามแดนอัตโนมัติ (IR)"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>*popup msg ยังไม่ขึ้นเนื่องจากหน้าจอทำการ loading</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify page popup message
+In Case: ปิดใช้งาน "บริการข้ามแดนอัตโนมัติ (IR)"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>*popup msg ยังไม่ขึ้นเนื่องจากหน้าจอทำการ loading</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Login MyAIS.
+2. Click "Package" menu
+3. Click "International Service" menu
+4. Click "International Roaming Service"
+5. Click "OK" (popup เปิด IR)
+6. Click "OK" (popup เปิด IDD)
+7. Click "International Roaming Service" 
+8. Verify page popup message "xxx"
+9. Capture screen</t>
   </si>
 </sst>
 </file>
@@ -30671,7 +30748,7 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="702">
+  <cellXfs count="705">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -32249,6 +32326,74 @@
     <xf numFmtId="0" fontId="29" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -32330,22 +32475,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -32358,118 +32487,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -32483,11 +32518,29 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -32516,25 +32569,58 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -32555,64 +32641,40 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="20" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="39" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="21" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="46" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="43" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="63" fillId="23" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="57" fillId="21" borderId="37" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="44" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="45" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="20" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="57" fillId="22" borderId="37" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="46" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="20" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="39" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="55" fillId="20" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="57" fillId="21" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="63" fillId="23" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="55" fillId="20" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -32631,6 +32693,30 @@
     <xf numFmtId="0" fontId="75" fillId="0" borderId="49" xfId="10" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="71" fillId="20" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -38163,25 +38249,25 @@
       <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="615" t="s">
+      <c r="C5" s="587" t="s">
         <v>357</v>
       </c>
-      <c r="D5" s="616"/>
-      <c r="E5" s="617"/>
+      <c r="D5" s="588"/>
+      <c r="E5" s="589"/>
       <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="613"/>
-      <c r="I5" s="613"/>
-      <c r="J5" s="613"/>
+      <c r="H5" s="579"/>
+      <c r="I5" s="579"/>
+      <c r="J5" s="579"/>
     </row>
     <row r="6" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="589"/>
-      <c r="D6" s="590"/>
-      <c r="E6" s="591"/>
+      <c r="C6" s="609"/>
+      <c r="D6" s="610"/>
+      <c r="E6" s="611"/>
       <c r="F6" s="7"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -38191,23 +38277,23 @@
       <c r="B7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="618"/>
-      <c r="D7" s="619"/>
-      <c r="E7" s="620"/>
+      <c r="C7" s="590"/>
+      <c r="D7" s="591"/>
+      <c r="E7" s="592"/>
       <c r="F7" s="7"/>
-      <c r="H7" s="613"/>
-      <c r="I7" s="613"/>
-      <c r="J7" s="613"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="579"/>
+      <c r="J7" s="579"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="621" t="s">
+      <c r="C8" s="593" t="s">
         <v>190</v>
       </c>
-      <c r="D8" s="622"/>
-      <c r="E8" s="623"/>
+      <c r="D8" s="594"/>
+      <c r="E8" s="595"/>
       <c r="F8" s="7"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -38230,58 +38316,58 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B11" s="607" t="s">
+      <c r="B11" s="580" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="608"/>
-      <c r="D11" s="614"/>
-      <c r="E11" s="614"/>
-      <c r="F11" s="609"/>
+      <c r="C11" s="581"/>
+      <c r="D11" s="582"/>
+      <c r="E11" s="582"/>
+      <c r="F11" s="583"/>
     </row>
     <row r="12" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="600"/>
-      <c r="D12" s="602"/>
-      <c r="E12" s="602"/>
-      <c r="F12" s="603"/>
+      <c r="C12" s="584"/>
+      <c r="D12" s="585"/>
+      <c r="E12" s="585"/>
+      <c r="F12" s="586"/>
     </row>
     <row r="13" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="600"/>
-      <c r="D13" s="602"/>
-      <c r="E13" s="602"/>
-      <c r="F13" s="603"/>
+      <c r="C13" s="584"/>
+      <c r="D13" s="585"/>
+      <c r="E13" s="585"/>
+      <c r="F13" s="586"/>
     </row>
     <row r="14" spans="2:10" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="600"/>
-      <c r="D14" s="602"/>
-      <c r="E14" s="602"/>
-      <c r="F14" s="603"/>
+      <c r="C14" s="584"/>
+      <c r="D14" s="585"/>
+      <c r="E14" s="585"/>
+      <c r="F14" s="586"/>
     </row>
     <row r="15" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="600"/>
-      <c r="D15" s="602"/>
-      <c r="E15" s="602"/>
-      <c r="F15" s="603"/>
+      <c r="C15" s="584"/>
+      <c r="D15" s="585"/>
+      <c r="E15" s="585"/>
+      <c r="F15" s="586"/>
     </row>
     <row r="16" spans="2:10" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="604"/>
-      <c r="D16" s="605"/>
-      <c r="E16" s="605"/>
-      <c r="F16" s="606"/>
+      <c r="C16" s="620"/>
+      <c r="D16" s="621"/>
+      <c r="E16" s="621"/>
+      <c r="F16" s="622"/>
     </row>
     <row r="17" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
@@ -38291,13 +38377,13 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B18" s="607" t="s">
+      <c r="B18" s="580" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="608"/>
-      <c r="D18" s="608"/>
-      <c r="E18" s="608"/>
-      <c r="F18" s="609"/>
+      <c r="C18" s="581"/>
+      <c r="D18" s="581"/>
+      <c r="E18" s="581"/>
+      <c r="F18" s="583"/>
     </row>
     <row r="19" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
@@ -38309,10 +38395,10 @@
       <c r="D19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="595" t="s">
+      <c r="E19" s="615" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="610"/>
+      <c r="F19" s="623"/>
     </row>
     <row r="20" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
@@ -38324,73 +38410,73 @@
       <c r="D20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="600" t="s">
+      <c r="E20" s="584" t="s">
         <v>355</v>
       </c>
-      <c r="F20" s="601"/>
+      <c r="F20" s="596"/>
     </row>
     <row r="21" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="600"/>
-      <c r="F21" s="601"/>
+      <c r="E21" s="584"/>
+      <c r="F21" s="596"/>
     </row>
     <row r="22" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="600"/>
-      <c r="F22" s="601"/>
+      <c r="E22" s="584"/>
+      <c r="F22" s="596"/>
     </row>
     <row r="23" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="600"/>
-      <c r="F23" s="601"/>
+      <c r="E23" s="584"/>
+      <c r="F23" s="596"/>
     </row>
     <row r="24" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="600"/>
-      <c r="F24" s="601"/>
+      <c r="E24" s="584"/>
+      <c r="F24" s="596"/>
     </row>
     <row r="25" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="600"/>
-      <c r="F25" s="601"/>
+      <c r="E25" s="584"/>
+      <c r="F25" s="596"/>
     </row>
     <row r="26" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="600"/>
-      <c r="F26" s="601"/>
+      <c r="E26" s="584"/>
+      <c r="F26" s="596"/>
     </row>
     <row r="27" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="600"/>
-      <c r="F27" s="601"/>
+      <c r="E27" s="584"/>
+      <c r="F27" s="596"/>
     </row>
     <row r="28" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B28" s="16"/>
       <c r="C28" s="20"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="600"/>
-      <c r="F28" s="601"/>
+      <c r="E28" s="584"/>
+      <c r="F28" s="596"/>
     </row>
     <row r="29" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="611"/>
-      <c r="F29" s="612"/>
+      <c r="E29" s="597"/>
+      <c r="F29" s="598"/>
     </row>
     <row r="30" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
@@ -38400,67 +38486,67 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B31" s="592" t="s">
+      <c r="B31" s="612" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="593"/>
-      <c r="D31" s="593"/>
-      <c r="E31" s="594"/>
+      <c r="C31" s="613"/>
+      <c r="D31" s="613"/>
+      <c r="E31" s="614"/>
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="595" t="s">
+      <c r="C32" s="615" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="596"/>
-      <c r="E32" s="596"/>
+      <c r="D32" s="616"/>
+      <c r="E32" s="616"/>
       <c r="F32" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B33" s="16"/>
-      <c r="C33" s="581"/>
-      <c r="D33" s="582"/>
-      <c r="E33" s="582"/>
+      <c r="C33" s="601"/>
+      <c r="D33" s="602"/>
+      <c r="E33" s="602"/>
       <c r="F33" s="26"/>
     </row>
     <row r="34" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B34" s="16"/>
-      <c r="C34" s="597"/>
-      <c r="D34" s="598"/>
-      <c r="E34" s="599"/>
+      <c r="C34" s="617"/>
+      <c r="D34" s="618"/>
+      <c r="E34" s="619"/>
       <c r="F34" s="26"/>
     </row>
     <row r="35" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B35" s="27"/>
-      <c r="C35" s="579"/>
-      <c r="D35" s="580"/>
-      <c r="E35" s="580"/>
+      <c r="C35" s="599"/>
+      <c r="D35" s="600"/>
+      <c r="E35" s="600"/>
       <c r="F35" s="28"/>
     </row>
     <row r="36" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B36" s="27"/>
-      <c r="C36" s="581"/>
-      <c r="D36" s="582"/>
-      <c r="E36" s="582"/>
+      <c r="C36" s="601"/>
+      <c r="D36" s="602"/>
+      <c r="E36" s="602"/>
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B37" s="27"/>
-      <c r="C37" s="583"/>
-      <c r="D37" s="584"/>
-      <c r="E37" s="585"/>
+      <c r="C37" s="603"/>
+      <c r="D37" s="604"/>
+      <c r="E37" s="605"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
-      <c r="C38" s="586"/>
-      <c r="D38" s="587"/>
-      <c r="E38" s="588"/>
+      <c r="C38" s="606"/>
+      <c r="D38" s="607"/>
+      <c r="E38" s="608"/>
       <c r="F38" s="29"/>
     </row>
     <row r="39" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38486,22 +38572,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
@@ -38518,6 +38588,22 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -43868,98 +43954,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="688" t="s">
+      <c r="A1" s="685" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="676" t="s">
+      <c r="B1" s="683" t="s">
         <v>962</v>
       </c>
-      <c r="C1" s="676" t="s">
+      <c r="C1" s="683" t="s">
         <v>963</v>
       </c>
-      <c r="D1" s="676" t="s">
+      <c r="D1" s="683" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="676" t="s">
+      <c r="E1" s="683" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="676" t="s">
+      <c r="F1" s="683" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="676" t="s">
+      <c r="G1" s="683" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="676" t="s">
+      <c r="H1" s="683" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="676" t="s">
+      <c r="I1" s="683" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="676" t="s">
+      <c r="J1" s="683" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="676" t="s">
+      <c r="K1" s="683" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="676" t="s">
+      <c r="L1" s="683" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="685" t="s">
+      <c r="M1" s="688" t="s">
         <v>964</v>
       </c>
-      <c r="N1" s="686" t="s">
+      <c r="N1" s="676" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="677"/>
-      <c r="B2" s="677"/>
-      <c r="C2" s="677"/>
-      <c r="D2" s="677"/>
-      <c r="E2" s="677"/>
-      <c r="F2" s="677"/>
-      <c r="G2" s="677"/>
-      <c r="H2" s="677"/>
-      <c r="I2" s="677"/>
-      <c r="J2" s="677"/>
-      <c r="K2" s="677"/>
-      <c r="L2" s="677"/>
-      <c r="M2" s="677"/>
-      <c r="N2" s="680"/>
+      <c r="A2" s="684"/>
+      <c r="B2" s="684"/>
+      <c r="C2" s="684"/>
+      <c r="D2" s="684"/>
+      <c r="E2" s="684"/>
+      <c r="F2" s="684"/>
+      <c r="G2" s="684"/>
+      <c r="H2" s="684"/>
+      <c r="I2" s="684"/>
+      <c r="J2" s="684"/>
+      <c r="K2" s="684"/>
+      <c r="L2" s="684"/>
+      <c r="M2" s="684"/>
+      <c r="N2" s="677"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="682" t="s">
+      <c r="A3" s="678" t="s">
         <v>966</v>
       </c>
-      <c r="B3" s="683"/>
-      <c r="C3" s="683"/>
-      <c r="D3" s="683"/>
-      <c r="E3" s="683"/>
-      <c r="F3" s="683"/>
-      <c r="G3" s="683"/>
-      <c r="H3" s="683"/>
-      <c r="I3" s="683"/>
-      <c r="J3" s="683"/>
-      <c r="K3" s="683"/>
-      <c r="L3" s="684"/>
+      <c r="B3" s="679"/>
+      <c r="C3" s="679"/>
+      <c r="D3" s="679"/>
+      <c r="E3" s="679"/>
+      <c r="F3" s="679"/>
+      <c r="G3" s="679"/>
+      <c r="H3" s="679"/>
+      <c r="I3" s="679"/>
+      <c r="J3" s="679"/>
+      <c r="K3" s="679"/>
+      <c r="L3" s="680"/>
       <c r="M3" s="263"/>
       <c r="N3" s="264"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="687" t="s">
+      <c r="A4" s="681" t="s">
         <v>967</v>
       </c>
-      <c r="B4" s="683"/>
-      <c r="C4" s="683"/>
-      <c r="D4" s="683"/>
-      <c r="E4" s="683"/>
-      <c r="F4" s="683"/>
-      <c r="G4" s="683"/>
-      <c r="H4" s="683"/>
-      <c r="I4" s="683"/>
-      <c r="J4" s="683"/>
-      <c r="K4" s="683"/>
-      <c r="L4" s="684"/>
+      <c r="B4" s="679"/>
+      <c r="C4" s="679"/>
+      <c r="D4" s="679"/>
+      <c r="E4" s="679"/>
+      <c r="F4" s="679"/>
+      <c r="G4" s="679"/>
+      <c r="H4" s="679"/>
+      <c r="I4" s="679"/>
+      <c r="J4" s="679"/>
+      <c r="K4" s="679"/>
+      <c r="L4" s="680"/>
       <c r="M4" s="265"/>
       <c r="N4" s="266"/>
     </row>
@@ -44131,20 +44217,20 @@
       <c r="N10" s="296"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="682" t="s">
+      <c r="A11" s="678" t="s">
         <v>989</v>
       </c>
-      <c r="B11" s="679"/>
-      <c r="C11" s="679"/>
-      <c r="D11" s="683"/>
-      <c r="E11" s="679"/>
-      <c r="F11" s="683"/>
-      <c r="G11" s="683"/>
-      <c r="H11" s="683"/>
-      <c r="I11" s="683"/>
-      <c r="J11" s="683"/>
-      <c r="K11" s="683"/>
-      <c r="L11" s="684"/>
+      <c r="B11" s="682"/>
+      <c r="C11" s="682"/>
+      <c r="D11" s="679"/>
+      <c r="E11" s="682"/>
+      <c r="F11" s="679"/>
+      <c r="G11" s="679"/>
+      <c r="H11" s="679"/>
+      <c r="I11" s="679"/>
+      <c r="J11" s="679"/>
+      <c r="K11" s="679"/>
+      <c r="L11" s="680"/>
       <c r="M11" s="263"/>
       <c r="N11" s="263"/>
     </row>
@@ -44205,20 +44291,20 @@
       <c r="N13" s="308"/>
     </row>
     <row r="14" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="682" t="s">
+      <c r="A14" s="678" t="s">
         <v>997</v>
       </c>
-      <c r="B14" s="683"/>
-      <c r="C14" s="683"/>
-      <c r="D14" s="683"/>
-      <c r="E14" s="683"/>
-      <c r="F14" s="683"/>
-      <c r="G14" s="683"/>
-      <c r="H14" s="683"/>
-      <c r="I14" s="683"/>
-      <c r="J14" s="683"/>
-      <c r="K14" s="683"/>
-      <c r="L14" s="684"/>
+      <c r="B14" s="679"/>
+      <c r="C14" s="679"/>
+      <c r="D14" s="679"/>
+      <c r="E14" s="679"/>
+      <c r="F14" s="679"/>
+      <c r="G14" s="679"/>
+      <c r="H14" s="679"/>
+      <c r="I14" s="679"/>
+      <c r="J14" s="679"/>
+      <c r="K14" s="679"/>
+      <c r="L14" s="680"/>
       <c r="M14" s="307"/>
       <c r="N14" s="308"/>
     </row>
@@ -44279,20 +44365,20 @@
       <c r="N16" s="316"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="678" t="s">
+      <c r="A17" s="686" t="s">
         <v>1003</v>
       </c>
-      <c r="B17" s="679"/>
-      <c r="C17" s="679"/>
-      <c r="D17" s="679"/>
-      <c r="E17" s="679"/>
-      <c r="F17" s="679"/>
-      <c r="G17" s="679"/>
-      <c r="H17" s="679"/>
-      <c r="I17" s="679"/>
-      <c r="J17" s="679"/>
-      <c r="K17" s="679"/>
-      <c r="L17" s="680"/>
+      <c r="B17" s="682"/>
+      <c r="C17" s="682"/>
+      <c r="D17" s="682"/>
+      <c r="E17" s="682"/>
+      <c r="F17" s="682"/>
+      <c r="G17" s="682"/>
+      <c r="H17" s="682"/>
+      <c r="I17" s="682"/>
+      <c r="J17" s="682"/>
+      <c r="K17" s="682"/>
+      <c r="L17" s="677"/>
       <c r="M17" s="317"/>
       <c r="N17" s="318"/>
     </row>
@@ -44609,20 +44695,20 @@
       <c r="N30" s="355"/>
     </row>
     <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="681" t="s">
+      <c r="A31" s="687" t="s">
         <v>1041</v>
       </c>
-      <c r="B31" s="679"/>
-      <c r="C31" s="679"/>
-      <c r="D31" s="679"/>
-      <c r="E31" s="679"/>
-      <c r="F31" s="679"/>
-      <c r="G31" s="679"/>
-      <c r="H31" s="679"/>
-      <c r="I31" s="679"/>
-      <c r="J31" s="679"/>
-      <c r="K31" s="679"/>
-      <c r="L31" s="680"/>
+      <c r="B31" s="682"/>
+      <c r="C31" s="682"/>
+      <c r="D31" s="682"/>
+      <c r="E31" s="682"/>
+      <c r="F31" s="682"/>
+      <c r="G31" s="682"/>
+      <c r="H31" s="682"/>
+      <c r="I31" s="682"/>
+      <c r="J31" s="682"/>
+      <c r="K31" s="682"/>
+      <c r="L31" s="677"/>
       <c r="M31" s="356"/>
       <c r="N31" s="356"/>
     </row>
@@ -59086,6 +59172,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
@@ -59102,10 +59192,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -59132,56 +59218,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="696" t="s">
+      <c r="A1" s="691" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="698" t="s">
+      <c r="B1" s="693" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="698" t="s">
+      <c r="C1" s="693" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="699" t="s">
+      <c r="D1" s="694" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="699" t="s">
+      <c r="E1" s="694" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="698" t="s">
+      <c r="F1" s="693" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="698" t="s">
+      <c r="G1" s="693" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="698" t="s">
+      <c r="H1" s="693" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="698" t="s">
+      <c r="I1" s="693" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="698" t="s">
+      <c r="J1" s="693" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="701" t="s">
+      <c r="K1" s="696" t="s">
         <v>964</v>
       </c>
-      <c r="L1" s="694" t="s">
+      <c r="L1" s="689" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="697"/>
-      <c r="B2" s="697"/>
-      <c r="C2" s="697"/>
-      <c r="D2" s="700"/>
-      <c r="E2" s="700"/>
-      <c r="F2" s="697"/>
-      <c r="G2" s="697"/>
-      <c r="H2" s="697"/>
-      <c r="I2" s="697"/>
-      <c r="J2" s="697"/>
-      <c r="K2" s="697"/>
-      <c r="L2" s="695"/>
+      <c r="A2" s="692"/>
+      <c r="B2" s="692"/>
+      <c r="C2" s="692"/>
+      <c r="D2" s="695"/>
+      <c r="E2" s="695"/>
+      <c r="F2" s="692"/>
+      <c r="G2" s="692"/>
+      <c r="H2" s="692"/>
+      <c r="I2" s="692"/>
+      <c r="J2" s="692"/>
+      <c r="K2" s="692"/>
+      <c r="L2" s="690"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="386" t="s">
@@ -59704,20 +59790,20 @@
       <c r="L25" s="383"/>
     </row>
     <row r="26" spans="1:12" s="415" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="691" t="s">
+      <c r="A26" s="697" t="s">
         <v>1161</v>
       </c>
-      <c r="B26" s="692"/>
-      <c r="C26" s="692"/>
-      <c r="D26" s="692"/>
-      <c r="E26" s="692"/>
-      <c r="F26" s="692"/>
-      <c r="G26" s="692"/>
-      <c r="H26" s="692"/>
-      <c r="I26" s="692"/>
-      <c r="J26" s="692"/>
-      <c r="K26" s="692"/>
-      <c r="L26" s="693"/>
+      <c r="B26" s="698"/>
+      <c r="C26" s="698"/>
+      <c r="D26" s="698"/>
+      <c r="E26" s="698"/>
+      <c r="F26" s="698"/>
+      <c r="G26" s="698"/>
+      <c r="H26" s="698"/>
+      <c r="I26" s="698"/>
+      <c r="J26" s="698"/>
+      <c r="K26" s="698"/>
+      <c r="L26" s="699"/>
     </row>
     <row r="27" spans="1:12" s="415" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="218" t="s">
@@ -60360,20 +60446,20 @@
       <c r="L54" s="418"/>
     </row>
     <row r="55" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="689" t="s">
+      <c r="A55" s="700" t="s">
         <v>1167</v>
       </c>
-      <c r="B55" s="689"/>
-      <c r="C55" s="689"/>
-      <c r="D55" s="689"/>
-      <c r="E55" s="689"/>
-      <c r="F55" s="689"/>
-      <c r="G55" s="689"/>
-      <c r="H55" s="689"/>
-      <c r="I55" s="689"/>
-      <c r="J55" s="689"/>
-      <c r="K55" s="689"/>
-      <c r="L55" s="689"/>
+      <c r="B55" s="700"/>
+      <c r="C55" s="700"/>
+      <c r="D55" s="700"/>
+      <c r="E55" s="700"/>
+      <c r="F55" s="700"/>
+      <c r="G55" s="700"/>
+      <c r="H55" s="700"/>
+      <c r="I55" s="700"/>
+      <c r="J55" s="700"/>
+      <c r="K55" s="700"/>
+      <c r="L55" s="700"/>
     </row>
     <row r="56" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="218" t="s">
@@ -60424,20 +60510,20 @@
       <c r="L57" s="418"/>
     </row>
     <row r="58" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="689" t="s">
+      <c r="A58" s="700" t="s">
         <v>1422</v>
       </c>
-      <c r="B58" s="689"/>
-      <c r="C58" s="689"/>
-      <c r="D58" s="689"/>
-      <c r="E58" s="689"/>
-      <c r="F58" s="689"/>
-      <c r="G58" s="689"/>
-      <c r="H58" s="689"/>
-      <c r="I58" s="689"/>
-      <c r="J58" s="689"/>
-      <c r="K58" s="689"/>
-      <c r="L58" s="689"/>
+      <c r="B58" s="700"/>
+      <c r="C58" s="700"/>
+      <c r="D58" s="700"/>
+      <c r="E58" s="700"/>
+      <c r="F58" s="700"/>
+      <c r="G58" s="700"/>
+      <c r="H58" s="700"/>
+      <c r="I58" s="700"/>
+      <c r="J58" s="700"/>
+      <c r="K58" s="700"/>
+      <c r="L58" s="700"/>
     </row>
     <row r="59" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="218" t="s">
@@ -60488,20 +60574,20 @@
       <c r="L60" s="418"/>
     </row>
     <row r="61" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="689" t="s">
+      <c r="A61" s="700" t="s">
         <v>1424</v>
       </c>
-      <c r="B61" s="689"/>
-      <c r="C61" s="689"/>
-      <c r="D61" s="689"/>
-      <c r="E61" s="689"/>
-      <c r="F61" s="689"/>
-      <c r="G61" s="689"/>
-      <c r="H61" s="689"/>
-      <c r="I61" s="689"/>
-      <c r="J61" s="689"/>
-      <c r="K61" s="689"/>
-      <c r="L61" s="689"/>
+      <c r="B61" s="700"/>
+      <c r="C61" s="700"/>
+      <c r="D61" s="700"/>
+      <c r="E61" s="700"/>
+      <c r="F61" s="700"/>
+      <c r="G61" s="700"/>
+      <c r="H61" s="700"/>
+      <c r="I61" s="700"/>
+      <c r="J61" s="700"/>
+      <c r="K61" s="700"/>
+      <c r="L61" s="700"/>
     </row>
     <row r="62" spans="1:12" s="547" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="543" t="s">
@@ -60552,20 +60638,20 @@
       <c r="L63" s="418"/>
     </row>
     <row r="64" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="691" t="s">
+      <c r="A64" s="697" t="s">
         <v>1426</v>
       </c>
-      <c r="B64" s="692"/>
-      <c r="C64" s="692"/>
-      <c r="D64" s="692"/>
-      <c r="E64" s="692"/>
-      <c r="F64" s="692"/>
-      <c r="G64" s="692"/>
-      <c r="H64" s="692"/>
-      <c r="I64" s="692"/>
-      <c r="J64" s="692"/>
-      <c r="K64" s="692"/>
-      <c r="L64" s="693"/>
+      <c r="B64" s="698"/>
+      <c r="C64" s="698"/>
+      <c r="D64" s="698"/>
+      <c r="E64" s="698"/>
+      <c r="F64" s="698"/>
+      <c r="G64" s="698"/>
+      <c r="H64" s="698"/>
+      <c r="I64" s="698"/>
+      <c r="J64" s="698"/>
+      <c r="K64" s="698"/>
+      <c r="L64" s="699"/>
     </row>
     <row r="65" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="218" t="s">
@@ -60664,20 +60750,20 @@
       <c r="L68" s="418"/>
     </row>
     <row r="69" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="689" t="s">
+      <c r="A69" s="700" t="s">
         <v>1430</v>
       </c>
-      <c r="B69" s="689"/>
-      <c r="C69" s="689"/>
-      <c r="D69" s="689"/>
-      <c r="E69" s="689"/>
-      <c r="F69" s="689"/>
-      <c r="G69" s="689"/>
-      <c r="H69" s="689"/>
-      <c r="I69" s="689"/>
-      <c r="J69" s="689"/>
-      <c r="K69" s="689"/>
-      <c r="L69" s="689"/>
+      <c r="B69" s="700"/>
+      <c r="C69" s="700"/>
+      <c r="D69" s="700"/>
+      <c r="E69" s="700"/>
+      <c r="F69" s="700"/>
+      <c r="G69" s="700"/>
+      <c r="H69" s="700"/>
+      <c r="I69" s="700"/>
+      <c r="J69" s="700"/>
+      <c r="K69" s="700"/>
+      <c r="L69" s="700"/>
     </row>
     <row r="70" spans="1:12" s="547" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="543" t="s">
@@ -60802,20 +60888,20 @@
       <c r="L74" s="418"/>
     </row>
     <row r="75" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="689" t="s">
+      <c r="A75" s="700" t="s">
         <v>1435</v>
       </c>
-      <c r="B75" s="689"/>
-      <c r="C75" s="689"/>
-      <c r="D75" s="689"/>
-      <c r="E75" s="689"/>
-      <c r="F75" s="689"/>
-      <c r="G75" s="689"/>
-      <c r="H75" s="689"/>
-      <c r="I75" s="689"/>
-      <c r="J75" s="689"/>
-      <c r="K75" s="689"/>
-      <c r="L75" s="689"/>
+      <c r="B75" s="700"/>
+      <c r="C75" s="700"/>
+      <c r="D75" s="700"/>
+      <c r="E75" s="700"/>
+      <c r="F75" s="700"/>
+      <c r="G75" s="700"/>
+      <c r="H75" s="700"/>
+      <c r="I75" s="700"/>
+      <c r="J75" s="700"/>
+      <c r="K75" s="700"/>
+      <c r="L75" s="700"/>
     </row>
     <row r="76" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="218" t="s">
@@ -60890,20 +60976,20 @@
       <c r="L78" s="418"/>
     </row>
     <row r="79" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="689" t="s">
+      <c r="A79" s="700" t="s">
         <v>1438</v>
       </c>
-      <c r="B79" s="689"/>
-      <c r="C79" s="689"/>
-      <c r="D79" s="689"/>
-      <c r="E79" s="689"/>
-      <c r="F79" s="689"/>
-      <c r="G79" s="689"/>
-      <c r="H79" s="689"/>
-      <c r="I79" s="689"/>
-      <c r="J79" s="689"/>
-      <c r="K79" s="689"/>
-      <c r="L79" s="689"/>
+      <c r="B79" s="700"/>
+      <c r="C79" s="700"/>
+      <c r="D79" s="700"/>
+      <c r="E79" s="700"/>
+      <c r="F79" s="700"/>
+      <c r="G79" s="700"/>
+      <c r="H79" s="700"/>
+      <c r="I79" s="700"/>
+      <c r="J79" s="700"/>
+      <c r="K79" s="700"/>
+      <c r="L79" s="700"/>
     </row>
     <row r="80" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="218" t="s">
@@ -61002,20 +61088,20 @@
       <c r="L83" s="418"/>
     </row>
     <row r="84" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="689" t="s">
+      <c r="A84" s="700" t="s">
         <v>1441</v>
       </c>
-      <c r="B84" s="689"/>
-      <c r="C84" s="689"/>
-      <c r="D84" s="689"/>
-      <c r="E84" s="689"/>
-      <c r="F84" s="689"/>
-      <c r="G84" s="689"/>
-      <c r="H84" s="689"/>
-      <c r="I84" s="689"/>
-      <c r="J84" s="689"/>
-      <c r="K84" s="689"/>
-      <c r="L84" s="689"/>
+      <c r="B84" s="700"/>
+      <c r="C84" s="700"/>
+      <c r="D84" s="700"/>
+      <c r="E84" s="700"/>
+      <c r="F84" s="700"/>
+      <c r="G84" s="700"/>
+      <c r="H84" s="700"/>
+      <c r="I84" s="700"/>
+      <c r="J84" s="700"/>
+      <c r="K84" s="700"/>
+      <c r="L84" s="700"/>
     </row>
     <row r="85" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="218" t="s">
@@ -61066,20 +61152,20 @@
       <c r="L86" s="418"/>
     </row>
     <row r="87" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="689" t="s">
+      <c r="A87" s="700" t="s">
         <v>1443</v>
       </c>
-      <c r="B87" s="689"/>
-      <c r="C87" s="689"/>
-      <c r="D87" s="689"/>
-      <c r="E87" s="689"/>
-      <c r="F87" s="689"/>
-      <c r="G87" s="689"/>
-      <c r="H87" s="689"/>
-      <c r="I87" s="689"/>
-      <c r="J87" s="689"/>
-      <c r="K87" s="689"/>
-      <c r="L87" s="689"/>
+      <c r="B87" s="700"/>
+      <c r="C87" s="700"/>
+      <c r="D87" s="700"/>
+      <c r="E87" s="700"/>
+      <c r="F87" s="700"/>
+      <c r="G87" s="700"/>
+      <c r="H87" s="700"/>
+      <c r="I87" s="700"/>
+      <c r="J87" s="700"/>
+      <c r="K87" s="700"/>
+      <c r="L87" s="700"/>
     </row>
     <row r="88" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="218" t="s">
@@ -61178,20 +61264,20 @@
       <c r="L91" s="418"/>
     </row>
     <row r="92" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="689" t="s">
+      <c r="A92" s="700" t="s">
         <v>1447</v>
       </c>
-      <c r="B92" s="689"/>
-      <c r="C92" s="689"/>
-      <c r="D92" s="689"/>
-      <c r="E92" s="689"/>
-      <c r="F92" s="689"/>
-      <c r="G92" s="689"/>
-      <c r="H92" s="689"/>
-      <c r="I92" s="689"/>
-      <c r="J92" s="689"/>
-      <c r="K92" s="689"/>
-      <c r="L92" s="689"/>
+      <c r="B92" s="700"/>
+      <c r="C92" s="700"/>
+      <c r="D92" s="700"/>
+      <c r="E92" s="700"/>
+      <c r="F92" s="700"/>
+      <c r="G92" s="700"/>
+      <c r="H92" s="700"/>
+      <c r="I92" s="700"/>
+      <c r="J92" s="700"/>
+      <c r="K92" s="700"/>
+      <c r="L92" s="700"/>
     </row>
     <row r="93" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="218" t="s">
@@ -61266,20 +61352,20 @@
       <c r="L95" s="418"/>
     </row>
     <row r="96" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="689" t="s">
+      <c r="A96" s="700" t="s">
         <v>1450</v>
       </c>
-      <c r="B96" s="689"/>
-      <c r="C96" s="689"/>
-      <c r="D96" s="689"/>
-      <c r="E96" s="689"/>
-      <c r="F96" s="689"/>
-      <c r="G96" s="689"/>
-      <c r="H96" s="689"/>
-      <c r="I96" s="689"/>
-      <c r="J96" s="689"/>
-      <c r="K96" s="689"/>
-      <c r="L96" s="689"/>
+      <c r="B96" s="700"/>
+      <c r="C96" s="700"/>
+      <c r="D96" s="700"/>
+      <c r="E96" s="700"/>
+      <c r="F96" s="700"/>
+      <c r="G96" s="700"/>
+      <c r="H96" s="700"/>
+      <c r="I96" s="700"/>
+      <c r="J96" s="700"/>
+      <c r="K96" s="700"/>
+      <c r="L96" s="700"/>
     </row>
     <row r="97" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="218" t="s">
@@ -61464,20 +61550,20 @@
       <c r="L104" s="537"/>
     </row>
     <row r="105" spans="1:12" s="421" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="690" t="s">
+      <c r="A105" s="701" t="s">
         <v>1168</v>
       </c>
-      <c r="B105" s="690"/>
-      <c r="C105" s="690"/>
-      <c r="D105" s="690"/>
-      <c r="E105" s="690"/>
-      <c r="F105" s="690"/>
-      <c r="G105" s="690"/>
-      <c r="H105" s="690"/>
-      <c r="I105" s="690"/>
-      <c r="J105" s="690"/>
-      <c r="K105" s="690"/>
-      <c r="L105" s="690"/>
+      <c r="B105" s="701"/>
+      <c r="C105" s="701"/>
+      <c r="D105" s="701"/>
+      <c r="E105" s="701"/>
+      <c r="F105" s="701"/>
+      <c r="G105" s="701"/>
+      <c r="H105" s="701"/>
+      <c r="I105" s="701"/>
+      <c r="J105" s="701"/>
+      <c r="K105" s="701"/>
+      <c r="L105" s="701"/>
     </row>
     <row r="106" spans="1:12" s="421" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="422" t="s">
@@ -61688,6 +61774,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A92:L92"/>
+    <mergeCell ref="A96:L96"/>
+    <mergeCell ref="A105:L105"/>
+    <mergeCell ref="A69:L69"/>
+    <mergeCell ref="A75:L75"/>
+    <mergeCell ref="A79:L79"/>
+    <mergeCell ref="A84:L84"/>
+    <mergeCell ref="A87:L87"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A55:L55"/>
+    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="A64:L64"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -61700,19 +61799,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="A55:L55"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="A64:L64"/>
-    <mergeCell ref="A92:L92"/>
-    <mergeCell ref="A96:L96"/>
-    <mergeCell ref="A105:L105"/>
-    <mergeCell ref="A69:L69"/>
-    <mergeCell ref="A75:L75"/>
-    <mergeCell ref="A79:L79"/>
-    <mergeCell ref="A84:L84"/>
-    <mergeCell ref="A87:L87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -61750,10 +61836,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="660" t="s">
+      <c r="A1" s="624" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="660"/>
+      <c r="B1" s="624"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -61788,250 +61874,250 @@
       <c r="AH1" s="38"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="661" t="s">
+      <c r="A2" s="625" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="661" t="s">
+      <c r="B2" s="625" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="661" t="s">
+      <c r="C2" s="625" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="664" t="s">
+      <c r="D2" s="628" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="664"/>
-      <c r="F2" s="664"/>
-      <c r="G2" s="630" t="s">
+      <c r="E2" s="628"/>
+      <c r="F2" s="628"/>
+      <c r="G2" s="637" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="631"/>
-      <c r="I2" s="631"/>
-      <c r="J2" s="636"/>
-      <c r="K2" s="624" t="s">
+      <c r="H2" s="638"/>
+      <c r="I2" s="638"/>
+      <c r="J2" s="639"/>
+      <c r="K2" s="655" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="624"/>
-      <c r="M2" s="630" t="s">
+      <c r="L2" s="655"/>
+      <c r="M2" s="637" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="631"/>
-      <c r="O2" s="636"/>
-      <c r="P2" s="630" t="s">
+      <c r="N2" s="638"/>
+      <c r="O2" s="639"/>
+      <c r="P2" s="637" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="636"/>
-      <c r="R2" s="630" t="s">
+      <c r="Q2" s="639"/>
+      <c r="R2" s="637" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="631"/>
-      <c r="T2" s="630" t="s">
+      <c r="S2" s="638"/>
+      <c r="T2" s="637" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="631"/>
-      <c r="V2" s="631"/>
-      <c r="W2" s="631"/>
-      <c r="X2" s="636"/>
-      <c r="Y2" s="630" t="s">
+      <c r="U2" s="638"/>
+      <c r="V2" s="638"/>
+      <c r="W2" s="638"/>
+      <c r="X2" s="639"/>
+      <c r="Y2" s="637" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="631"/>
-      <c r="AA2" s="631"/>
-      <c r="AB2" s="636"/>
-      <c r="AC2" s="645" t="s">
+      <c r="Z2" s="638"/>
+      <c r="AA2" s="638"/>
+      <c r="AB2" s="639"/>
+      <c r="AC2" s="631" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="646"/>
-      <c r="AE2" s="646"/>
-      <c r="AF2" s="655"/>
-      <c r="AG2" s="645" t="s">
+      <c r="AD2" s="632"/>
+      <c r="AE2" s="632"/>
+      <c r="AF2" s="647"/>
+      <c r="AG2" s="631" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="646"/>
-      <c r="AI2" s="646"/>
+      <c r="AH2" s="632"/>
+      <c r="AI2" s="632"/>
     </row>
     <row r="3" spans="1:35" s="43" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="662"/>
-      <c r="B3" s="662"/>
-      <c r="C3" s="662"/>
-      <c r="D3" s="664"/>
-      <c r="E3" s="664"/>
-      <c r="F3" s="664"/>
-      <c r="G3" s="632"/>
-      <c r="H3" s="633"/>
-      <c r="I3" s="633"/>
-      <c r="J3" s="637"/>
-      <c r="K3" s="624" t="s">
+      <c r="A3" s="626"/>
+      <c r="B3" s="626"/>
+      <c r="C3" s="626"/>
+      <c r="D3" s="628"/>
+      <c r="E3" s="628"/>
+      <c r="F3" s="628"/>
+      <c r="G3" s="633"/>
+      <c r="H3" s="634"/>
+      <c r="I3" s="634"/>
+      <c r="J3" s="640"/>
+      <c r="K3" s="655" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="624"/>
-      <c r="M3" s="632"/>
-      <c r="N3" s="633"/>
-      <c r="O3" s="637"/>
-      <c r="P3" s="632"/>
-      <c r="Q3" s="637"/>
-      <c r="R3" s="632"/>
-      <c r="S3" s="633"/>
-      <c r="T3" s="632"/>
-      <c r="U3" s="633"/>
-      <c r="V3" s="633"/>
-      <c r="W3" s="633"/>
-      <c r="X3" s="637"/>
-      <c r="Y3" s="632"/>
-      <c r="Z3" s="633"/>
-      <c r="AA3" s="633"/>
-      <c r="AB3" s="637"/>
-      <c r="AC3" s="632"/>
-      <c r="AD3" s="633"/>
-      <c r="AE3" s="633"/>
-      <c r="AF3" s="637"/>
-      <c r="AG3" s="632"/>
-      <c r="AH3" s="633"/>
-      <c r="AI3" s="633"/>
+      <c r="L3" s="655"/>
+      <c r="M3" s="633"/>
+      <c r="N3" s="634"/>
+      <c r="O3" s="640"/>
+      <c r="P3" s="633"/>
+      <c r="Q3" s="640"/>
+      <c r="R3" s="633"/>
+      <c r="S3" s="634"/>
+      <c r="T3" s="633"/>
+      <c r="U3" s="634"/>
+      <c r="V3" s="634"/>
+      <c r="W3" s="634"/>
+      <c r="X3" s="640"/>
+      <c r="Y3" s="633"/>
+      <c r="Z3" s="634"/>
+      <c r="AA3" s="634"/>
+      <c r="AB3" s="640"/>
+      <c r="AC3" s="633"/>
+      <c r="AD3" s="634"/>
+      <c r="AE3" s="634"/>
+      <c r="AF3" s="640"/>
+      <c r="AG3" s="633"/>
+      <c r="AH3" s="634"/>
+      <c r="AI3" s="634"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="662"/>
-      <c r="B4" s="662"/>
-      <c r="C4" s="662"/>
-      <c r="D4" s="643" t="s">
+      <c r="A4" s="626"/>
+      <c r="B4" s="626"/>
+      <c r="C4" s="626"/>
+      <c r="D4" s="629" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="643" t="s">
+      <c r="E4" s="629" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="643" t="s">
+      <c r="F4" s="629" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="641" t="s">
+      <c r="G4" s="653" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="641" t="s">
+      <c r="H4" s="653" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="641" t="s">
+      <c r="I4" s="653" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="641" t="s">
+      <c r="J4" s="653" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="625" t="s">
+      <c r="K4" s="656" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="625" t="s">
+      <c r="L4" s="656" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="627" t="s">
+      <c r="M4" s="658" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="627" t="s">
+      <c r="N4" s="658" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="638" t="s">
+      <c r="O4" s="662" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="639" t="s">
+      <c r="P4" s="663" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="639" t="s">
+      <c r="Q4" s="663" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="634" t="s">
+      <c r="R4" s="660" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="634" t="s">
+      <c r="S4" s="660" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="647" t="s">
+      <c r="T4" s="635" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="658" t="s">
+      <c r="U4" s="651" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="659"/>
-      <c r="W4" s="629" t="s">
+      <c r="V4" s="652"/>
+      <c r="W4" s="650" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="629" t="s">
+      <c r="X4" s="650" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="649" t="s">
+      <c r="Y4" s="641" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="649" t="s">
+      <c r="Z4" s="641" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="653" t="s">
+      <c r="AA4" s="645" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="654"/>
-      <c r="AC4" s="651" t="s">
+      <c r="AB4" s="646"/>
+      <c r="AC4" s="643" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="651" t="s">
+      <c r="AD4" s="643" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="656" t="s">
+      <c r="AE4" s="648" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="657"/>
-      <c r="AG4" s="643" t="s">
+      <c r="AF4" s="649"/>
+      <c r="AG4" s="629" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="643" t="s">
+      <c r="AH4" s="629" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="643" t="s">
+      <c r="AI4" s="629" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="663"/>
-      <c r="B5" s="663"/>
-      <c r="C5" s="663"/>
-      <c r="D5" s="644"/>
-      <c r="E5" s="644"/>
-      <c r="F5" s="644"/>
-      <c r="G5" s="642"/>
-      <c r="H5" s="642"/>
-      <c r="I5" s="642"/>
-      <c r="J5" s="642"/>
-      <c r="K5" s="626"/>
-      <c r="L5" s="626"/>
-      <c r="M5" s="628"/>
-      <c r="N5" s="628"/>
-      <c r="O5" s="628"/>
-      <c r="P5" s="640"/>
-      <c r="Q5" s="640"/>
-      <c r="R5" s="635"/>
-      <c r="S5" s="635"/>
-      <c r="T5" s="648"/>
+      <c r="A5" s="627"/>
+      <c r="B5" s="627"/>
+      <c r="C5" s="627"/>
+      <c r="D5" s="630"/>
+      <c r="E5" s="630"/>
+      <c r="F5" s="630"/>
+      <c r="G5" s="654"/>
+      <c r="H5" s="654"/>
+      <c r="I5" s="654"/>
+      <c r="J5" s="654"/>
+      <c r="K5" s="657"/>
+      <c r="L5" s="657"/>
+      <c r="M5" s="659"/>
+      <c r="N5" s="659"/>
+      <c r="O5" s="659"/>
+      <c r="P5" s="664"/>
+      <c r="Q5" s="664"/>
+      <c r="R5" s="661"/>
+      <c r="S5" s="661"/>
+      <c r="T5" s="636"/>
       <c r="U5" s="60" t="s">
         <v>45</v>
       </c>
       <c r="V5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="629"/>
-      <c r="X5" s="629"/>
-      <c r="Y5" s="650"/>
-      <c r="Z5" s="650"/>
+      <c r="W5" s="650"/>
+      <c r="X5" s="650"/>
+      <c r="Y5" s="642"/>
+      <c r="Z5" s="642"/>
       <c r="AA5" s="52" t="s">
         <v>52</v>
       </c>
       <c r="AB5" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AC5" s="652"/>
-      <c r="AD5" s="652"/>
+      <c r="AC5" s="644"/>
+      <c r="AD5" s="644"/>
       <c r="AE5" s="53" t="s">
         <v>52</v>
       </c>
       <c r="AF5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" s="644"/>
-      <c r="AH5" s="644"/>
-      <c r="AI5" s="644"/>
+      <c r="AG5" s="630"/>
+      <c r="AH5" s="630"/>
+      <c r="AI5" s="630"/>
     </row>
     <row r="6" spans="1:35" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47"/>
@@ -62294,14 +62380,26 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="T4:T5"/>
@@ -62318,26 +62416,14 @@
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -62390,7 +62476,7 @@
     </row>
     <row r="2" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="64"/>
-      <c r="B2" s="666" t="s">
+      <c r="B2" s="669" t="s">
         <v>138</v>
       </c>
       <c r="C2" s="72" t="s">
@@ -62403,7 +62489,7 @@
     </row>
     <row r="3" spans="1:8" s="65" customFormat="1" ht="52.5" x14ac:dyDescent="0.2">
       <c r="A3" s="64"/>
-      <c r="B3" s="667"/>
+      <c r="B3" s="670"/>
       <c r="C3" s="72" t="s">
         <v>145</v>
       </c>
@@ -62414,7 +62500,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="66"/>
-      <c r="B4" s="671" t="s">
+      <c r="B4" s="665" t="s">
         <v>85</v>
       </c>
       <c r="C4" s="71" t="s">
@@ -62427,7 +62513,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="66"/>
-      <c r="B5" s="673"/>
+      <c r="B5" s="666"/>
       <c r="C5" s="71" t="s">
         <v>141</v>
       </c>
@@ -62438,7 +62524,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="66"/>
-      <c r="B6" s="673"/>
+      <c r="B6" s="666"/>
       <c r="C6" s="71" t="s">
         <v>140</v>
       </c>
@@ -62449,7 +62535,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="66"/>
-      <c r="B7" s="673"/>
+      <c r="B7" s="666"/>
       <c r="C7" s="71" t="s">
         <v>142</v>
       </c>
@@ -62460,7 +62546,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="66"/>
-      <c r="B8" s="672"/>
+      <c r="B8" s="667"/>
       <c r="C8" s="71" t="s">
         <v>146</v>
       </c>
@@ -62471,7 +62557,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="66"/>
-      <c r="B9" s="671" t="s">
+      <c r="B9" s="665" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="67" t="s">
@@ -62484,8 +62570,8 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="66"/>
-      <c r="B10" s="673"/>
-      <c r="C10" s="671" t="s">
+      <c r="B10" s="666"/>
+      <c r="C10" s="665" t="s">
         <v>147</v>
       </c>
       <c r="D10" s="70" t="s">
@@ -62497,8 +62583,8 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="66"/>
-      <c r="B11" s="673"/>
-      <c r="C11" s="672"/>
+      <c r="B11" s="666"/>
+      <c r="C11" s="667"/>
       <c r="D11" s="70" t="s">
         <v>149</v>
       </c>
@@ -62508,8 +62594,8 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="66"/>
-      <c r="B12" s="673"/>
-      <c r="C12" s="671" t="s">
+      <c r="B12" s="666"/>
+      <c r="C12" s="665" t="s">
         <v>91</v>
       </c>
       <c r="D12" s="114" t="s">
@@ -62523,9 +62609,9 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="66"/>
-      <c r="B13" s="673"/>
-      <c r="C13" s="673"/>
-      <c r="D13" s="671" t="s">
+      <c r="B13" s="666"/>
+      <c r="C13" s="666"/>
+      <c r="D13" s="665" t="s">
         <v>116</v>
       </c>
       <c r="E13" s="66" t="s">
@@ -62536,9 +62622,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="66"/>
-      <c r="B14" s="673"/>
-      <c r="C14" s="673"/>
-      <c r="D14" s="673"/>
+      <c r="B14" s="666"/>
+      <c r="C14" s="666"/>
+      <c r="D14" s="666"/>
       <c r="E14" s="66" t="s">
         <v>120</v>
       </c>
@@ -62547,9 +62633,9 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="66"/>
-      <c r="B15" s="673"/>
-      <c r="C15" s="673"/>
-      <c r="D15" s="673"/>
+      <c r="B15" s="666"/>
+      <c r="C15" s="666"/>
+      <c r="D15" s="666"/>
       <c r="E15" s="66" t="s">
         <v>121</v>
       </c>
@@ -62558,9 +62644,9 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="66"/>
-      <c r="B16" s="673"/>
-      <c r="C16" s="673"/>
-      <c r="D16" s="673"/>
+      <c r="B16" s="666"/>
+      <c r="C16" s="666"/>
+      <c r="D16" s="666"/>
       <c r="E16" s="66" t="s">
         <v>122</v>
       </c>
@@ -62569,9 +62655,9 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="66"/>
-      <c r="B17" s="673"/>
-      <c r="C17" s="673"/>
-      <c r="D17" s="672"/>
+      <c r="B17" s="666"/>
+      <c r="C17" s="666"/>
+      <c r="D17" s="667"/>
       <c r="E17" s="66" t="s">
         <v>123</v>
       </c>
@@ -62580,8 +62666,8 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="66"/>
-      <c r="B18" s="673"/>
-      <c r="C18" s="673"/>
+      <c r="B18" s="666"/>
+      <c r="C18" s="666"/>
       <c r="D18" s="70" t="s">
         <v>117</v>
       </c>
@@ -62593,9 +62679,9 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="66"/>
-      <c r="B19" s="673"/>
-      <c r="C19" s="673"/>
-      <c r="D19" s="671" t="s">
+      <c r="B19" s="666"/>
+      <c r="C19" s="666"/>
+      <c r="D19" s="665" t="s">
         <v>118</v>
       </c>
       <c r="E19" s="66" t="s">
@@ -62606,9 +62692,9 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="66"/>
-      <c r="B20" s="673"/>
-      <c r="C20" s="672"/>
-      <c r="D20" s="672"/>
+      <c r="B20" s="666"/>
+      <c r="C20" s="667"/>
+      <c r="D20" s="667"/>
       <c r="E20" s="66" t="s">
         <v>123</v>
       </c>
@@ -62617,11 +62703,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="66"/>
-      <c r="B21" s="673"/>
-      <c r="C21" s="671" t="s">
+      <c r="B21" s="666"/>
+      <c r="C21" s="665" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="671" t="s">
+      <c r="D21" s="665" t="s">
         <v>118</v>
       </c>
       <c r="E21" s="66" t="s">
@@ -62632,9 +62718,9 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="66"/>
-      <c r="B22" s="673"/>
-      <c r="C22" s="673"/>
-      <c r="D22" s="672"/>
+      <c r="B22" s="666"/>
+      <c r="C22" s="666"/>
+      <c r="D22" s="667"/>
       <c r="E22" s="66" t="s">
         <v>128</v>
       </c>
@@ -62643,9 +62729,9 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="66"/>
-      <c r="B23" s="673"/>
-      <c r="C23" s="673"/>
-      <c r="D23" s="671" t="s">
+      <c r="B23" s="666"/>
+      <c r="C23" s="666"/>
+      <c r="D23" s="665" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="66" t="s">
@@ -62656,9 +62742,9 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="66"/>
-      <c r="B24" s="673"/>
-      <c r="C24" s="673"/>
-      <c r="D24" s="673"/>
+      <c r="B24" s="666"/>
+      <c r="C24" s="666"/>
+      <c r="D24" s="666"/>
       <c r="E24" s="66" t="s">
         <v>130</v>
       </c>
@@ -62667,9 +62753,9 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="66"/>
-      <c r="B25" s="673"/>
-      <c r="C25" s="673"/>
-      <c r="D25" s="672"/>
+      <c r="B25" s="666"/>
+      <c r="C25" s="666"/>
+      <c r="D25" s="667"/>
       <c r="E25" s="66" t="s">
         <v>131</v>
       </c>
@@ -62678,8 +62764,8 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="66"/>
-      <c r="B26" s="673"/>
-      <c r="C26" s="672"/>
+      <c r="B26" s="666"/>
+      <c r="C26" s="667"/>
       <c r="D26" s="70" t="s">
         <v>116</v>
       </c>
@@ -62691,8 +62777,8 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="66"/>
-      <c r="B27" s="673"/>
-      <c r="C27" s="668" t="s">
+      <c r="B27" s="666"/>
+      <c r="C27" s="671" t="s">
         <v>93</v>
       </c>
       <c r="D27" s="114" t="s">
@@ -62707,8 +62793,8 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="66"/>
-      <c r="B28" s="673"/>
-      <c r="C28" s="669"/>
+      <c r="B28" s="666"/>
+      <c r="C28" s="672"/>
       <c r="D28" s="114" t="s">
         <v>134</v>
       </c>
@@ -62721,8 +62807,8 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="66"/>
-      <c r="B29" s="673"/>
-      <c r="C29" s="670"/>
+      <c r="B29" s="666"/>
+      <c r="C29" s="673"/>
       <c r="D29" s="114" t="s">
         <v>135</v>
       </c>
@@ -62735,7 +62821,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="66"/>
-      <c r="B30" s="673"/>
+      <c r="B30" s="666"/>
       <c r="C30" s="70" t="s">
         <v>74</v>
       </c>
@@ -62746,7 +62832,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="66"/>
-      <c r="B31" s="673"/>
+      <c r="B31" s="666"/>
       <c r="C31" s="67" t="s">
         <v>95</v>
       </c>
@@ -62757,7 +62843,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="66"/>
-      <c r="B32" s="673"/>
+      <c r="B32" s="666"/>
       <c r="C32" s="70" t="s">
         <v>96</v>
       </c>
@@ -62768,8 +62854,8 @@
     </row>
     <row r="33" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="66"/>
-      <c r="B33" s="673"/>
-      <c r="C33" s="671" t="s">
+      <c r="B33" s="666"/>
+      <c r="C33" s="665" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="70" t="s">
@@ -62781,8 +62867,8 @@
     </row>
     <row r="34" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="66"/>
-      <c r="B34" s="673"/>
-      <c r="C34" s="672"/>
+      <c r="B34" s="666"/>
+      <c r="C34" s="667"/>
       <c r="D34" s="70" t="s">
         <v>152</v>
       </c>
@@ -62792,7 +62878,7 @@
     </row>
     <row r="35" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A35" s="66"/>
-      <c r="B35" s="672"/>
+      <c r="B35" s="667"/>
       <c r="C35" s="70" t="s">
         <v>98</v>
       </c>
@@ -62806,7 +62892,7 @@
     </row>
     <row r="36" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A36" s="66"/>
-      <c r="B36" s="671" t="s">
+      <c r="B36" s="665" t="s">
         <v>87</v>
       </c>
       <c r="C36" s="67" t="s">
@@ -62819,7 +62905,7 @@
     </row>
     <row r="37" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A37" s="66"/>
-      <c r="B37" s="673"/>
+      <c r="B37" s="666"/>
       <c r="C37" s="70" t="s">
         <v>99</v>
       </c>
@@ -62830,7 +62916,7 @@
     </row>
     <row r="38" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A38" s="66"/>
-      <c r="B38" s="673"/>
+      <c r="B38" s="666"/>
       <c r="C38" s="70" t="s">
         <v>100</v>
       </c>
@@ -62841,7 +62927,7 @@
     </row>
     <row r="39" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A39" s="66"/>
-      <c r="B39" s="672"/>
+      <c r="B39" s="667"/>
       <c r="C39" s="70" t="s">
         <v>101</v>
       </c>
@@ -62855,7 +62941,7 @@
     </row>
     <row r="40" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A40" s="66"/>
-      <c r="B40" s="671" t="s">
+      <c r="B40" s="665" t="s">
         <v>88</v>
       </c>
       <c r="C40" s="67" t="s">
@@ -62868,8 +62954,8 @@
     </row>
     <row r="41" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A41" s="66"/>
-      <c r="B41" s="673"/>
-      <c r="C41" s="671" t="s">
+      <c r="B41" s="666"/>
+      <c r="C41" s="665" t="s">
         <v>102</v>
       </c>
       <c r="D41" s="70" t="s">
@@ -62881,8 +62967,8 @@
     </row>
     <row r="42" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A42" s="66"/>
-      <c r="B42" s="673"/>
-      <c r="C42" s="672"/>
+      <c r="B42" s="666"/>
+      <c r="C42" s="667"/>
       <c r="D42" s="70" t="s">
         <v>136</v>
       </c>
@@ -62892,7 +62978,7 @@
     </row>
     <row r="43" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A43" s="66"/>
-      <c r="B43" s="672"/>
+      <c r="B43" s="667"/>
       <c r="C43" s="70" t="s">
         <v>103</v>
       </c>
@@ -62903,7 +62989,7 @@
     </row>
     <row r="44" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A44" s="66"/>
-      <c r="B44" s="671" t="s">
+      <c r="B44" s="665" t="s">
         <v>89</v>
       </c>
       <c r="C44" s="67" t="s">
@@ -62917,7 +63003,7 @@
     </row>
     <row r="45" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A45" s="66"/>
-      <c r="B45" s="673"/>
+      <c r="B45" s="666"/>
       <c r="C45" s="70" t="s">
         <v>104</v>
       </c>
@@ -62928,7 +63014,7 @@
     </row>
     <row r="46" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A46" s="66"/>
-      <c r="B46" s="673"/>
+      <c r="B46" s="666"/>
       <c r="C46" s="70" t="s">
         <v>105</v>
       </c>
@@ -62939,7 +63025,7 @@
     </row>
     <row r="47" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A47" s="66"/>
-      <c r="B47" s="673"/>
+      <c r="B47" s="666"/>
       <c r="C47" s="70" t="s">
         <v>106</v>
       </c>
@@ -62950,7 +63036,7 @@
     </row>
     <row r="48" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A48" s="66"/>
-      <c r="B48" s="672"/>
+      <c r="B48" s="667"/>
       <c r="C48" s="70" t="s">
         <v>107</v>
       </c>
@@ -63008,10 +63094,10 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="66"/>
       <c r="B53" s="73"/>
-      <c r="C53" s="671" t="s">
+      <c r="C53" s="665" t="s">
         <v>162</v>
       </c>
-      <c r="D53" s="671" t="s">
+      <c r="D53" s="665" t="s">
         <v>169</v>
       </c>
       <c r="E53" s="66" t="s">
@@ -63023,8 +63109,8 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="66"/>
       <c r="B54" s="73"/>
-      <c r="C54" s="673"/>
-      <c r="D54" s="673"/>
+      <c r="C54" s="666"/>
+      <c r="D54" s="666"/>
       <c r="E54" s="66" t="s">
         <v>173</v>
       </c>
@@ -63034,8 +63120,8 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="66"/>
       <c r="B55" s="73"/>
-      <c r="C55" s="673"/>
-      <c r="D55" s="672"/>
+      <c r="C55" s="666"/>
+      <c r="D55" s="667"/>
       <c r="E55" s="66" t="s">
         <v>174</v>
       </c>
@@ -63045,11 +63131,11 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="66"/>
       <c r="B56" s="73"/>
-      <c r="C56" s="673"/>
-      <c r="D56" s="671" t="s">
+      <c r="C56" s="666"/>
+      <c r="D56" s="665" t="s">
         <v>170</v>
       </c>
-      <c r="E56" s="671" t="s">
+      <c r="E56" s="665" t="s">
         <v>175</v>
       </c>
       <c r="F56" s="66" t="s">
@@ -63060,9 +63146,9 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="66"/>
       <c r="B57" s="73"/>
-      <c r="C57" s="673"/>
-      <c r="D57" s="673"/>
-      <c r="E57" s="673"/>
+      <c r="C57" s="666"/>
+      <c r="D57" s="666"/>
+      <c r="E57" s="666"/>
       <c r="F57" s="66" t="s">
         <v>177</v>
       </c>
@@ -63071,9 +63157,9 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="66"/>
       <c r="B58" s="73"/>
-      <c r="C58" s="673"/>
-      <c r="D58" s="673"/>
-      <c r="E58" s="672"/>
+      <c r="C58" s="666"/>
+      <c r="D58" s="666"/>
+      <c r="E58" s="667"/>
       <c r="F58" s="66" t="s">
         <v>174</v>
       </c>
@@ -63082,9 +63168,9 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="66"/>
       <c r="B59" s="73"/>
-      <c r="C59" s="673"/>
-      <c r="D59" s="673"/>
-      <c r="E59" s="671" t="s">
+      <c r="C59" s="666"/>
+      <c r="D59" s="666"/>
+      <c r="E59" s="665" t="s">
         <v>128</v>
       </c>
       <c r="F59" s="66" t="s">
@@ -63095,9 +63181,9 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="66"/>
       <c r="B60" s="73"/>
-      <c r="C60" s="673"/>
-      <c r="D60" s="672"/>
-      <c r="E60" s="672"/>
+      <c r="C60" s="666"/>
+      <c r="D60" s="667"/>
+      <c r="E60" s="667"/>
       <c r="F60" s="66" t="s">
         <v>179</v>
       </c>
@@ -63106,8 +63192,8 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="66"/>
       <c r="B61" s="73"/>
-      <c r="C61" s="673"/>
-      <c r="D61" s="671" t="s">
+      <c r="C61" s="666"/>
+      <c r="D61" s="665" t="s">
         <v>171</v>
       </c>
       <c r="E61" s="66" t="s">
@@ -63119,8 +63205,8 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="66"/>
       <c r="B62" s="73"/>
-      <c r="C62" s="673"/>
-      <c r="D62" s="673"/>
+      <c r="C62" s="666"/>
+      <c r="D62" s="666"/>
       <c r="E62" s="66" t="s">
         <v>181</v>
       </c>
@@ -63130,8 +63216,8 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="66"/>
       <c r="B63" s="73"/>
-      <c r="C63" s="672"/>
-      <c r="D63" s="672"/>
+      <c r="C63" s="667"/>
+      <c r="D63" s="667"/>
       <c r="E63" s="66" t="s">
         <v>182</v>
       </c>
@@ -63144,7 +63230,7 @@
       <c r="C64" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="D64" s="671" t="s">
+      <c r="D64" s="665" t="s">
         <v>183</v>
       </c>
       <c r="E64" s="66" t="s">
@@ -63157,7 +63243,7 @@
       <c r="A65" s="66"/>
       <c r="B65" s="73"/>
       <c r="C65" s="70"/>
-      <c r="D65" s="672"/>
+      <c r="D65" s="667"/>
       <c r="E65" s="66" t="s">
         <v>185</v>
       </c>
@@ -63243,7 +63329,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="66"/>
-      <c r="B73" s="665" t="s">
+      <c r="B73" s="668" t="s">
         <v>76</v>
       </c>
       <c r="C73" s="67" t="s">
@@ -63256,7 +63342,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="66"/>
-      <c r="B74" s="665"/>
+      <c r="B74" s="668"/>
       <c r="C74" s="70" t="s">
         <v>109</v>
       </c>
@@ -63267,7 +63353,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="66"/>
-      <c r="B75" s="665"/>
+      <c r="B75" s="668"/>
       <c r="C75" s="70" t="s">
         <v>110</v>
       </c>
@@ -63278,7 +63364,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="66"/>
-      <c r="B76" s="665"/>
+      <c r="B76" s="668"/>
       <c r="C76" s="70" t="s">
         <v>111</v>
       </c>
@@ -63289,7 +63375,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="66"/>
-      <c r="B77" s="665"/>
+      <c r="B77" s="668"/>
       <c r="C77" s="70" t="s">
         <v>112</v>
       </c>
@@ -63300,7 +63386,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="66"/>
-      <c r="B78" s="665"/>
+      <c r="B78" s="668"/>
       <c r="C78" s="70" t="s">
         <v>113</v>
       </c>
@@ -63311,7 +63397,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="66"/>
-      <c r="B79" s="665"/>
+      <c r="B79" s="668"/>
       <c r="C79" s="70" t="s">
         <v>114</v>
       </c>
@@ -63322,7 +63408,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="66"/>
-      <c r="B80" s="665"/>
+      <c r="B80" s="668"/>
       <c r="C80" s="70" t="s">
         <v>115</v>
       </c>
@@ -63344,18 +63430,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C21:C26"/>
     <mergeCell ref="B73:B80"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C27:C29"/>
@@ -63368,6 +63442,18 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C53:C63"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D56:D60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -63935,18 +64021,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="76" customWidth="1"/>
-    <col min="2" max="2" width="35.125" style="76" customWidth="1"/>
+    <col min="1" max="1" width="19.875" style="76" customWidth="1"/>
+    <col min="2" max="2" width="49" style="76" customWidth="1"/>
     <col min="3" max="3" width="27.375" style="76" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.25" style="76" customWidth="1"/>
+    <col min="4" max="4" width="47.875" style="76" customWidth="1"/>
     <col min="5" max="5" width="40.625" style="93" customWidth="1"/>
     <col min="6" max="6" width="10.625" style="99" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="99" customWidth="1"/>
@@ -65392,7 +65478,7 @@
       <c r="L64" s="224"/>
       <c r="M64" s="224"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65" s="222" t="s">
         <v>266</v>
       </c>
@@ -65409,7 +65495,7 @@
       <c r="L65" s="224"/>
       <c r="M65" s="224"/>
     </row>
-    <row r="66" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="225" t="s">
         <v>804</v>
       </c>
@@ -65432,7 +65518,7 @@
       <c r="L66" s="224"/>
       <c r="M66" s="224"/>
     </row>
-    <row r="67" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="225" t="s">
         <v>805</v>
       </c>
@@ -65455,7 +65541,7 @@
       <c r="L67" s="224"/>
       <c r="M67" s="224"/>
     </row>
-    <row r="68" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="225" t="s">
         <v>806</v>
       </c>
@@ -65478,7 +65564,7 @@
       <c r="L68" s="224"/>
       <c r="M68" s="224"/>
     </row>
-    <row r="69" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="248" t="s">
         <v>946</v>
       </c>
@@ -65500,6 +65586,95 @@
       <c r="K69" s="250"/>
       <c r="L69" s="257"/>
       <c r="M69" s="257"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A70" s="702" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B70" s="256"/>
+      <c r="C70" s="257"/>
+      <c r="D70" s="257"/>
+      <c r="E70" s="251"/>
+      <c r="F70" s="254"/>
+      <c r="G70" s="254"/>
+      <c r="H70" s="254"/>
+      <c r="I70" s="254"/>
+      <c r="J70" s="254"/>
+      <c r="K70" s="250"/>
+      <c r="L70" s="257"/>
+      <c r="M70" s="257"/>
+    </row>
+    <row r="71" spans="1:14" s="704" customFormat="1" ht="114.75" x14ac:dyDescent="0.15">
+      <c r="A71" s="543" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B71" s="574" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C71" s="574" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D71" s="574" t="s">
+        <v>2317</v>
+      </c>
+      <c r="E71" s="703"/>
+      <c r="F71" s="577"/>
+      <c r="G71" s="576"/>
+      <c r="H71" s="576"/>
+      <c r="I71" s="576"/>
+      <c r="J71" s="576"/>
+      <c r="K71" s="576"/>
+      <c r="L71" s="577"/>
+      <c r="M71" s="703"/>
+      <c r="N71" s="703"/>
+    </row>
+    <row r="72" spans="1:14" s="704" customFormat="1" ht="76.5" x14ac:dyDescent="0.15">
+      <c r="A72" s="543" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B72" s="574" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C72" s="574" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D72" s="574" t="s">
+        <v>2321</v>
+      </c>
+      <c r="E72" s="703"/>
+      <c r="F72" s="577"/>
+      <c r="G72" s="576"/>
+      <c r="H72" s="576"/>
+      <c r="I72" s="576"/>
+      <c r="J72" s="576"/>
+      <c r="K72" s="576"/>
+      <c r="L72" s="577"/>
+      <c r="M72" s="703"/>
+      <c r="N72" s="703"/>
+    </row>
+    <row r="73" spans="1:14" s="704" customFormat="1" ht="114.75" x14ac:dyDescent="0.15">
+      <c r="A73" s="543" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B73" s="574" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C73" s="574" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D73" s="574" t="s">
+        <v>2324</v>
+      </c>
+      <c r="E73" s="703"/>
+      <c r="F73" s="577"/>
+      <c r="G73" s="576"/>
+      <c r="H73" s="576"/>
+      <c r="I73" s="576"/>
+      <c r="J73" s="576"/>
+      <c r="K73" s="576"/>
+      <c r="L73" s="577"/>
+      <c r="M73" s="703"/>
+      <c r="N73" s="703"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -66711,7 +66886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>

--- a/Document/My Ais/T9/T9_Test_MyAIS_APP_3PE_EN.xlsx
+++ b/Document/My Ais/T9/T9_Test_MyAIS_APP_3PE_EN.xlsx
@@ -29081,6 +29081,65 @@
     <t>Verify page "International Service"</t>
   </si>
   <si>
+    <t>F10_Package_1_2_Y_1_2</t>
+  </si>
+  <si>
+    <t>F10_Package_1_2_Y_2_2</t>
+  </si>
+  <si>
+    <t>F10_Package_1_2_Y_3_2</t>
+  </si>
+  <si>
+    <t>1. Login MyAIS.
+2. Click "Package" menu
+3. Click "International Service" menu
+4. Click "International Roaming Service"
+5. Verify page popup message "xxx"
+6. Capture screen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify page popup message
+In Case: เปิดใช้งาน "บริการข้ามแดนอัตโนมัติ (IR)"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>*popup msg ยังไม่ขึ้นเนื่องจากหน้าจอทำการ loading</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify page popup message
+In Case: ปิดใช้งาน "บริการข้ามแดนอัตโนมัติ (IR)"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>*popup msg ยังไม่ขึ้นเนื่องจากหน้าจอทำการ loading</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Login MyAIS.
+2. Click "Package" menu
+3. Click "International Service" menu
+4. Click "International Roaming Service"
+5. Click "OK" (popup เปิด IR)
+6. Click "International Roaming Service" 
+7. Verify page popup message "xxx"
+8. Capture screen</t>
+  </si>
+  <si>
     <t>1. Login MyAIS.
 2. Click "Package" menu
 3. Click "International Service" menu
@@ -29088,68 +29147,7 @@
 - International Service
 - Mobile no
 - International Roaming Service
-- International Call Service
 5. Capture screen</t>
-  </si>
-  <si>
-    <t>F10_Package_1_2_Y_1_2</t>
-  </si>
-  <si>
-    <t>F10_Package_1_2_Y_2_2</t>
-  </si>
-  <si>
-    <t>F10_Package_1_2_Y_3_2</t>
-  </si>
-  <si>
-    <t>1. Login MyAIS.
-2. Click "Package" menu
-3. Click "International Service" menu
-4. Click "International Roaming Service"
-5. Verify page popup message "xxx"
-6. Capture screen</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify page popup message
-In Case: เปิดใช้งาน "บริการข้ามแดนอัตโนมัติ (IR)"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>*popup msg ยังไม่ขึ้นเนื่องจากหน้าจอทำการ loading</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify page popup message
-In Case: ปิดใช้งาน "บริการข้ามแดนอัตโนมัติ (IR)"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>*popup msg ยังไม่ขึ้นเนื่องจากหน้าจอทำการ loading</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Login MyAIS.
-2. Click "Package" menu
-3. Click "International Service" menu
-4. Click "International Roaming Service"
-5. Click "OK" (popup เปิด IR)
-6. Click "OK" (popup เปิด IDD)
-7. Click "International Roaming Service" 
-8. Verify page popup message "xxx"
-9. Capture screen</t>
   </si>
 </sst>
 </file>
@@ -32326,6 +32324,15 @@
     <xf numFmtId="0" fontId="29" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -32647,34 +32654,34 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="55" fillId="20" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="39" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="21" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="46" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="43" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="63" fillId="23" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="57" fillId="21" borderId="37" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="44" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="45" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="20" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="57" fillId="22" borderId="37" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="46" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="20" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="39" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="55" fillId="20" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="21" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="23" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="20" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -32708,15 +32715,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -38249,25 +38247,25 @@
       <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="587" t="s">
+      <c r="C5" s="590" t="s">
         <v>357</v>
       </c>
-      <c r="D5" s="588"/>
-      <c r="E5" s="589"/>
+      <c r="D5" s="591"/>
+      <c r="E5" s="592"/>
       <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="579"/>
-      <c r="I5" s="579"/>
-      <c r="J5" s="579"/>
+      <c r="H5" s="582"/>
+      <c r="I5" s="582"/>
+      <c r="J5" s="582"/>
     </row>
     <row r="6" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="609"/>
-      <c r="D6" s="610"/>
-      <c r="E6" s="611"/>
+      <c r="C6" s="612"/>
+      <c r="D6" s="613"/>
+      <c r="E6" s="614"/>
       <c r="F6" s="7"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -38277,23 +38275,23 @@
       <c r="B7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="590"/>
-      <c r="D7" s="591"/>
-      <c r="E7" s="592"/>
+      <c r="C7" s="593"/>
+      <c r="D7" s="594"/>
+      <c r="E7" s="595"/>
       <c r="F7" s="7"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="579"/>
-      <c r="J7" s="579"/>
+      <c r="H7" s="582"/>
+      <c r="I7" s="582"/>
+      <c r="J7" s="582"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="593" t="s">
+      <c r="C8" s="596" t="s">
         <v>190</v>
       </c>
-      <c r="D8" s="594"/>
-      <c r="E8" s="595"/>
+      <c r="D8" s="597"/>
+      <c r="E8" s="598"/>
       <c r="F8" s="7"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -38316,58 +38314,58 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B11" s="580" t="s">
+      <c r="B11" s="583" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="581"/>
-      <c r="D11" s="582"/>
-      <c r="E11" s="582"/>
-      <c r="F11" s="583"/>
+      <c r="C11" s="584"/>
+      <c r="D11" s="585"/>
+      <c r="E11" s="585"/>
+      <c r="F11" s="586"/>
     </row>
     <row r="12" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="584"/>
-      <c r="D12" s="585"/>
-      <c r="E12" s="585"/>
-      <c r="F12" s="586"/>
+      <c r="C12" s="587"/>
+      <c r="D12" s="588"/>
+      <c r="E12" s="588"/>
+      <c r="F12" s="589"/>
     </row>
     <row r="13" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="584"/>
-      <c r="D13" s="585"/>
-      <c r="E13" s="585"/>
-      <c r="F13" s="586"/>
+      <c r="C13" s="587"/>
+      <c r="D13" s="588"/>
+      <c r="E13" s="588"/>
+      <c r="F13" s="589"/>
     </row>
     <row r="14" spans="2:10" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="584"/>
-      <c r="D14" s="585"/>
-      <c r="E14" s="585"/>
-      <c r="F14" s="586"/>
+      <c r="C14" s="587"/>
+      <c r="D14" s="588"/>
+      <c r="E14" s="588"/>
+      <c r="F14" s="589"/>
     </row>
     <row r="15" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="584"/>
-      <c r="D15" s="585"/>
-      <c r="E15" s="585"/>
-      <c r="F15" s="586"/>
+      <c r="C15" s="587"/>
+      <c r="D15" s="588"/>
+      <c r="E15" s="588"/>
+      <c r="F15" s="589"/>
     </row>
     <row r="16" spans="2:10" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="620"/>
-      <c r="D16" s="621"/>
-      <c r="E16" s="621"/>
-      <c r="F16" s="622"/>
+      <c r="C16" s="623"/>
+      <c r="D16" s="624"/>
+      <c r="E16" s="624"/>
+      <c r="F16" s="625"/>
     </row>
     <row r="17" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
@@ -38377,13 +38375,13 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B18" s="580" t="s">
+      <c r="B18" s="583" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="581"/>
-      <c r="D18" s="581"/>
-      <c r="E18" s="581"/>
-      <c r="F18" s="583"/>
+      <c r="C18" s="584"/>
+      <c r="D18" s="584"/>
+      <c r="E18" s="584"/>
+      <c r="F18" s="586"/>
     </row>
     <row r="19" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
@@ -38395,10 +38393,10 @@
       <c r="D19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="615" t="s">
+      <c r="E19" s="618" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="623"/>
+      <c r="F19" s="626"/>
     </row>
     <row r="20" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
@@ -38410,73 +38408,73 @@
       <c r="D20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="584" t="s">
+      <c r="E20" s="587" t="s">
         <v>355</v>
       </c>
-      <c r="F20" s="596"/>
+      <c r="F20" s="599"/>
     </row>
     <row r="21" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="584"/>
-      <c r="F21" s="596"/>
+      <c r="E21" s="587"/>
+      <c r="F21" s="599"/>
     </row>
     <row r="22" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="584"/>
-      <c r="F22" s="596"/>
+      <c r="E22" s="587"/>
+      <c r="F22" s="599"/>
     </row>
     <row r="23" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="584"/>
-      <c r="F23" s="596"/>
+      <c r="E23" s="587"/>
+      <c r="F23" s="599"/>
     </row>
     <row r="24" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="584"/>
-      <c r="F24" s="596"/>
+      <c r="E24" s="587"/>
+      <c r="F24" s="599"/>
     </row>
     <row r="25" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="584"/>
-      <c r="F25" s="596"/>
+      <c r="E25" s="587"/>
+      <c r="F25" s="599"/>
     </row>
     <row r="26" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="584"/>
-      <c r="F26" s="596"/>
+      <c r="E26" s="587"/>
+      <c r="F26" s="599"/>
     </row>
     <row r="27" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="584"/>
-      <c r="F27" s="596"/>
+      <c r="E27" s="587"/>
+      <c r="F27" s="599"/>
     </row>
     <row r="28" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B28" s="16"/>
       <c r="C28" s="20"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="584"/>
-      <c r="F28" s="596"/>
+      <c r="E28" s="587"/>
+      <c r="F28" s="599"/>
     </row>
     <row r="29" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="597"/>
-      <c r="F29" s="598"/>
+      <c r="E29" s="600"/>
+      <c r="F29" s="601"/>
     </row>
     <row r="30" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
@@ -38486,67 +38484,67 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B31" s="612" t="s">
+      <c r="B31" s="615" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="613"/>
-      <c r="D31" s="613"/>
-      <c r="E31" s="614"/>
+      <c r="C31" s="616"/>
+      <c r="D31" s="616"/>
+      <c r="E31" s="617"/>
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="615" t="s">
+      <c r="C32" s="618" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="616"/>
-      <c r="E32" s="616"/>
+      <c r="D32" s="619"/>
+      <c r="E32" s="619"/>
       <c r="F32" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B33" s="16"/>
-      <c r="C33" s="601"/>
-      <c r="D33" s="602"/>
-      <c r="E33" s="602"/>
+      <c r="C33" s="604"/>
+      <c r="D33" s="605"/>
+      <c r="E33" s="605"/>
       <c r="F33" s="26"/>
     </row>
     <row r="34" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B34" s="16"/>
-      <c r="C34" s="617"/>
-      <c r="D34" s="618"/>
-      <c r="E34" s="619"/>
+      <c r="C34" s="620"/>
+      <c r="D34" s="621"/>
+      <c r="E34" s="622"/>
       <c r="F34" s="26"/>
     </row>
     <row r="35" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B35" s="27"/>
-      <c r="C35" s="599"/>
-      <c r="D35" s="600"/>
-      <c r="E35" s="600"/>
+      <c r="C35" s="602"/>
+      <c r="D35" s="603"/>
+      <c r="E35" s="603"/>
       <c r="F35" s="28"/>
     </row>
     <row r="36" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B36" s="27"/>
-      <c r="C36" s="601"/>
-      <c r="D36" s="602"/>
-      <c r="E36" s="602"/>
+      <c r="C36" s="604"/>
+      <c r="D36" s="605"/>
+      <c r="E36" s="605"/>
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B37" s="27"/>
-      <c r="C37" s="603"/>
-      <c r="D37" s="604"/>
-      <c r="E37" s="605"/>
+      <c r="C37" s="606"/>
+      <c r="D37" s="607"/>
+      <c r="E37" s="608"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
-      <c r="C38" s="606"/>
-      <c r="D38" s="607"/>
-      <c r="E38" s="608"/>
+      <c r="C38" s="609"/>
+      <c r="D38" s="610"/>
+      <c r="E38" s="611"/>
       <c r="F38" s="29"/>
     </row>
     <row r="39" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43954,98 +43952,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="685" t="s">
+      <c r="A1" s="691" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="683" t="s">
+      <c r="B1" s="679" t="s">
         <v>962</v>
       </c>
-      <c r="C1" s="683" t="s">
+      <c r="C1" s="679" t="s">
         <v>963</v>
       </c>
-      <c r="D1" s="683" t="s">
+      <c r="D1" s="679" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="683" t="s">
+      <c r="E1" s="679" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="683" t="s">
+      <c r="F1" s="679" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="683" t="s">
+      <c r="G1" s="679" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="683" t="s">
+      <c r="H1" s="679" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="683" t="s">
+      <c r="I1" s="679" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="683" t="s">
+      <c r="J1" s="679" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="683" t="s">
+      <c r="K1" s="679" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="683" t="s">
+      <c r="L1" s="679" t="s">
         <v>62</v>
       </c>
       <c r="M1" s="688" t="s">
         <v>964</v>
       </c>
-      <c r="N1" s="676" t="s">
+      <c r="N1" s="689" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="684"/>
-      <c r="B2" s="684"/>
-      <c r="C2" s="684"/>
-      <c r="D2" s="684"/>
-      <c r="E2" s="684"/>
-      <c r="F2" s="684"/>
-      <c r="G2" s="684"/>
-      <c r="H2" s="684"/>
-      <c r="I2" s="684"/>
-      <c r="J2" s="684"/>
-      <c r="K2" s="684"/>
-      <c r="L2" s="684"/>
-      <c r="M2" s="684"/>
-      <c r="N2" s="677"/>
+      <c r="A2" s="680"/>
+      <c r="B2" s="680"/>
+      <c r="C2" s="680"/>
+      <c r="D2" s="680"/>
+      <c r="E2" s="680"/>
+      <c r="F2" s="680"/>
+      <c r="G2" s="680"/>
+      <c r="H2" s="680"/>
+      <c r="I2" s="680"/>
+      <c r="J2" s="680"/>
+      <c r="K2" s="680"/>
+      <c r="L2" s="680"/>
+      <c r="M2" s="680"/>
+      <c r="N2" s="683"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="678" t="s">
+      <c r="A3" s="685" t="s">
         <v>966</v>
       </c>
-      <c r="B3" s="679"/>
-      <c r="C3" s="679"/>
-      <c r="D3" s="679"/>
-      <c r="E3" s="679"/>
-      <c r="F3" s="679"/>
-      <c r="G3" s="679"/>
-      <c r="H3" s="679"/>
-      <c r="I3" s="679"/>
-      <c r="J3" s="679"/>
-      <c r="K3" s="679"/>
-      <c r="L3" s="680"/>
+      <c r="B3" s="686"/>
+      <c r="C3" s="686"/>
+      <c r="D3" s="686"/>
+      <c r="E3" s="686"/>
+      <c r="F3" s="686"/>
+      <c r="G3" s="686"/>
+      <c r="H3" s="686"/>
+      <c r="I3" s="686"/>
+      <c r="J3" s="686"/>
+      <c r="K3" s="686"/>
+      <c r="L3" s="687"/>
       <c r="M3" s="263"/>
       <c r="N3" s="264"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="681" t="s">
+      <c r="A4" s="690" t="s">
         <v>967</v>
       </c>
-      <c r="B4" s="679"/>
-      <c r="C4" s="679"/>
-      <c r="D4" s="679"/>
-      <c r="E4" s="679"/>
-      <c r="F4" s="679"/>
-      <c r="G4" s="679"/>
-      <c r="H4" s="679"/>
-      <c r="I4" s="679"/>
-      <c r="J4" s="679"/>
-      <c r="K4" s="679"/>
-      <c r="L4" s="680"/>
+      <c r="B4" s="686"/>
+      <c r="C4" s="686"/>
+      <c r="D4" s="686"/>
+      <c r="E4" s="686"/>
+      <c r="F4" s="686"/>
+      <c r="G4" s="686"/>
+      <c r="H4" s="686"/>
+      <c r="I4" s="686"/>
+      <c r="J4" s="686"/>
+      <c r="K4" s="686"/>
+      <c r="L4" s="687"/>
       <c r="M4" s="265"/>
       <c r="N4" s="266"/>
     </row>
@@ -44217,20 +44215,20 @@
       <c r="N10" s="296"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="678" t="s">
+      <c r="A11" s="685" t="s">
         <v>989</v>
       </c>
       <c r="B11" s="682"/>
       <c r="C11" s="682"/>
-      <c r="D11" s="679"/>
+      <c r="D11" s="686"/>
       <c r="E11" s="682"/>
-      <c r="F11" s="679"/>
-      <c r="G11" s="679"/>
-      <c r="H11" s="679"/>
-      <c r="I11" s="679"/>
-      <c r="J11" s="679"/>
-      <c r="K11" s="679"/>
-      <c r="L11" s="680"/>
+      <c r="F11" s="686"/>
+      <c r="G11" s="686"/>
+      <c r="H11" s="686"/>
+      <c r="I11" s="686"/>
+      <c r="J11" s="686"/>
+      <c r="K11" s="686"/>
+      <c r="L11" s="687"/>
       <c r="M11" s="263"/>
       <c r="N11" s="263"/>
     </row>
@@ -44291,20 +44289,20 @@
       <c r="N13" s="308"/>
     </row>
     <row r="14" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="678" t="s">
+      <c r="A14" s="685" t="s">
         <v>997</v>
       </c>
-      <c r="B14" s="679"/>
-      <c r="C14" s="679"/>
-      <c r="D14" s="679"/>
-      <c r="E14" s="679"/>
-      <c r="F14" s="679"/>
-      <c r="G14" s="679"/>
-      <c r="H14" s="679"/>
-      <c r="I14" s="679"/>
-      <c r="J14" s="679"/>
-      <c r="K14" s="679"/>
-      <c r="L14" s="680"/>
+      <c r="B14" s="686"/>
+      <c r="C14" s="686"/>
+      <c r="D14" s="686"/>
+      <c r="E14" s="686"/>
+      <c r="F14" s="686"/>
+      <c r="G14" s="686"/>
+      <c r="H14" s="686"/>
+      <c r="I14" s="686"/>
+      <c r="J14" s="686"/>
+      <c r="K14" s="686"/>
+      <c r="L14" s="687"/>
       <c r="M14" s="307"/>
       <c r="N14" s="308"/>
     </row>
@@ -44365,7 +44363,7 @@
       <c r="N16" s="316"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="686" t="s">
+      <c r="A17" s="681" t="s">
         <v>1003</v>
       </c>
       <c r="B17" s="682"/>
@@ -44378,7 +44376,7 @@
       <c r="I17" s="682"/>
       <c r="J17" s="682"/>
       <c r="K17" s="682"/>
-      <c r="L17" s="677"/>
+      <c r="L17" s="683"/>
       <c r="M17" s="317"/>
       <c r="N17" s="318"/>
     </row>
@@ -44695,7 +44693,7 @@
       <c r="N30" s="355"/>
     </row>
     <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="687" t="s">
+      <c r="A31" s="684" t="s">
         <v>1041</v>
       </c>
       <c r="B31" s="682"/>
@@ -44708,7 +44706,7 @@
       <c r="I31" s="682"/>
       <c r="J31" s="682"/>
       <c r="K31" s="682"/>
-      <c r="L31" s="677"/>
+      <c r="L31" s="683"/>
       <c r="M31" s="356"/>
       <c r="N31" s="356"/>
     </row>
@@ -59172,7 +59170,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A17:L17"/>
     <mergeCell ref="A31:L31"/>
     <mergeCell ref="A14:L14"/>
     <mergeCell ref="M1:M2"/>
@@ -59192,6 +59189,7 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -59218,56 +59216,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="691" t="s">
+      <c r="A1" s="694" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="693" t="s">
+      <c r="B1" s="696" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="693" t="s">
+      <c r="C1" s="696" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="694" t="s">
+      <c r="D1" s="697" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="694" t="s">
+      <c r="E1" s="697" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="693" t="s">
+      <c r="F1" s="696" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="693" t="s">
+      <c r="G1" s="696" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="693" t="s">
+      <c r="H1" s="696" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="693" t="s">
+      <c r="I1" s="696" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="693" t="s">
+      <c r="J1" s="696" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="696" t="s">
+      <c r="K1" s="699" t="s">
         <v>964</v>
       </c>
-      <c r="L1" s="689" t="s">
+      <c r="L1" s="692" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="692"/>
-      <c r="B2" s="692"/>
-      <c r="C2" s="692"/>
-      <c r="D2" s="695"/>
-      <c r="E2" s="695"/>
-      <c r="F2" s="692"/>
-      <c r="G2" s="692"/>
-      <c r="H2" s="692"/>
-      <c r="I2" s="692"/>
-      <c r="J2" s="692"/>
-      <c r="K2" s="692"/>
-      <c r="L2" s="690"/>
+      <c r="A2" s="695"/>
+      <c r="B2" s="695"/>
+      <c r="C2" s="695"/>
+      <c r="D2" s="698"/>
+      <c r="E2" s="698"/>
+      <c r="F2" s="695"/>
+      <c r="G2" s="695"/>
+      <c r="H2" s="695"/>
+      <c r="I2" s="695"/>
+      <c r="J2" s="695"/>
+      <c r="K2" s="695"/>
+      <c r="L2" s="693"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="386" t="s">
@@ -59790,20 +59788,20 @@
       <c r="L25" s="383"/>
     </row>
     <row r="26" spans="1:12" s="415" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="697" t="s">
+      <c r="A26" s="700" t="s">
         <v>1161</v>
       </c>
-      <c r="B26" s="698"/>
-      <c r="C26" s="698"/>
-      <c r="D26" s="698"/>
-      <c r="E26" s="698"/>
-      <c r="F26" s="698"/>
-      <c r="G26" s="698"/>
-      <c r="H26" s="698"/>
-      <c r="I26" s="698"/>
-      <c r="J26" s="698"/>
-      <c r="K26" s="698"/>
-      <c r="L26" s="699"/>
+      <c r="B26" s="701"/>
+      <c r="C26" s="701"/>
+      <c r="D26" s="701"/>
+      <c r="E26" s="701"/>
+      <c r="F26" s="701"/>
+      <c r="G26" s="701"/>
+      <c r="H26" s="701"/>
+      <c r="I26" s="701"/>
+      <c r="J26" s="701"/>
+      <c r="K26" s="701"/>
+      <c r="L26" s="702"/>
     </row>
     <row r="27" spans="1:12" s="415" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="218" t="s">
@@ -60446,20 +60444,20 @@
       <c r="L54" s="418"/>
     </row>
     <row r="55" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="700" t="s">
+      <c r="A55" s="703" t="s">
         <v>1167</v>
       </c>
-      <c r="B55" s="700"/>
-      <c r="C55" s="700"/>
-      <c r="D55" s="700"/>
-      <c r="E55" s="700"/>
-      <c r="F55" s="700"/>
-      <c r="G55" s="700"/>
-      <c r="H55" s="700"/>
-      <c r="I55" s="700"/>
-      <c r="J55" s="700"/>
-      <c r="K55" s="700"/>
-      <c r="L55" s="700"/>
+      <c r="B55" s="703"/>
+      <c r="C55" s="703"/>
+      <c r="D55" s="703"/>
+      <c r="E55" s="703"/>
+      <c r="F55" s="703"/>
+      <c r="G55" s="703"/>
+      <c r="H55" s="703"/>
+      <c r="I55" s="703"/>
+      <c r="J55" s="703"/>
+      <c r="K55" s="703"/>
+      <c r="L55" s="703"/>
     </row>
     <row r="56" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="218" t="s">
@@ -60510,20 +60508,20 @@
       <c r="L57" s="418"/>
     </row>
     <row r="58" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="700" t="s">
+      <c r="A58" s="703" t="s">
         <v>1422</v>
       </c>
-      <c r="B58" s="700"/>
-      <c r="C58" s="700"/>
-      <c r="D58" s="700"/>
-      <c r="E58" s="700"/>
-      <c r="F58" s="700"/>
-      <c r="G58" s="700"/>
-      <c r="H58" s="700"/>
-      <c r="I58" s="700"/>
-      <c r="J58" s="700"/>
-      <c r="K58" s="700"/>
-      <c r="L58" s="700"/>
+      <c r="B58" s="703"/>
+      <c r="C58" s="703"/>
+      <c r="D58" s="703"/>
+      <c r="E58" s="703"/>
+      <c r="F58" s="703"/>
+      <c r="G58" s="703"/>
+      <c r="H58" s="703"/>
+      <c r="I58" s="703"/>
+      <c r="J58" s="703"/>
+      <c r="K58" s="703"/>
+      <c r="L58" s="703"/>
     </row>
     <row r="59" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="218" t="s">
@@ -60574,20 +60572,20 @@
       <c r="L60" s="418"/>
     </row>
     <row r="61" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="700" t="s">
+      <c r="A61" s="703" t="s">
         <v>1424</v>
       </c>
-      <c r="B61" s="700"/>
-      <c r="C61" s="700"/>
-      <c r="D61" s="700"/>
-      <c r="E61" s="700"/>
-      <c r="F61" s="700"/>
-      <c r="G61" s="700"/>
-      <c r="H61" s="700"/>
-      <c r="I61" s="700"/>
-      <c r="J61" s="700"/>
-      <c r="K61" s="700"/>
-      <c r="L61" s="700"/>
+      <c r="B61" s="703"/>
+      <c r="C61" s="703"/>
+      <c r="D61" s="703"/>
+      <c r="E61" s="703"/>
+      <c r="F61" s="703"/>
+      <c r="G61" s="703"/>
+      <c r="H61" s="703"/>
+      <c r="I61" s="703"/>
+      <c r="J61" s="703"/>
+      <c r="K61" s="703"/>
+      <c r="L61" s="703"/>
     </row>
     <row r="62" spans="1:12" s="547" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="543" t="s">
@@ -60638,20 +60636,20 @@
       <c r="L63" s="418"/>
     </row>
     <row r="64" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="697" t="s">
+      <c r="A64" s="700" t="s">
         <v>1426</v>
       </c>
-      <c r="B64" s="698"/>
-      <c r="C64" s="698"/>
-      <c r="D64" s="698"/>
-      <c r="E64" s="698"/>
-      <c r="F64" s="698"/>
-      <c r="G64" s="698"/>
-      <c r="H64" s="698"/>
-      <c r="I64" s="698"/>
-      <c r="J64" s="698"/>
-      <c r="K64" s="698"/>
-      <c r="L64" s="699"/>
+      <c r="B64" s="701"/>
+      <c r="C64" s="701"/>
+      <c r="D64" s="701"/>
+      <c r="E64" s="701"/>
+      <c r="F64" s="701"/>
+      <c r="G64" s="701"/>
+      <c r="H64" s="701"/>
+      <c r="I64" s="701"/>
+      <c r="J64" s="701"/>
+      <c r="K64" s="701"/>
+      <c r="L64" s="702"/>
     </row>
     <row r="65" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="218" t="s">
@@ -60750,20 +60748,20 @@
       <c r="L68" s="418"/>
     </row>
     <row r="69" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="700" t="s">
+      <c r="A69" s="703" t="s">
         <v>1430</v>
       </c>
-      <c r="B69" s="700"/>
-      <c r="C69" s="700"/>
-      <c r="D69" s="700"/>
-      <c r="E69" s="700"/>
-      <c r="F69" s="700"/>
-      <c r="G69" s="700"/>
-      <c r="H69" s="700"/>
-      <c r="I69" s="700"/>
-      <c r="J69" s="700"/>
-      <c r="K69" s="700"/>
-      <c r="L69" s="700"/>
+      <c r="B69" s="703"/>
+      <c r="C69" s="703"/>
+      <c r="D69" s="703"/>
+      <c r="E69" s="703"/>
+      <c r="F69" s="703"/>
+      <c r="G69" s="703"/>
+      <c r="H69" s="703"/>
+      <c r="I69" s="703"/>
+      <c r="J69" s="703"/>
+      <c r="K69" s="703"/>
+      <c r="L69" s="703"/>
     </row>
     <row r="70" spans="1:12" s="547" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="543" t="s">
@@ -60888,20 +60886,20 @@
       <c r="L74" s="418"/>
     </row>
     <row r="75" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="700" t="s">
+      <c r="A75" s="703" t="s">
         <v>1435</v>
       </c>
-      <c r="B75" s="700"/>
-      <c r="C75" s="700"/>
-      <c r="D75" s="700"/>
-      <c r="E75" s="700"/>
-      <c r="F75" s="700"/>
-      <c r="G75" s="700"/>
-      <c r="H75" s="700"/>
-      <c r="I75" s="700"/>
-      <c r="J75" s="700"/>
-      <c r="K75" s="700"/>
-      <c r="L75" s="700"/>
+      <c r="B75" s="703"/>
+      <c r="C75" s="703"/>
+      <c r="D75" s="703"/>
+      <c r="E75" s="703"/>
+      <c r="F75" s="703"/>
+      <c r="G75" s="703"/>
+      <c r="H75" s="703"/>
+      <c r="I75" s="703"/>
+      <c r="J75" s="703"/>
+      <c r="K75" s="703"/>
+      <c r="L75" s="703"/>
     </row>
     <row r="76" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="218" t="s">
@@ -60976,20 +60974,20 @@
       <c r="L78" s="418"/>
     </row>
     <row r="79" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="700" t="s">
+      <c r="A79" s="703" t="s">
         <v>1438</v>
       </c>
-      <c r="B79" s="700"/>
-      <c r="C79" s="700"/>
-      <c r="D79" s="700"/>
-      <c r="E79" s="700"/>
-      <c r="F79" s="700"/>
-      <c r="G79" s="700"/>
-      <c r="H79" s="700"/>
-      <c r="I79" s="700"/>
-      <c r="J79" s="700"/>
-      <c r="K79" s="700"/>
-      <c r="L79" s="700"/>
+      <c r="B79" s="703"/>
+      <c r="C79" s="703"/>
+      <c r="D79" s="703"/>
+      <c r="E79" s="703"/>
+      <c r="F79" s="703"/>
+      <c r="G79" s="703"/>
+      <c r="H79" s="703"/>
+      <c r="I79" s="703"/>
+      <c r="J79" s="703"/>
+      <c r="K79" s="703"/>
+      <c r="L79" s="703"/>
     </row>
     <row r="80" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="218" t="s">
@@ -61088,20 +61086,20 @@
       <c r="L83" s="418"/>
     </row>
     <row r="84" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="700" t="s">
+      <c r="A84" s="703" t="s">
         <v>1441</v>
       </c>
-      <c r="B84" s="700"/>
-      <c r="C84" s="700"/>
-      <c r="D84" s="700"/>
-      <c r="E84" s="700"/>
-      <c r="F84" s="700"/>
-      <c r="G84" s="700"/>
-      <c r="H84" s="700"/>
-      <c r="I84" s="700"/>
-      <c r="J84" s="700"/>
-      <c r="K84" s="700"/>
-      <c r="L84" s="700"/>
+      <c r="B84" s="703"/>
+      <c r="C84" s="703"/>
+      <c r="D84" s="703"/>
+      <c r="E84" s="703"/>
+      <c r="F84" s="703"/>
+      <c r="G84" s="703"/>
+      <c r="H84" s="703"/>
+      <c r="I84" s="703"/>
+      <c r="J84" s="703"/>
+      <c r="K84" s="703"/>
+      <c r="L84" s="703"/>
     </row>
     <row r="85" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="218" t="s">
@@ -61152,20 +61150,20 @@
       <c r="L86" s="418"/>
     </row>
     <row r="87" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="700" t="s">
+      <c r="A87" s="703" t="s">
         <v>1443</v>
       </c>
-      <c r="B87" s="700"/>
-      <c r="C87" s="700"/>
-      <c r="D87" s="700"/>
-      <c r="E87" s="700"/>
-      <c r="F87" s="700"/>
-      <c r="G87" s="700"/>
-      <c r="H87" s="700"/>
-      <c r="I87" s="700"/>
-      <c r="J87" s="700"/>
-      <c r="K87" s="700"/>
-      <c r="L87" s="700"/>
+      <c r="B87" s="703"/>
+      <c r="C87" s="703"/>
+      <c r="D87" s="703"/>
+      <c r="E87" s="703"/>
+      <c r="F87" s="703"/>
+      <c r="G87" s="703"/>
+      <c r="H87" s="703"/>
+      <c r="I87" s="703"/>
+      <c r="J87" s="703"/>
+      <c r="K87" s="703"/>
+      <c r="L87" s="703"/>
     </row>
     <row r="88" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="218" t="s">
@@ -61264,20 +61262,20 @@
       <c r="L91" s="418"/>
     </row>
     <row r="92" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="700" t="s">
+      <c r="A92" s="703" t="s">
         <v>1447</v>
       </c>
-      <c r="B92" s="700"/>
-      <c r="C92" s="700"/>
-      <c r="D92" s="700"/>
-      <c r="E92" s="700"/>
-      <c r="F92" s="700"/>
-      <c r="G92" s="700"/>
-      <c r="H92" s="700"/>
-      <c r="I92" s="700"/>
-      <c r="J92" s="700"/>
-      <c r="K92" s="700"/>
-      <c r="L92" s="700"/>
+      <c r="B92" s="703"/>
+      <c r="C92" s="703"/>
+      <c r="D92" s="703"/>
+      <c r="E92" s="703"/>
+      <c r="F92" s="703"/>
+      <c r="G92" s="703"/>
+      <c r="H92" s="703"/>
+      <c r="I92" s="703"/>
+      <c r="J92" s="703"/>
+      <c r="K92" s="703"/>
+      <c r="L92" s="703"/>
     </row>
     <row r="93" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="218" t="s">
@@ -61352,20 +61350,20 @@
       <c r="L95" s="418"/>
     </row>
     <row r="96" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="700" t="s">
+      <c r="A96" s="703" t="s">
         <v>1450</v>
       </c>
-      <c r="B96" s="700"/>
-      <c r="C96" s="700"/>
-      <c r="D96" s="700"/>
-      <c r="E96" s="700"/>
-      <c r="F96" s="700"/>
-      <c r="G96" s="700"/>
-      <c r="H96" s="700"/>
-      <c r="I96" s="700"/>
-      <c r="J96" s="700"/>
-      <c r="K96" s="700"/>
-      <c r="L96" s="700"/>
+      <c r="B96" s="703"/>
+      <c r="C96" s="703"/>
+      <c r="D96" s="703"/>
+      <c r="E96" s="703"/>
+      <c r="F96" s="703"/>
+      <c r="G96" s="703"/>
+      <c r="H96" s="703"/>
+      <c r="I96" s="703"/>
+      <c r="J96" s="703"/>
+      <c r="K96" s="703"/>
+      <c r="L96" s="703"/>
     </row>
     <row r="97" spans="1:12" s="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="218" t="s">
@@ -61550,20 +61548,20 @@
       <c r="L104" s="537"/>
     </row>
     <row r="105" spans="1:12" s="421" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="701" t="s">
+      <c r="A105" s="704" t="s">
         <v>1168</v>
       </c>
-      <c r="B105" s="701"/>
-      <c r="C105" s="701"/>
-      <c r="D105" s="701"/>
-      <c r="E105" s="701"/>
-      <c r="F105" s="701"/>
-      <c r="G105" s="701"/>
-      <c r="H105" s="701"/>
-      <c r="I105" s="701"/>
-      <c r="J105" s="701"/>
-      <c r="K105" s="701"/>
-      <c r="L105" s="701"/>
+      <c r="B105" s="704"/>
+      <c r="C105" s="704"/>
+      <c r="D105" s="704"/>
+      <c r="E105" s="704"/>
+      <c r="F105" s="704"/>
+      <c r="G105" s="704"/>
+      <c r="H105" s="704"/>
+      <c r="I105" s="704"/>
+      <c r="J105" s="704"/>
+      <c r="K105" s="704"/>
+      <c r="L105" s="704"/>
     </row>
     <row r="106" spans="1:12" s="421" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="422" t="s">
@@ -61836,10 +61834,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="624" t="s">
+      <c r="A1" s="627" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="624"/>
+      <c r="B1" s="627"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -61874,250 +61872,250 @@
       <c r="AH1" s="38"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="625" t="s">
+      <c r="A2" s="628" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="625" t="s">
+      <c r="B2" s="628" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="625" t="s">
+      <c r="C2" s="628" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="628" t="s">
+      <c r="D2" s="631" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="628"/>
-      <c r="F2" s="628"/>
-      <c r="G2" s="637" t="s">
+      <c r="E2" s="631"/>
+      <c r="F2" s="631"/>
+      <c r="G2" s="640" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="638"/>
-      <c r="I2" s="638"/>
-      <c r="J2" s="639"/>
-      <c r="K2" s="655" t="s">
+      <c r="H2" s="641"/>
+      <c r="I2" s="641"/>
+      <c r="J2" s="642"/>
+      <c r="K2" s="658" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="655"/>
-      <c r="M2" s="637" t="s">
+      <c r="L2" s="658"/>
+      <c r="M2" s="640" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="638"/>
-      <c r="O2" s="639"/>
-      <c r="P2" s="637" t="s">
+      <c r="N2" s="641"/>
+      <c r="O2" s="642"/>
+      <c r="P2" s="640" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="639"/>
-      <c r="R2" s="637" t="s">
+      <c r="Q2" s="642"/>
+      <c r="R2" s="640" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="638"/>
-      <c r="T2" s="637" t="s">
+      <c r="S2" s="641"/>
+      <c r="T2" s="640" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="638"/>
-      <c r="V2" s="638"/>
-      <c r="W2" s="638"/>
-      <c r="X2" s="639"/>
-      <c r="Y2" s="637" t="s">
+      <c r="U2" s="641"/>
+      <c r="V2" s="641"/>
+      <c r="W2" s="641"/>
+      <c r="X2" s="642"/>
+      <c r="Y2" s="640" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="638"/>
-      <c r="AA2" s="638"/>
-      <c r="AB2" s="639"/>
-      <c r="AC2" s="631" t="s">
+      <c r="Z2" s="641"/>
+      <c r="AA2" s="641"/>
+      <c r="AB2" s="642"/>
+      <c r="AC2" s="634" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="632"/>
-      <c r="AE2" s="632"/>
-      <c r="AF2" s="647"/>
-      <c r="AG2" s="631" t="s">
+      <c r="AD2" s="635"/>
+      <c r="AE2" s="635"/>
+      <c r="AF2" s="650"/>
+      <c r="AG2" s="634" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="632"/>
-      <c r="AI2" s="632"/>
+      <c r="AH2" s="635"/>
+      <c r="AI2" s="635"/>
     </row>
     <row r="3" spans="1:35" s="43" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="626"/>
-      <c r="B3" s="626"/>
-      <c r="C3" s="626"/>
-      <c r="D3" s="628"/>
-      <c r="E3" s="628"/>
-      <c r="F3" s="628"/>
-      <c r="G3" s="633"/>
-      <c r="H3" s="634"/>
-      <c r="I3" s="634"/>
-      <c r="J3" s="640"/>
-      <c r="K3" s="655" t="s">
+      <c r="A3" s="629"/>
+      <c r="B3" s="629"/>
+      <c r="C3" s="629"/>
+      <c r="D3" s="631"/>
+      <c r="E3" s="631"/>
+      <c r="F3" s="631"/>
+      <c r="G3" s="636"/>
+      <c r="H3" s="637"/>
+      <c r="I3" s="637"/>
+      <c r="J3" s="643"/>
+      <c r="K3" s="658" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="655"/>
-      <c r="M3" s="633"/>
-      <c r="N3" s="634"/>
-      <c r="O3" s="640"/>
-      <c r="P3" s="633"/>
-      <c r="Q3" s="640"/>
-      <c r="R3" s="633"/>
-      <c r="S3" s="634"/>
-      <c r="T3" s="633"/>
-      <c r="U3" s="634"/>
-      <c r="V3" s="634"/>
-      <c r="W3" s="634"/>
-      <c r="X3" s="640"/>
-      <c r="Y3" s="633"/>
-      <c r="Z3" s="634"/>
-      <c r="AA3" s="634"/>
-      <c r="AB3" s="640"/>
-      <c r="AC3" s="633"/>
-      <c r="AD3" s="634"/>
-      <c r="AE3" s="634"/>
-      <c r="AF3" s="640"/>
-      <c r="AG3" s="633"/>
-      <c r="AH3" s="634"/>
-      <c r="AI3" s="634"/>
+      <c r="L3" s="658"/>
+      <c r="M3" s="636"/>
+      <c r="N3" s="637"/>
+      <c r="O3" s="643"/>
+      <c r="P3" s="636"/>
+      <c r="Q3" s="643"/>
+      <c r="R3" s="636"/>
+      <c r="S3" s="637"/>
+      <c r="T3" s="636"/>
+      <c r="U3" s="637"/>
+      <c r="V3" s="637"/>
+      <c r="W3" s="637"/>
+      <c r="X3" s="643"/>
+      <c r="Y3" s="636"/>
+      <c r="Z3" s="637"/>
+      <c r="AA3" s="637"/>
+      <c r="AB3" s="643"/>
+      <c r="AC3" s="636"/>
+      <c r="AD3" s="637"/>
+      <c r="AE3" s="637"/>
+      <c r="AF3" s="643"/>
+      <c r="AG3" s="636"/>
+      <c r="AH3" s="637"/>
+      <c r="AI3" s="637"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="626"/>
-      <c r="B4" s="626"/>
-      <c r="C4" s="626"/>
-      <c r="D4" s="629" t="s">
+      <c r="A4" s="629"/>
+      <c r="B4" s="629"/>
+      <c r="C4" s="629"/>
+      <c r="D4" s="632" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="629" t="s">
+      <c r="E4" s="632" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="629" t="s">
+      <c r="F4" s="632" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="653" t="s">
+      <c r="G4" s="656" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="653" t="s">
+      <c r="H4" s="656" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="653" t="s">
+      <c r="I4" s="656" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="653" t="s">
+      <c r="J4" s="656" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="656" t="s">
+      <c r="K4" s="659" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="656" t="s">
+      <c r="L4" s="659" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="658" t="s">
+      <c r="M4" s="661" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="658" t="s">
+      <c r="N4" s="661" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="662" t="s">
+      <c r="O4" s="665" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="663" t="s">
+      <c r="P4" s="666" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="663" t="s">
+      <c r="Q4" s="666" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="660" t="s">
+      <c r="R4" s="663" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="660" t="s">
+      <c r="S4" s="663" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="635" t="s">
+      <c r="T4" s="638" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="651" t="s">
+      <c r="U4" s="654" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="652"/>
-      <c r="W4" s="650" t="s">
+      <c r="V4" s="655"/>
+      <c r="W4" s="653" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="650" t="s">
+      <c r="X4" s="653" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="641" t="s">
+      <c r="Y4" s="644" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="641" t="s">
+      <c r="Z4" s="644" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="645" t="s">
+      <c r="AA4" s="648" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="646"/>
-      <c r="AC4" s="643" t="s">
+      <c r="AB4" s="649"/>
+      <c r="AC4" s="646" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="643" t="s">
+      <c r="AD4" s="646" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="648" t="s">
+      <c r="AE4" s="651" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="649"/>
-      <c r="AG4" s="629" t="s">
+      <c r="AF4" s="652"/>
+      <c r="AG4" s="632" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="629" t="s">
+      <c r="AH4" s="632" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="629" t="s">
+      <c r="AI4" s="632" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="627"/>
-      <c r="B5" s="627"/>
-      <c r="C5" s="627"/>
-      <c r="D5" s="630"/>
-      <c r="E5" s="630"/>
-      <c r="F5" s="630"/>
-      <c r="G5" s="654"/>
-      <c r="H5" s="654"/>
-      <c r="I5" s="654"/>
-      <c r="J5" s="654"/>
-      <c r="K5" s="657"/>
-      <c r="L5" s="657"/>
-      <c r="M5" s="659"/>
-      <c r="N5" s="659"/>
-      <c r="O5" s="659"/>
-      <c r="P5" s="664"/>
-      <c r="Q5" s="664"/>
-      <c r="R5" s="661"/>
-      <c r="S5" s="661"/>
-      <c r="T5" s="636"/>
+      <c r="A5" s="630"/>
+      <c r="B5" s="630"/>
+      <c r="C5" s="630"/>
+      <c r="D5" s="633"/>
+      <c r="E5" s="633"/>
+      <c r="F5" s="633"/>
+      <c r="G5" s="657"/>
+      <c r="H5" s="657"/>
+      <c r="I5" s="657"/>
+      <c r="J5" s="657"/>
+      <c r="K5" s="660"/>
+      <c r="L5" s="660"/>
+      <c r="M5" s="662"/>
+      <c r="N5" s="662"/>
+      <c r="O5" s="662"/>
+      <c r="P5" s="667"/>
+      <c r="Q5" s="667"/>
+      <c r="R5" s="664"/>
+      <c r="S5" s="664"/>
+      <c r="T5" s="639"/>
       <c r="U5" s="60" t="s">
         <v>45</v>
       </c>
       <c r="V5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="650"/>
-      <c r="X5" s="650"/>
-      <c r="Y5" s="642"/>
-      <c r="Z5" s="642"/>
+      <c r="W5" s="653"/>
+      <c r="X5" s="653"/>
+      <c r="Y5" s="645"/>
+      <c r="Z5" s="645"/>
       <c r="AA5" s="52" t="s">
         <v>52</v>
       </c>
       <c r="AB5" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AC5" s="644"/>
-      <c r="AD5" s="644"/>
+      <c r="AC5" s="647"/>
+      <c r="AD5" s="647"/>
       <c r="AE5" s="53" t="s">
         <v>52</v>
       </c>
       <c r="AF5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" s="630"/>
-      <c r="AH5" s="630"/>
-      <c r="AI5" s="630"/>
+      <c r="AG5" s="633"/>
+      <c r="AH5" s="633"/>
+      <c r="AI5" s="633"/>
     </row>
     <row r="6" spans="1:35" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47"/>
@@ -62476,7 +62474,7 @@
     </row>
     <row r="2" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="64"/>
-      <c r="B2" s="669" t="s">
+      <c r="B2" s="672" t="s">
         <v>138</v>
       </c>
       <c r="C2" s="72" t="s">
@@ -62489,7 +62487,7 @@
     </row>
     <row r="3" spans="1:8" s="65" customFormat="1" ht="52.5" x14ac:dyDescent="0.2">
       <c r="A3" s="64"/>
-      <c r="B3" s="670"/>
+      <c r="B3" s="673"/>
       <c r="C3" s="72" t="s">
         <v>145</v>
       </c>
@@ -62500,7 +62498,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="66"/>
-      <c r="B4" s="665" t="s">
+      <c r="B4" s="668" t="s">
         <v>85</v>
       </c>
       <c r="C4" s="71" t="s">
@@ -62513,7 +62511,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="66"/>
-      <c r="B5" s="666"/>
+      <c r="B5" s="669"/>
       <c r="C5" s="71" t="s">
         <v>141</v>
       </c>
@@ -62524,7 +62522,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="66"/>
-      <c r="B6" s="666"/>
+      <c r="B6" s="669"/>
       <c r="C6" s="71" t="s">
         <v>140</v>
       </c>
@@ -62535,7 +62533,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="66"/>
-      <c r="B7" s="666"/>
+      <c r="B7" s="669"/>
       <c r="C7" s="71" t="s">
         <v>142</v>
       </c>
@@ -62546,7 +62544,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="66"/>
-      <c r="B8" s="667"/>
+      <c r="B8" s="670"/>
       <c r="C8" s="71" t="s">
         <v>146</v>
       </c>
@@ -62557,7 +62555,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="66"/>
-      <c r="B9" s="665" t="s">
+      <c r="B9" s="668" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="67" t="s">
@@ -62570,8 +62568,8 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="66"/>
-      <c r="B10" s="666"/>
-      <c r="C10" s="665" t="s">
+      <c r="B10" s="669"/>
+      <c r="C10" s="668" t="s">
         <v>147</v>
       </c>
       <c r="D10" s="70" t="s">
@@ -62583,8 +62581,8 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="66"/>
-      <c r="B11" s="666"/>
-      <c r="C11" s="667"/>
+      <c r="B11" s="669"/>
+      <c r="C11" s="670"/>
       <c r="D11" s="70" t="s">
         <v>149</v>
       </c>
@@ -62594,8 +62592,8 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="66"/>
-      <c r="B12" s="666"/>
-      <c r="C12" s="665" t="s">
+      <c r="B12" s="669"/>
+      <c r="C12" s="668" t="s">
         <v>91</v>
       </c>
       <c r="D12" s="114" t="s">
@@ -62609,9 +62607,9 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="66"/>
-      <c r="B13" s="666"/>
-      <c r="C13" s="666"/>
-      <c r="D13" s="665" t="s">
+      <c r="B13" s="669"/>
+      <c r="C13" s="669"/>
+      <c r="D13" s="668" t="s">
         <v>116</v>
       </c>
       <c r="E13" s="66" t="s">
@@ -62622,9 +62620,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="66"/>
-      <c r="B14" s="666"/>
-      <c r="C14" s="666"/>
-      <c r="D14" s="666"/>
+      <c r="B14" s="669"/>
+      <c r="C14" s="669"/>
+      <c r="D14" s="669"/>
       <c r="E14" s="66" t="s">
         <v>120</v>
       </c>
@@ -62633,9 +62631,9 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="66"/>
-      <c r="B15" s="666"/>
-      <c r="C15" s="666"/>
-      <c r="D15" s="666"/>
+      <c r="B15" s="669"/>
+      <c r="C15" s="669"/>
+      <c r="D15" s="669"/>
       <c r="E15" s="66" t="s">
         <v>121</v>
       </c>
@@ -62644,9 +62642,9 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="66"/>
-      <c r="B16" s="666"/>
-      <c r="C16" s="666"/>
-      <c r="D16" s="666"/>
+      <c r="B16" s="669"/>
+      <c r="C16" s="669"/>
+      <c r="D16" s="669"/>
       <c r="E16" s="66" t="s">
         <v>122</v>
       </c>
@@ -62655,9 +62653,9 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="66"/>
-      <c r="B17" s="666"/>
-      <c r="C17" s="666"/>
-      <c r="D17" s="667"/>
+      <c r="B17" s="669"/>
+      <c r="C17" s="669"/>
+      <c r="D17" s="670"/>
       <c r="E17" s="66" t="s">
         <v>123</v>
       </c>
@@ -62666,8 +62664,8 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="66"/>
-      <c r="B18" s="666"/>
-      <c r="C18" s="666"/>
+      <c r="B18" s="669"/>
+      <c r="C18" s="669"/>
       <c r="D18" s="70" t="s">
         <v>117</v>
       </c>
@@ -62679,9 +62677,9 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="66"/>
-      <c r="B19" s="666"/>
-      <c r="C19" s="666"/>
-      <c r="D19" s="665" t="s">
+      <c r="B19" s="669"/>
+      <c r="C19" s="669"/>
+      <c r="D19" s="668" t="s">
         <v>118</v>
       </c>
       <c r="E19" s="66" t="s">
@@ -62692,9 +62690,9 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="66"/>
-      <c r="B20" s="666"/>
-      <c r="C20" s="667"/>
-      <c r="D20" s="667"/>
+      <c r="B20" s="669"/>
+      <c r="C20" s="670"/>
+      <c r="D20" s="670"/>
       <c r="E20" s="66" t="s">
         <v>123</v>
       </c>
@@ -62703,11 +62701,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="66"/>
-      <c r="B21" s="666"/>
-      <c r="C21" s="665" t="s">
+      <c r="B21" s="669"/>
+      <c r="C21" s="668" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="665" t="s">
+      <c r="D21" s="668" t="s">
         <v>118</v>
       </c>
       <c r="E21" s="66" t="s">
@@ -62718,9 +62716,9 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="66"/>
-      <c r="B22" s="666"/>
-      <c r="C22" s="666"/>
-      <c r="D22" s="667"/>
+      <c r="B22" s="669"/>
+      <c r="C22" s="669"/>
+      <c r="D22" s="670"/>
       <c r="E22" s="66" t="s">
         <v>128</v>
       </c>
@@ -62729,9 +62727,9 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="66"/>
-      <c r="B23" s="666"/>
-      <c r="C23" s="666"/>
-      <c r="D23" s="665" t="s">
+      <c r="B23" s="669"/>
+      <c r="C23" s="669"/>
+      <c r="D23" s="668" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="66" t="s">
@@ -62742,9 +62740,9 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="66"/>
-      <c r="B24" s="666"/>
-      <c r="C24" s="666"/>
-      <c r="D24" s="666"/>
+      <c r="B24" s="669"/>
+      <c r="C24" s="669"/>
+      <c r="D24" s="669"/>
       <c r="E24" s="66" t="s">
         <v>130</v>
       </c>
@@ -62753,9 +62751,9 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="66"/>
-      <c r="B25" s="666"/>
-      <c r="C25" s="666"/>
-      <c r="D25" s="667"/>
+      <c r="B25" s="669"/>
+      <c r="C25" s="669"/>
+      <c r="D25" s="670"/>
       <c r="E25" s="66" t="s">
         <v>131</v>
       </c>
@@ -62764,8 +62762,8 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="66"/>
-      <c r="B26" s="666"/>
-      <c r="C26" s="667"/>
+      <c r="B26" s="669"/>
+      <c r="C26" s="670"/>
       <c r="D26" s="70" t="s">
         <v>116</v>
       </c>
@@ -62777,8 +62775,8 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="66"/>
-      <c r="B27" s="666"/>
-      <c r="C27" s="671" t="s">
+      <c r="B27" s="669"/>
+      <c r="C27" s="674" t="s">
         <v>93</v>
       </c>
       <c r="D27" s="114" t="s">
@@ -62793,8 +62791,8 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="66"/>
-      <c r="B28" s="666"/>
-      <c r="C28" s="672"/>
+      <c r="B28" s="669"/>
+      <c r="C28" s="675"/>
       <c r="D28" s="114" t="s">
         <v>134</v>
       </c>
@@ -62807,8 +62805,8 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="66"/>
-      <c r="B29" s="666"/>
-      <c r="C29" s="673"/>
+      <c r="B29" s="669"/>
+      <c r="C29" s="676"/>
       <c r="D29" s="114" t="s">
         <v>135</v>
       </c>
@@ -62821,7 +62819,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="66"/>
-      <c r="B30" s="666"/>
+      <c r="B30" s="669"/>
       <c r="C30" s="70" t="s">
         <v>74</v>
       </c>
@@ -62832,7 +62830,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="66"/>
-      <c r="B31" s="666"/>
+      <c r="B31" s="669"/>
       <c r="C31" s="67" t="s">
         <v>95</v>
       </c>
@@ -62843,7 +62841,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="66"/>
-      <c r="B32" s="666"/>
+      <c r="B32" s="669"/>
       <c r="C32" s="70" t="s">
         <v>96</v>
       </c>
@@ -62854,8 +62852,8 @@
     </row>
     <row r="33" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="66"/>
-      <c r="B33" s="666"/>
-      <c r="C33" s="665" t="s">
+      <c r="B33" s="669"/>
+      <c r="C33" s="668" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="70" t="s">
@@ -62867,8 +62865,8 @@
     </row>
     <row r="34" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="66"/>
-      <c r="B34" s="666"/>
-      <c r="C34" s="667"/>
+      <c r="B34" s="669"/>
+      <c r="C34" s="670"/>
       <c r="D34" s="70" t="s">
         <v>152</v>
       </c>
@@ -62878,7 +62876,7 @@
     </row>
     <row r="35" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A35" s="66"/>
-      <c r="B35" s="667"/>
+      <c r="B35" s="670"/>
       <c r="C35" s="70" t="s">
         <v>98</v>
       </c>
@@ -62892,7 +62890,7 @@
     </row>
     <row r="36" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A36" s="66"/>
-      <c r="B36" s="665" t="s">
+      <c r="B36" s="668" t="s">
         <v>87</v>
       </c>
       <c r="C36" s="67" t="s">
@@ -62905,7 +62903,7 @@
     </row>
     <row r="37" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A37" s="66"/>
-      <c r="B37" s="666"/>
+      <c r="B37" s="669"/>
       <c r="C37" s="70" t="s">
         <v>99</v>
       </c>
@@ -62916,7 +62914,7 @@
     </row>
     <row r="38" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A38" s="66"/>
-      <c r="B38" s="666"/>
+      <c r="B38" s="669"/>
       <c r="C38" s="70" t="s">
         <v>100</v>
       </c>
@@ -62927,7 +62925,7 @@
     </row>
     <row r="39" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A39" s="66"/>
-      <c r="B39" s="667"/>
+      <c r="B39" s="670"/>
       <c r="C39" s="70" t="s">
         <v>101</v>
       </c>
@@ -62941,7 +62939,7 @@
     </row>
     <row r="40" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A40" s="66"/>
-      <c r="B40" s="665" t="s">
+      <c r="B40" s="668" t="s">
         <v>88</v>
       </c>
       <c r="C40" s="67" t="s">
@@ -62954,8 +62952,8 @@
     </row>
     <row r="41" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A41" s="66"/>
-      <c r="B41" s="666"/>
-      <c r="C41" s="665" t="s">
+      <c r="B41" s="669"/>
+      <c r="C41" s="668" t="s">
         <v>102</v>
       </c>
       <c r="D41" s="70" t="s">
@@ -62967,8 +62965,8 @@
     </row>
     <row r="42" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A42" s="66"/>
-      <c r="B42" s="666"/>
-      <c r="C42" s="667"/>
+      <c r="B42" s="669"/>
+      <c r="C42" s="670"/>
       <c r="D42" s="70" t="s">
         <v>136</v>
       </c>
@@ -62978,7 +62976,7 @@
     </row>
     <row r="43" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A43" s="66"/>
-      <c r="B43" s="667"/>
+      <c r="B43" s="670"/>
       <c r="C43" s="70" t="s">
         <v>103</v>
       </c>
@@ -62989,7 +62987,7 @@
     </row>
     <row r="44" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A44" s="66"/>
-      <c r="B44" s="665" t="s">
+      <c r="B44" s="668" t="s">
         <v>89</v>
       </c>
       <c r="C44" s="67" t="s">
@@ -63003,7 +63001,7 @@
     </row>
     <row r="45" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A45" s="66"/>
-      <c r="B45" s="666"/>
+      <c r="B45" s="669"/>
       <c r="C45" s="70" t="s">
         <v>104</v>
       </c>
@@ -63014,7 +63012,7 @@
     </row>
     <row r="46" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A46" s="66"/>
-      <c r="B46" s="666"/>
+      <c r="B46" s="669"/>
       <c r="C46" s="70" t="s">
         <v>105</v>
       </c>
@@ -63025,7 +63023,7 @@
     </row>
     <row r="47" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A47" s="66"/>
-      <c r="B47" s="666"/>
+      <c r="B47" s="669"/>
       <c r="C47" s="70" t="s">
         <v>106</v>
       </c>
@@ -63036,7 +63034,7 @@
     </row>
     <row r="48" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A48" s="66"/>
-      <c r="B48" s="667"/>
+      <c r="B48" s="670"/>
       <c r="C48" s="70" t="s">
         <v>107</v>
       </c>
@@ -63094,10 +63092,10 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="66"/>
       <c r="B53" s="73"/>
-      <c r="C53" s="665" t="s">
+      <c r="C53" s="668" t="s">
         <v>162</v>
       </c>
-      <c r="D53" s="665" t="s">
+      <c r="D53" s="668" t="s">
         <v>169</v>
       </c>
       <c r="E53" s="66" t="s">
@@ -63109,8 +63107,8 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="66"/>
       <c r="B54" s="73"/>
-      <c r="C54" s="666"/>
-      <c r="D54" s="666"/>
+      <c r="C54" s="669"/>
+      <c r="D54" s="669"/>
       <c r="E54" s="66" t="s">
         <v>173</v>
       </c>
@@ -63120,8 +63118,8 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="66"/>
       <c r="B55" s="73"/>
-      <c r="C55" s="666"/>
-      <c r="D55" s="667"/>
+      <c r="C55" s="669"/>
+      <c r="D55" s="670"/>
       <c r="E55" s="66" t="s">
         <v>174</v>
       </c>
@@ -63131,11 +63129,11 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="66"/>
       <c r="B56" s="73"/>
-      <c r="C56" s="666"/>
-      <c r="D56" s="665" t="s">
+      <c r="C56" s="669"/>
+      <c r="D56" s="668" t="s">
         <v>170</v>
       </c>
-      <c r="E56" s="665" t="s">
+      <c r="E56" s="668" t="s">
         <v>175</v>
       </c>
       <c r="F56" s="66" t="s">
@@ -63146,9 +63144,9 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="66"/>
       <c r="B57" s="73"/>
-      <c r="C57" s="666"/>
-      <c r="D57" s="666"/>
-      <c r="E57" s="666"/>
+      <c r="C57" s="669"/>
+      <c r="D57" s="669"/>
+      <c r="E57" s="669"/>
       <c r="F57" s="66" t="s">
         <v>177</v>
       </c>
@@ -63157,9 +63155,9 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="66"/>
       <c r="B58" s="73"/>
-      <c r="C58" s="666"/>
-      <c r="D58" s="666"/>
-      <c r="E58" s="667"/>
+      <c r="C58" s="669"/>
+      <c r="D58" s="669"/>
+      <c r="E58" s="670"/>
       <c r="F58" s="66" t="s">
         <v>174</v>
       </c>
@@ -63168,9 +63166,9 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="66"/>
       <c r="B59" s="73"/>
-      <c r="C59" s="666"/>
-      <c r="D59" s="666"/>
-      <c r="E59" s="665" t="s">
+      <c r="C59" s="669"/>
+      <c r="D59" s="669"/>
+      <c r="E59" s="668" t="s">
         <v>128</v>
       </c>
       <c r="F59" s="66" t="s">
@@ -63181,9 +63179,9 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="66"/>
       <c r="B60" s="73"/>
-      <c r="C60" s="666"/>
-      <c r="D60" s="667"/>
-      <c r="E60" s="667"/>
+      <c r="C60" s="669"/>
+      <c r="D60" s="670"/>
+      <c r="E60" s="670"/>
       <c r="F60" s="66" t="s">
         <v>179</v>
       </c>
@@ -63192,8 +63190,8 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="66"/>
       <c r="B61" s="73"/>
-      <c r="C61" s="666"/>
-      <c r="D61" s="665" t="s">
+      <c r="C61" s="669"/>
+      <c r="D61" s="668" t="s">
         <v>171</v>
       </c>
       <c r="E61" s="66" t="s">
@@ -63205,8 +63203,8 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="66"/>
       <c r="B62" s="73"/>
-      <c r="C62" s="666"/>
-      <c r="D62" s="666"/>
+      <c r="C62" s="669"/>
+      <c r="D62" s="669"/>
       <c r="E62" s="66" t="s">
         <v>181</v>
       </c>
@@ -63216,8 +63214,8 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="66"/>
       <c r="B63" s="73"/>
-      <c r="C63" s="667"/>
-      <c r="D63" s="667"/>
+      <c r="C63" s="670"/>
+      <c r="D63" s="670"/>
       <c r="E63" s="66" t="s">
         <v>182</v>
       </c>
@@ -63230,7 +63228,7 @@
       <c r="C64" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="D64" s="665" t="s">
+      <c r="D64" s="668" t="s">
         <v>183</v>
       </c>
       <c r="E64" s="66" t="s">
@@ -63243,7 +63241,7 @@
       <c r="A65" s="66"/>
       <c r="B65" s="73"/>
       <c r="C65" s="70"/>
-      <c r="D65" s="667"/>
+      <c r="D65" s="670"/>
       <c r="E65" s="66" t="s">
         <v>185</v>
       </c>
@@ -63329,7 +63327,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="66"/>
-      <c r="B73" s="668" t="s">
+      <c r="B73" s="671" t="s">
         <v>76</v>
       </c>
       <c r="C73" s="67" t="s">
@@ -63342,7 +63340,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="66"/>
-      <c r="B74" s="668"/>
+      <c r="B74" s="671"/>
       <c r="C74" s="70" t="s">
         <v>109</v>
       </c>
@@ -63353,7 +63351,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="66"/>
-      <c r="B75" s="668"/>
+      <c r="B75" s="671"/>
       <c r="C75" s="70" t="s">
         <v>110</v>
       </c>
@@ -63364,7 +63362,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="66"/>
-      <c r="B76" s="668"/>
+      <c r="B76" s="671"/>
       <c r="C76" s="70" t="s">
         <v>111</v>
       </c>
@@ -63375,7 +63373,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="66"/>
-      <c r="B77" s="668"/>
+      <c r="B77" s="671"/>
       <c r="C77" s="70" t="s">
         <v>112</v>
       </c>
@@ -63386,7 +63384,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="66"/>
-      <c r="B78" s="668"/>
+      <c r="B78" s="671"/>
       <c r="C78" s="70" t="s">
         <v>113</v>
       </c>
@@ -63397,7 +63395,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="66"/>
-      <c r="B79" s="668"/>
+      <c r="B79" s="671"/>
       <c r="C79" s="70" t="s">
         <v>114</v>
       </c>
@@ -63408,7 +63406,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="66"/>
-      <c r="B80" s="668"/>
+      <c r="B80" s="671"/>
       <c r="C80" s="70" t="s">
         <v>115</v>
       </c>
@@ -64024,7 +64022,7 @@
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -64832,7 +64830,7 @@
       <c r="D36" s="228" t="s">
         <v>724</v>
       </c>
-      <c r="E36" s="674" t="s">
+      <c r="E36" s="677" t="s">
         <v>725</v>
       </c>
       <c r="F36" s="244"/>
@@ -64857,7 +64855,7 @@
       <c r="D37" s="228" t="s">
         <v>726</v>
       </c>
-      <c r="E37" s="675"/>
+      <c r="E37" s="678"/>
       <c r="F37" s="244"/>
       <c r="G37" s="244"/>
       <c r="H37" s="244"/>
@@ -65588,7 +65586,7 @@
       <c r="M69" s="257"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A70" s="702" t="s">
+      <c r="A70" s="579" t="s">
         <v>2315</v>
       </c>
       <c r="B70" s="256"/>
@@ -65604,9 +65602,9 @@
       <c r="L70" s="257"/>
       <c r="M70" s="257"/>
     </row>
-    <row r="71" spans="1:14" s="704" customFormat="1" ht="114.75" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14" s="581" customFormat="1" ht="102" x14ac:dyDescent="0.15">
       <c r="A71" s="543" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="B71" s="574" t="s">
         <v>2316</v>
@@ -65615,9 +65613,9 @@
         <v>1553</v>
       </c>
       <c r="D71" s="574" t="s">
-        <v>2317</v>
-      </c>
-      <c r="E71" s="703"/>
+        <v>2324</v>
+      </c>
+      <c r="E71" s="580"/>
       <c r="F71" s="577"/>
       <c r="G71" s="576"/>
       <c r="H71" s="576"/>
@@ -65625,23 +65623,23 @@
       <c r="J71" s="576"/>
       <c r="K71" s="576"/>
       <c r="L71" s="577"/>
-      <c r="M71" s="703"/>
-      <c r="N71" s="703"/>
-    </row>
-    <row r="72" spans="1:14" s="704" customFormat="1" ht="76.5" x14ac:dyDescent="0.15">
+      <c r="M71" s="580"/>
+      <c r="N71" s="580"/>
+    </row>
+    <row r="72" spans="1:14" s="581" customFormat="1" ht="76.5" x14ac:dyDescent="0.15">
       <c r="A72" s="543" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="B72" s="574" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="C72" s="574" t="s">
         <v>1553</v>
       </c>
       <c r="D72" s="574" t="s">
-        <v>2321</v>
-      </c>
-      <c r="E72" s="703"/>
+        <v>2320</v>
+      </c>
+      <c r="E72" s="580"/>
       <c r="F72" s="577"/>
       <c r="G72" s="576"/>
       <c r="H72" s="576"/>
@@ -65649,23 +65647,23 @@
       <c r="J72" s="576"/>
       <c r="K72" s="576"/>
       <c r="L72" s="577"/>
-      <c r="M72" s="703"/>
-      <c r="N72" s="703"/>
-    </row>
-    <row r="73" spans="1:14" s="704" customFormat="1" ht="114.75" x14ac:dyDescent="0.15">
+      <c r="M72" s="580"/>
+      <c r="N72" s="580"/>
+    </row>
+    <row r="73" spans="1:14" s="581" customFormat="1" ht="102" x14ac:dyDescent="0.15">
       <c r="A73" s="543" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="B73" s="574" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="C73" s="574" t="s">
         <v>1553</v>
       </c>
       <c r="D73" s="574" t="s">
-        <v>2324</v>
-      </c>
-      <c r="E73" s="703"/>
+        <v>2323</v>
+      </c>
+      <c r="E73" s="580"/>
       <c r="F73" s="577"/>
       <c r="G73" s="576"/>
       <c r="H73" s="576"/>
@@ -65673,8 +65671,8 @@
       <c r="J73" s="576"/>
       <c r="K73" s="576"/>
       <c r="L73" s="577"/>
-      <c r="M73" s="703"/>
-      <c r="N73" s="703"/>
+      <c r="M73" s="580"/>
+      <c r="N73" s="580"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Document/My Ais/T9/T9_Test_MyAIS_APP_3PE_EN.xlsx
+++ b/Document/My Ais/T9/T9_Test_MyAIS_APP_3PE_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2115" windowWidth="20115" windowHeight="5955" tabRatio="879" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="2115" windowWidth="20115" windowHeight="5955" tabRatio="879" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="2388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="2391">
   <si>
     <t>ADVANCE INFO SERVICE (AIS)</t>
   </si>
@@ -29478,6 +29478,15 @@
       </rPr>
       <t>5. Capture Screen</t>
     </r>
+  </si>
+  <si>
+    <t>F3_Hamburger_2_2_Y_1_2</t>
+  </si>
+  <si>
+    <t>F3_Hamburger_2_2_Y_2_2</t>
+  </si>
+  <si>
+    <t>F3_Hamburger_2_2_Y_3_2</t>
   </si>
 </sst>
 </file>
@@ -32661,6 +32670,112 @@
     <xf numFmtId="0" fontId="29" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -32742,22 +32857,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -32770,118 +32869,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -32895,11 +32900,29 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -32928,25 +32951,58 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -32967,21 +33023,19 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="20" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="39" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="57" fillId="21" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -32998,7 +33052,6 @@
     <xf numFmtId="0" fontId="55" fillId="20" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="39" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="55" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -33006,25 +33059,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="20" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="20" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -33044,46 +33079,20 @@
     <xf numFmtId="0" fontId="71" fillId="20" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -34065,7 +34074,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34109,7 +34118,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34153,7 +34162,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34197,7 +34206,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34241,7 +34250,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34285,7 +34294,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34329,7 +34338,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34373,7 +34382,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34417,7 +34426,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34461,7 +34470,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34505,7 +34514,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34549,7 +34558,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34593,7 +34602,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34637,7 +34646,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34681,7 +34690,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34877,7 +34886,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38617,25 +38626,25 @@
       <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="615" t="s">
+      <c r="C5" s="603" t="s">
         <v>355</v>
       </c>
-      <c r="D5" s="616"/>
-      <c r="E5" s="617"/>
+      <c r="D5" s="604"/>
+      <c r="E5" s="605"/>
       <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="613"/>
-      <c r="I5" s="613"/>
-      <c r="J5" s="613"/>
+      <c r="H5" s="595"/>
+      <c r="I5" s="595"/>
+      <c r="J5" s="595"/>
     </row>
     <row r="6" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="589"/>
-      <c r="D6" s="590"/>
-      <c r="E6" s="591"/>
+      <c r="C6" s="625"/>
+      <c r="D6" s="626"/>
+      <c r="E6" s="627"/>
       <c r="F6" s="7"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -38645,23 +38654,23 @@
       <c r="B7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="618"/>
-      <c r="D7" s="619"/>
-      <c r="E7" s="620"/>
+      <c r="C7" s="606"/>
+      <c r="D7" s="607"/>
+      <c r="E7" s="608"/>
       <c r="F7" s="7"/>
-      <c r="H7" s="613"/>
-      <c r="I7" s="613"/>
-      <c r="J7" s="613"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="595"/>
+      <c r="J7" s="595"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="621" t="s">
+      <c r="C8" s="609" t="s">
         <v>190</v>
       </c>
-      <c r="D8" s="622"/>
-      <c r="E8" s="623"/>
+      <c r="D8" s="610"/>
+      <c r="E8" s="611"/>
       <c r="F8" s="7"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -38684,58 +38693,58 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B11" s="607" t="s">
+      <c r="B11" s="596" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="608"/>
-      <c r="D11" s="614"/>
-      <c r="E11" s="614"/>
-      <c r="F11" s="609"/>
+      <c r="C11" s="597"/>
+      <c r="D11" s="598"/>
+      <c r="E11" s="598"/>
+      <c r="F11" s="599"/>
     </row>
     <row r="12" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="600"/>
-      <c r="D12" s="602"/>
-      <c r="E12" s="602"/>
-      <c r="F12" s="603"/>
+      <c r="D12" s="601"/>
+      <c r="E12" s="601"/>
+      <c r="F12" s="602"/>
     </row>
     <row r="13" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="600"/>
-      <c r="D13" s="602"/>
-      <c r="E13" s="602"/>
-      <c r="F13" s="603"/>
+      <c r="D13" s="601"/>
+      <c r="E13" s="601"/>
+      <c r="F13" s="602"/>
     </row>
     <row r="14" spans="2:10" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="600"/>
-      <c r="D14" s="602"/>
-      <c r="E14" s="602"/>
-      <c r="F14" s="603"/>
+      <c r="D14" s="601"/>
+      <c r="E14" s="601"/>
+      <c r="F14" s="602"/>
     </row>
     <row r="15" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="600"/>
-      <c r="D15" s="602"/>
-      <c r="E15" s="602"/>
-      <c r="F15" s="603"/>
+      <c r="D15" s="601"/>
+      <c r="E15" s="601"/>
+      <c r="F15" s="602"/>
     </row>
     <row r="16" spans="2:10" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="604"/>
-      <c r="D16" s="605"/>
-      <c r="E16" s="605"/>
-      <c r="F16" s="606"/>
+      <c r="C16" s="636"/>
+      <c r="D16" s="637"/>
+      <c r="E16" s="637"/>
+      <c r="F16" s="638"/>
     </row>
     <row r="17" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
@@ -38745,13 +38754,13 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B18" s="607" t="s">
+      <c r="B18" s="596" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="608"/>
-      <c r="D18" s="608"/>
-      <c r="E18" s="608"/>
-      <c r="F18" s="609"/>
+      <c r="C18" s="597"/>
+      <c r="D18" s="597"/>
+      <c r="E18" s="597"/>
+      <c r="F18" s="599"/>
     </row>
     <row r="19" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
@@ -38763,10 +38772,10 @@
       <c r="D19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="595" t="s">
+      <c r="E19" s="631" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="610"/>
+      <c r="F19" s="639"/>
     </row>
     <row r="20" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
@@ -38781,70 +38790,70 @@
       <c r="E20" s="600" t="s">
         <v>353</v>
       </c>
-      <c r="F20" s="601"/>
+      <c r="F20" s="612"/>
     </row>
     <row r="21" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
       <c r="E21" s="600"/>
-      <c r="F21" s="601"/>
+      <c r="F21" s="612"/>
     </row>
     <row r="22" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="19"/>
       <c r="E22" s="600"/>
-      <c r="F22" s="601"/>
+      <c r="F22" s="612"/>
     </row>
     <row r="23" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="19"/>
       <c r="E23" s="600"/>
-      <c r="F23" s="601"/>
+      <c r="F23" s="612"/>
     </row>
     <row r="24" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="19"/>
       <c r="E24" s="600"/>
-      <c r="F24" s="601"/>
+      <c r="F24" s="612"/>
     </row>
     <row r="25" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19"/>
       <c r="E25" s="600"/>
-      <c r="F25" s="601"/>
+      <c r="F25" s="612"/>
     </row>
     <row r="26" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19"/>
       <c r="E26" s="600"/>
-      <c r="F26" s="601"/>
+      <c r="F26" s="612"/>
     </row>
     <row r="27" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19"/>
       <c r="E27" s="600"/>
-      <c r="F27" s="601"/>
+      <c r="F27" s="612"/>
     </row>
     <row r="28" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B28" s="16"/>
       <c r="C28" s="20"/>
       <c r="D28" s="19"/>
       <c r="E28" s="600"/>
-      <c r="F28" s="601"/>
+      <c r="F28" s="612"/>
     </row>
     <row r="29" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="611"/>
-      <c r="F29" s="612"/>
+      <c r="E29" s="613"/>
+      <c r="F29" s="614"/>
     </row>
     <row r="30" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
@@ -38854,67 +38863,67 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B31" s="592" t="s">
+      <c r="B31" s="628" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="593"/>
-      <c r="D31" s="593"/>
-      <c r="E31" s="594"/>
+      <c r="C31" s="629"/>
+      <c r="D31" s="629"/>
+      <c r="E31" s="630"/>
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="595" t="s">
+      <c r="C32" s="631" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="596"/>
-      <c r="E32" s="596"/>
+      <c r="D32" s="632"/>
+      <c r="E32" s="632"/>
       <c r="F32" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B33" s="16"/>
-      <c r="C33" s="581"/>
-      <c r="D33" s="582"/>
-      <c r="E33" s="582"/>
+      <c r="C33" s="617"/>
+      <c r="D33" s="618"/>
+      <c r="E33" s="618"/>
       <c r="F33" s="26"/>
     </row>
     <row r="34" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B34" s="16"/>
-      <c r="C34" s="597"/>
-      <c r="D34" s="598"/>
-      <c r="E34" s="599"/>
+      <c r="C34" s="633"/>
+      <c r="D34" s="634"/>
+      <c r="E34" s="635"/>
       <c r="F34" s="26"/>
     </row>
     <row r="35" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B35" s="27"/>
-      <c r="C35" s="579"/>
-      <c r="D35" s="580"/>
-      <c r="E35" s="580"/>
+      <c r="C35" s="615"/>
+      <c r="D35" s="616"/>
+      <c r="E35" s="616"/>
       <c r="F35" s="28"/>
     </row>
     <row r="36" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B36" s="27"/>
-      <c r="C36" s="581"/>
-      <c r="D36" s="582"/>
-      <c r="E36" s="582"/>
+      <c r="C36" s="617"/>
+      <c r="D36" s="618"/>
+      <c r="E36" s="618"/>
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B37" s="27"/>
-      <c r="C37" s="583"/>
-      <c r="D37" s="584"/>
-      <c r="E37" s="585"/>
+      <c r="C37" s="619"/>
+      <c r="D37" s="620"/>
+      <c r="E37" s="621"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
-      <c r="C38" s="586"/>
-      <c r="D38" s="587"/>
-      <c r="E38" s="588"/>
+      <c r="C38" s="622"/>
+      <c r="D38" s="623"/>
+      <c r="E38" s="624"/>
       <c r="F38" s="29"/>
     </row>
     <row r="39" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38940,22 +38949,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
@@ -38972,6 +38965,22 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -45538,25 +45547,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.875" style="712" customWidth="1"/>
-    <col min="2" max="2" width="30" style="712" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="712" customWidth="1"/>
-    <col min="4" max="4" width="49.375" style="712" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="712" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="712" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="712" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="712" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.375" style="712" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.25" style="712" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" style="712" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.125" style="712" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="14.125" style="712"/>
+    <col min="1" max="1" width="30.875" style="588" customWidth="1"/>
+    <col min="2" max="2" width="30" style="588" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="588" customWidth="1"/>
+    <col min="4" max="4" width="49.375" style="588" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="588" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="588" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="588" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="588" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.375" style="588" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.25" style="588" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="588" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.125" style="588" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.125" style="588"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="80" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -45575,19 +45584,19 @@
       <c r="E1" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="717" t="s">
+      <c r="F1" s="593" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="717" t="s">
+      <c r="G1" s="593" t="s">
         <v>194</v>
       </c>
-      <c r="H1" s="717" t="s">
+      <c r="H1" s="593" t="s">
         <v>195</v>
       </c>
-      <c r="I1" s="717" t="s">
+      <c r="I1" s="593" t="s">
         <v>196</v>
       </c>
-      <c r="J1" s="717" t="s">
+      <c r="J1" s="593" t="s">
         <v>17</v>
       </c>
       <c r="K1" s="74" t="s">
@@ -45609,8 +45618,8 @@
       <c r="J2" s="197"/>
       <c r="K2" s="197"/>
     </row>
-    <row r="3" spans="1:11" s="715" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="718" t="s">
+    <row r="3" spans="1:11" s="591" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="594" t="s">
         <v>2308</v>
       </c>
       <c r="B3" s="118" t="s">
@@ -45629,8 +45638,8 @@
       <c r="I3" s="183"/>
       <c r="J3" s="183"/>
     </row>
-    <row r="4" spans="1:11" s="715" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="718" t="s">
+    <row r="4" spans="1:11" s="591" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="594" t="s">
         <v>2309</v>
       </c>
       <c r="B4" s="118" t="s">
@@ -45649,8 +45658,8 @@
       <c r="I4" s="183"/>
       <c r="J4" s="183"/>
     </row>
-    <row r="5" spans="1:11" s="715" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="718" t="s">
+    <row r="5" spans="1:11" s="591" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="594" t="s">
         <v>2310</v>
       </c>
       <c r="B5" s="118" t="s">
@@ -45669,8 +45678,8 @@
       <c r="I5" s="183"/>
       <c r="J5" s="183"/>
     </row>
-    <row r="6" spans="1:11" s="715" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="718" t="s">
+    <row r="6" spans="1:11" s="591" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="594" t="s">
         <v>2311</v>
       </c>
       <c r="B6" s="182" t="s">
@@ -45689,8 +45698,8 @@
       <c r="I6" s="183"/>
       <c r="J6" s="183"/>
     </row>
-    <row r="7" spans="1:11" s="715" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="718" t="s">
+    <row r="7" spans="1:11" s="591" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="594" t="s">
         <v>2312</v>
       </c>
       <c r="B7" s="182" t="s">
@@ -45709,8 +45718,8 @@
       <c r="I7" s="183"/>
       <c r="J7" s="183"/>
     </row>
-    <row r="8" spans="1:11" s="715" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="718" t="s">
+    <row r="8" spans="1:11" s="591" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="594" t="s">
         <v>2313</v>
       </c>
       <c r="B8" s="182" t="s">
@@ -45729,8 +45738,8 @@
       <c r="I8" s="183"/>
       <c r="J8" s="183"/>
     </row>
-    <row r="9" spans="1:11" s="715" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="718" t="s">
+    <row r="9" spans="1:11" s="591" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="594" t="s">
         <v>2314</v>
       </c>
       <c r="B9" s="182" t="s">
@@ -45749,8 +45758,8 @@
       <c r="I9" s="183"/>
       <c r="J9" s="183"/>
     </row>
-    <row r="10" spans="1:11" s="715" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="718" t="s">
+    <row r="10" spans="1:11" s="591" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="594" t="s">
         <v>2315</v>
       </c>
       <c r="B10" s="182" t="s">
@@ -45769,8 +45778,8 @@
       <c r="I10" s="183"/>
       <c r="J10" s="183"/>
     </row>
-    <row r="11" spans="1:11" s="715" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="718" t="s">
+    <row r="11" spans="1:11" s="591" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="594" t="s">
         <v>2316</v>
       </c>
       <c r="B11" s="182" t="s">
@@ -45789,8 +45798,8 @@
       <c r="I11" s="183"/>
       <c r="J11" s="183"/>
     </row>
-    <row r="12" spans="1:11" s="715" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="718" t="s">
+    <row r="12" spans="1:11" s="591" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="594" t="s">
         <v>2317</v>
       </c>
       <c r="B12" s="182" t="s">
@@ -45824,8 +45833,8 @@
       <c r="J13" s="197"/>
       <c r="K13" s="197"/>
     </row>
-    <row r="14" spans="1:11" s="715" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="718" t="s">
+    <row r="14" spans="1:11" s="591" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="594" t="s">
         <v>2318</v>
       </c>
       <c r="B14" s="118" t="s">
@@ -45844,8 +45853,8 @@
       <c r="I14" s="183"/>
       <c r="J14" s="183"/>
     </row>
-    <row r="15" spans="1:11" s="715" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="718" t="s">
+    <row r="15" spans="1:11" s="591" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="594" t="s">
         <v>2319</v>
       </c>
       <c r="B15" s="118" t="s">
@@ -45864,8 +45873,8 @@
       <c r="I15" s="183"/>
       <c r="J15" s="183"/>
     </row>
-    <row r="16" spans="1:11" s="715" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="718" t="s">
+    <row r="16" spans="1:11" s="591" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="594" t="s">
         <v>2320</v>
       </c>
       <c r="B16" s="118" t="s">
@@ -45884,8 +45893,8 @@
       <c r="I16" s="183"/>
       <c r="J16" s="183"/>
     </row>
-    <row r="17" spans="1:11" s="715" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="718" t="s">
+    <row r="17" spans="1:11" s="591" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="594" t="s">
         <v>2321</v>
       </c>
       <c r="B17" s="182" t="s">
@@ -45904,8 +45913,8 @@
       <c r="I17" s="183"/>
       <c r="J17" s="183"/>
     </row>
-    <row r="18" spans="1:11" s="715" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="718" t="s">
+    <row r="18" spans="1:11" s="591" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="594" t="s">
         <v>2322</v>
       </c>
       <c r="B18" s="182" t="s">
@@ -45924,8 +45933,8 @@
       <c r="I18" s="183"/>
       <c r="J18" s="183"/>
     </row>
-    <row r="19" spans="1:11" s="715" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="718" t="s">
+    <row r="19" spans="1:11" s="591" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="594" t="s">
         <v>2323</v>
       </c>
       <c r="B19" s="182" t="s">
@@ -45944,8 +45953,8 @@
       <c r="I19" s="183"/>
       <c r="J19" s="183"/>
     </row>
-    <row r="20" spans="1:11" s="715" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="718" t="s">
+    <row r="20" spans="1:11" s="591" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="594" t="s">
         <v>2324</v>
       </c>
       <c r="B20" s="182" t="s">
@@ -45964,8 +45973,8 @@
       <c r="I20" s="183"/>
       <c r="J20" s="183"/>
     </row>
-    <row r="21" spans="1:11" s="715" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="718" t="s">
+    <row r="21" spans="1:11" s="591" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="594" t="s">
         <v>2325</v>
       </c>
       <c r="B21" s="182" t="s">
@@ -45984,8 +45993,8 @@
       <c r="I21" s="183"/>
       <c r="J21" s="183"/>
     </row>
-    <row r="22" spans="1:11" s="715" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="718" t="s">
+    <row r="22" spans="1:11" s="591" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="594" t="s">
         <v>2326</v>
       </c>
       <c r="B22" s="182" t="s">
@@ -46004,8 +46013,8 @@
       <c r="I22" s="183"/>
       <c r="J22" s="183"/>
     </row>
-    <row r="23" spans="1:11" s="715" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="718" t="s">
+    <row r="23" spans="1:11" s="591" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="594" t="s">
         <v>2327</v>
       </c>
       <c r="B23" s="182" t="s">
@@ -46024,121 +46033,121 @@
       <c r="I23" s="183"/>
       <c r="J23" s="183"/>
     </row>
-    <row r="24" spans="1:11" s="705" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="702" t="s">
+    <row r="24" spans="1:11" s="581" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="692" t="s">
         <v>2328</v>
       </c>
-      <c r="B24" s="702"/>
-      <c r="C24" s="703"/>
-      <c r="D24" s="703"/>
-      <c r="E24" s="703"/>
-      <c r="F24" s="703"/>
-      <c r="G24" s="703"/>
-      <c r="H24" s="703"/>
-      <c r="I24" s="703"/>
-      <c r="J24" s="704"/>
-      <c r="K24" s="704"/>
-    </row>
-    <row r="25" spans="1:11" s="709" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="706" t="s">
+      <c r="B24" s="692"/>
+      <c r="C24" s="579"/>
+      <c r="D24" s="579"/>
+      <c r="E24" s="579"/>
+      <c r="F24" s="579"/>
+      <c r="G24" s="579"/>
+      <c r="H24" s="579"/>
+      <c r="I24" s="579"/>
+      <c r="J24" s="580"/>
+      <c r="K24" s="580"/>
+    </row>
+    <row r="25" spans="1:11" s="585" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="582" t="s">
         <v>2329</v>
       </c>
-      <c r="B25" s="707" t="s">
+      <c r="B25" s="583" t="s">
         <v>2330</v>
       </c>
-      <c r="C25" s="707" t="s">
+      <c r="C25" s="583" t="s">
         <v>2331</v>
       </c>
-      <c r="D25" s="707" t="s">
+      <c r="D25" s="583" t="s">
         <v>2332</v>
       </c>
-      <c r="E25" s="708"/>
-      <c r="F25" s="708"/>
-      <c r="G25" s="708"/>
-      <c r="H25" s="708"/>
-      <c r="I25" s="708"/>
-      <c r="J25" s="708"/>
-      <c r="K25" s="708"/>
-    </row>
-    <row r="26" spans="1:11" s="710" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="706" t="s">
+      <c r="E25" s="584"/>
+      <c r="F25" s="584"/>
+      <c r="G25" s="584"/>
+      <c r="H25" s="584"/>
+      <c r="I25" s="584"/>
+      <c r="J25" s="584"/>
+      <c r="K25" s="584"/>
+    </row>
+    <row r="26" spans="1:11" s="586" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="582" t="s">
         <v>2333</v>
       </c>
-      <c r="B26" s="707" t="s">
+      <c r="B26" s="583" t="s">
         <v>2334</v>
       </c>
-      <c r="C26" s="707" t="s">
+      <c r="C26" s="583" t="s">
         <v>2331</v>
       </c>
-      <c r="D26" s="707" t="s">
+      <c r="D26" s="583" t="s">
         <v>2335</v>
       </c>
-      <c r="E26" s="708"/>
-      <c r="F26" s="708"/>
-      <c r="G26" s="708"/>
-      <c r="H26" s="708"/>
-      <c r="I26" s="708"/>
-      <c r="J26" s="708"/>
-      <c r="K26" s="708"/>
-    </row>
-    <row r="27" spans="1:11" s="709" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="706" t="s">
+      <c r="E26" s="584"/>
+      <c r="F26" s="584"/>
+      <c r="G26" s="584"/>
+      <c r="H26" s="584"/>
+      <c r="I26" s="584"/>
+      <c r="J26" s="584"/>
+      <c r="K26" s="584"/>
+    </row>
+    <row r="27" spans="1:11" s="585" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="582" t="s">
         <v>2336</v>
       </c>
-      <c r="B27" s="707" t="s">
+      <c r="B27" s="583" t="s">
         <v>2337</v>
       </c>
-      <c r="C27" s="707" t="s">
+      <c r="C27" s="583" t="s">
         <v>2331</v>
       </c>
-      <c r="D27" s="707" t="s">
+      <c r="D27" s="583" t="s">
         <v>2338</v>
       </c>
-      <c r="E27" s="708"/>
-      <c r="F27" s="708"/>
-      <c r="G27" s="708"/>
-      <c r="H27" s="708"/>
-      <c r="I27" s="708"/>
-      <c r="J27" s="708"/>
-      <c r="K27" s="708"/>
-    </row>
-    <row r="28" spans="1:11" s="711" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="711" t="s">
+      <c r="E27" s="584"/>
+      <c r="F27" s="584"/>
+      <c r="G27" s="584"/>
+      <c r="H27" s="584"/>
+      <c r="I27" s="584"/>
+      <c r="J27" s="584"/>
+      <c r="K27" s="584"/>
+    </row>
+    <row r="28" spans="1:11" s="587" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="587" t="s">
         <v>2339</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="710" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="706" t="s">
+    <row r="29" spans="1:11" s="586" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="582" t="s">
         <v>2340</v>
       </c>
-      <c r="B29" s="707" t="s">
+      <c r="B29" s="583" t="s">
         <v>2341</v>
       </c>
-      <c r="C29" s="707" t="s">
+      <c r="C29" s="583" t="s">
         <v>2331</v>
       </c>
-      <c r="D29" s="707" t="s">
+      <c r="D29" s="583" t="s">
         <v>2342</v>
       </c>
-      <c r="E29" s="708"/>
-      <c r="F29" s="708"/>
-      <c r="G29" s="708"/>
-      <c r="H29" s="708"/>
-      <c r="I29" s="708"/>
-      <c r="J29" s="708"/>
-      <c r="K29" s="708"/>
-    </row>
-    <row r="30" spans="1:11" s="710" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="706" t="s">
+      <c r="E29" s="584"/>
+      <c r="F29" s="584"/>
+      <c r="G29" s="584"/>
+      <c r="H29" s="584"/>
+      <c r="I29" s="584"/>
+      <c r="J29" s="584"/>
+      <c r="K29" s="584"/>
+    </row>
+    <row r="30" spans="1:11" s="586" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="582" t="s">
         <v>2343</v>
       </c>
-      <c r="B30" s="707" t="s">
+      <c r="B30" s="583" t="s">
         <v>2344</v>
       </c>
-      <c r="C30" s="707" t="s">
+      <c r="C30" s="583" t="s">
         <v>2331</v>
       </c>
-      <c r="D30" s="707" t="s">
+      <c r="D30" s="583" t="s">
         <v>2345</v>
       </c>
     </row>
@@ -46179,98 +46188,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="688" t="s">
+      <c r="A1" s="705" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="687" t="s">
+      <c r="B1" s="693" t="s">
         <v>955</v>
       </c>
-      <c r="C1" s="687" t="s">
+      <c r="C1" s="693" t="s">
         <v>956</v>
       </c>
-      <c r="D1" s="687" t="s">
+      <c r="D1" s="693" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="687" t="s">
+      <c r="E1" s="693" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="687" t="s">
+      <c r="F1" s="693" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="687" t="s">
+      <c r="G1" s="693" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="687" t="s">
+      <c r="H1" s="693" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="687" t="s">
+      <c r="I1" s="693" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="687" t="s">
+      <c r="J1" s="693" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="687" t="s">
+      <c r="K1" s="693" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="687" t="s">
+      <c r="L1" s="693" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="683" t="s">
+      <c r="M1" s="702" t="s">
         <v>957</v>
       </c>
-      <c r="N1" s="685" t="s">
+      <c r="N1" s="703" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="684"/>
-      <c r="B2" s="684"/>
-      <c r="C2" s="684"/>
-      <c r="D2" s="684"/>
-      <c r="E2" s="684"/>
-      <c r="F2" s="684"/>
-      <c r="G2" s="684"/>
-      <c r="H2" s="684"/>
-      <c r="I2" s="684"/>
-      <c r="J2" s="684"/>
-      <c r="K2" s="684"/>
-      <c r="L2" s="684"/>
-      <c r="M2" s="684"/>
-      <c r="N2" s="678"/>
+      <c r="A2" s="694"/>
+      <c r="B2" s="694"/>
+      <c r="C2" s="694"/>
+      <c r="D2" s="694"/>
+      <c r="E2" s="694"/>
+      <c r="F2" s="694"/>
+      <c r="G2" s="694"/>
+      <c r="H2" s="694"/>
+      <c r="I2" s="694"/>
+      <c r="J2" s="694"/>
+      <c r="K2" s="694"/>
+      <c r="L2" s="694"/>
+      <c r="M2" s="694"/>
+      <c r="N2" s="697"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="680" t="s">
+      <c r="A3" s="699" t="s">
         <v>959</v>
       </c>
-      <c r="B3" s="681"/>
-      <c r="C3" s="681"/>
-      <c r="D3" s="681"/>
-      <c r="E3" s="681"/>
-      <c r="F3" s="681"/>
-      <c r="G3" s="681"/>
-      <c r="H3" s="681"/>
-      <c r="I3" s="681"/>
-      <c r="J3" s="681"/>
-      <c r="K3" s="681"/>
-      <c r="L3" s="682"/>
+      <c r="B3" s="700"/>
+      <c r="C3" s="700"/>
+      <c r="D3" s="700"/>
+      <c r="E3" s="700"/>
+      <c r="F3" s="700"/>
+      <c r="G3" s="700"/>
+      <c r="H3" s="700"/>
+      <c r="I3" s="700"/>
+      <c r="J3" s="700"/>
+      <c r="K3" s="700"/>
+      <c r="L3" s="701"/>
       <c r="M3" s="256"/>
       <c r="N3" s="257"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="686" t="s">
+      <c r="A4" s="704" t="s">
         <v>960</v>
       </c>
-      <c r="B4" s="681"/>
-      <c r="C4" s="681"/>
-      <c r="D4" s="681"/>
-      <c r="E4" s="681"/>
-      <c r="F4" s="681"/>
-      <c r="G4" s="681"/>
-      <c r="H4" s="681"/>
-      <c r="I4" s="681"/>
-      <c r="J4" s="681"/>
-      <c r="K4" s="681"/>
-      <c r="L4" s="682"/>
+      <c r="B4" s="700"/>
+      <c r="C4" s="700"/>
+      <c r="D4" s="700"/>
+      <c r="E4" s="700"/>
+      <c r="F4" s="700"/>
+      <c r="G4" s="700"/>
+      <c r="H4" s="700"/>
+      <c r="I4" s="700"/>
+      <c r="J4" s="700"/>
+      <c r="K4" s="700"/>
+      <c r="L4" s="701"/>
       <c r="M4" s="258"/>
       <c r="N4" s="259"/>
     </row>
@@ -46442,20 +46451,20 @@
       <c r="N10" s="289"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="680" t="s">
+      <c r="A11" s="699" t="s">
         <v>982</v>
       </c>
-      <c r="B11" s="677"/>
-      <c r="C11" s="677"/>
-      <c r="D11" s="681"/>
-      <c r="E11" s="677"/>
-      <c r="F11" s="681"/>
-      <c r="G11" s="681"/>
-      <c r="H11" s="681"/>
-      <c r="I11" s="681"/>
-      <c r="J11" s="681"/>
-      <c r="K11" s="681"/>
-      <c r="L11" s="682"/>
+      <c r="B11" s="696"/>
+      <c r="C11" s="696"/>
+      <c r="D11" s="700"/>
+      <c r="E11" s="696"/>
+      <c r="F11" s="700"/>
+      <c r="G11" s="700"/>
+      <c r="H11" s="700"/>
+      <c r="I11" s="700"/>
+      <c r="J11" s="700"/>
+      <c r="K11" s="700"/>
+      <c r="L11" s="701"/>
       <c r="M11" s="256"/>
       <c r="N11" s="256"/>
     </row>
@@ -46516,20 +46525,20 @@
       <c r="N13" s="301"/>
     </row>
     <row r="14" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="680" t="s">
+      <c r="A14" s="699" t="s">
         <v>990</v>
       </c>
-      <c r="B14" s="681"/>
-      <c r="C14" s="681"/>
-      <c r="D14" s="681"/>
-      <c r="E14" s="681"/>
-      <c r="F14" s="681"/>
-      <c r="G14" s="681"/>
-      <c r="H14" s="681"/>
-      <c r="I14" s="681"/>
-      <c r="J14" s="681"/>
-      <c r="K14" s="681"/>
-      <c r="L14" s="682"/>
+      <c r="B14" s="700"/>
+      <c r="C14" s="700"/>
+      <c r="D14" s="700"/>
+      <c r="E14" s="700"/>
+      <c r="F14" s="700"/>
+      <c r="G14" s="700"/>
+      <c r="H14" s="700"/>
+      <c r="I14" s="700"/>
+      <c r="J14" s="700"/>
+      <c r="K14" s="700"/>
+      <c r="L14" s="701"/>
       <c r="M14" s="300"/>
       <c r="N14" s="301"/>
     </row>
@@ -46590,20 +46599,20 @@
       <c r="N16" s="309"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="676" t="s">
+      <c r="A17" s="695" t="s">
         <v>996</v>
       </c>
-      <c r="B17" s="677"/>
-      <c r="C17" s="677"/>
-      <c r="D17" s="677"/>
-      <c r="E17" s="677"/>
-      <c r="F17" s="677"/>
-      <c r="G17" s="677"/>
-      <c r="H17" s="677"/>
-      <c r="I17" s="677"/>
-      <c r="J17" s="677"/>
-      <c r="K17" s="677"/>
-      <c r="L17" s="678"/>
+      <c r="B17" s="696"/>
+      <c r="C17" s="696"/>
+      <c r="D17" s="696"/>
+      <c r="E17" s="696"/>
+      <c r="F17" s="696"/>
+      <c r="G17" s="696"/>
+      <c r="H17" s="696"/>
+      <c r="I17" s="696"/>
+      <c r="J17" s="696"/>
+      <c r="K17" s="696"/>
+      <c r="L17" s="697"/>
       <c r="M17" s="310"/>
       <c r="N17" s="311"/>
     </row>
@@ -46920,20 +46929,20 @@
       <c r="N30" s="348"/>
     </row>
     <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="679" t="s">
+      <c r="A31" s="698" t="s">
         <v>1034</v>
       </c>
-      <c r="B31" s="677"/>
-      <c r="C31" s="677"/>
-      <c r="D31" s="677"/>
-      <c r="E31" s="677"/>
-      <c r="F31" s="677"/>
-      <c r="G31" s="677"/>
-      <c r="H31" s="677"/>
-      <c r="I31" s="677"/>
-      <c r="J31" s="677"/>
-      <c r="K31" s="677"/>
-      <c r="L31" s="678"/>
+      <c r="B31" s="696"/>
+      <c r="C31" s="696"/>
+      <c r="D31" s="696"/>
+      <c r="E31" s="696"/>
+      <c r="F31" s="696"/>
+      <c r="G31" s="696"/>
+      <c r="H31" s="696"/>
+      <c r="I31" s="696"/>
+      <c r="J31" s="696"/>
+      <c r="K31" s="696"/>
+      <c r="L31" s="697"/>
       <c r="M31" s="349"/>
       <c r="N31" s="349"/>
     </row>
@@ -61397,11 +61406,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A17:L17"/>
     <mergeCell ref="A31:L31"/>
     <mergeCell ref="A14:L14"/>
     <mergeCell ref="M1:M2"/>
@@ -61417,6 +61421,11 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -61443,56 +61452,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="696" t="s">
+      <c r="A1" s="708" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="698" t="s">
+      <c r="B1" s="710" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="698" t="s">
+      <c r="C1" s="710" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="699" t="s">
+      <c r="D1" s="711" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="699" t="s">
+      <c r="E1" s="711" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="698" t="s">
+      <c r="F1" s="710" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="698" t="s">
+      <c r="G1" s="710" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="698" t="s">
+      <c r="H1" s="710" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="698" t="s">
+      <c r="I1" s="710" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="698" t="s">
+      <c r="J1" s="710" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="701" t="s">
+      <c r="K1" s="713" t="s">
         <v>957</v>
       </c>
-      <c r="L1" s="694" t="s">
+      <c r="L1" s="706" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="697"/>
-      <c r="B2" s="697"/>
-      <c r="C2" s="697"/>
-      <c r="D2" s="700"/>
-      <c r="E2" s="700"/>
-      <c r="F2" s="697"/>
-      <c r="G2" s="697"/>
-      <c r="H2" s="697"/>
-      <c r="I2" s="697"/>
-      <c r="J2" s="697"/>
-      <c r="K2" s="697"/>
-      <c r="L2" s="695"/>
+      <c r="A2" s="709"/>
+      <c r="B2" s="709"/>
+      <c r="C2" s="709"/>
+      <c r="D2" s="712"/>
+      <c r="E2" s="712"/>
+      <c r="F2" s="709"/>
+      <c r="G2" s="709"/>
+      <c r="H2" s="709"/>
+      <c r="I2" s="709"/>
+      <c r="J2" s="709"/>
+      <c r="K2" s="709"/>
+      <c r="L2" s="707"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="379" t="s">
@@ -62015,20 +62024,20 @@
       <c r="L25" s="376"/>
     </row>
     <row r="26" spans="1:12" s="408" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="691" t="s">
+      <c r="A26" s="714" t="s">
         <v>1154</v>
       </c>
-      <c r="B26" s="692"/>
-      <c r="C26" s="692"/>
-      <c r="D26" s="692"/>
-      <c r="E26" s="692"/>
-      <c r="F26" s="692"/>
-      <c r="G26" s="692"/>
-      <c r="H26" s="692"/>
-      <c r="I26" s="692"/>
-      <c r="J26" s="692"/>
-      <c r="K26" s="692"/>
-      <c r="L26" s="693"/>
+      <c r="B26" s="715"/>
+      <c r="C26" s="715"/>
+      <c r="D26" s="715"/>
+      <c r="E26" s="715"/>
+      <c r="F26" s="715"/>
+      <c r="G26" s="715"/>
+      <c r="H26" s="715"/>
+      <c r="I26" s="715"/>
+      <c r="J26" s="715"/>
+      <c r="K26" s="715"/>
+      <c r="L26" s="716"/>
     </row>
     <row r="27" spans="1:12" s="408" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="211" t="s">
@@ -62671,20 +62680,20 @@
       <c r="L54" s="411"/>
     </row>
     <row r="55" spans="1:12" s="240" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="689" t="s">
+      <c r="A55" s="717" t="s">
         <v>1160</v>
       </c>
-      <c r="B55" s="689"/>
-      <c r="C55" s="689"/>
-      <c r="D55" s="689"/>
-      <c r="E55" s="689"/>
-      <c r="F55" s="689"/>
-      <c r="G55" s="689"/>
-      <c r="H55" s="689"/>
-      <c r="I55" s="689"/>
-      <c r="J55" s="689"/>
-      <c r="K55" s="689"/>
-      <c r="L55" s="689"/>
+      <c r="B55" s="717"/>
+      <c r="C55" s="717"/>
+      <c r="D55" s="717"/>
+      <c r="E55" s="717"/>
+      <c r="F55" s="717"/>
+      <c r="G55" s="717"/>
+      <c r="H55" s="717"/>
+      <c r="I55" s="717"/>
+      <c r="J55" s="717"/>
+      <c r="K55" s="717"/>
+      <c r="L55" s="717"/>
     </row>
     <row r="56" spans="1:12" s="240" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="211" t="s">
@@ -62735,20 +62744,20 @@
       <c r="L57" s="411"/>
     </row>
     <row r="58" spans="1:12" s="240" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="689" t="s">
+      <c r="A58" s="717" t="s">
         <v>1415</v>
       </c>
-      <c r="B58" s="689"/>
-      <c r="C58" s="689"/>
-      <c r="D58" s="689"/>
-      <c r="E58" s="689"/>
-      <c r="F58" s="689"/>
-      <c r="G58" s="689"/>
-      <c r="H58" s="689"/>
-      <c r="I58" s="689"/>
-      <c r="J58" s="689"/>
-      <c r="K58" s="689"/>
-      <c r="L58" s="689"/>
+      <c r="B58" s="717"/>
+      <c r="C58" s="717"/>
+      <c r="D58" s="717"/>
+      <c r="E58" s="717"/>
+      <c r="F58" s="717"/>
+      <c r="G58" s="717"/>
+      <c r="H58" s="717"/>
+      <c r="I58" s="717"/>
+      <c r="J58" s="717"/>
+      <c r="K58" s="717"/>
+      <c r="L58" s="717"/>
     </row>
     <row r="59" spans="1:12" s="240" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="211" t="s">
@@ -62799,20 +62808,20 @@
       <c r="L60" s="411"/>
     </row>
     <row r="61" spans="1:12" s="240" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="689" t="s">
+      <c r="A61" s="717" t="s">
         <v>1417</v>
       </c>
-      <c r="B61" s="689"/>
-      <c r="C61" s="689"/>
-      <c r="D61" s="689"/>
-      <c r="E61" s="689"/>
-      <c r="F61" s="689"/>
-      <c r="G61" s="689"/>
-      <c r="H61" s="689"/>
-      <c r="I61" s="689"/>
-      <c r="J61" s="689"/>
-      <c r="K61" s="689"/>
-      <c r="L61" s="689"/>
+      <c r="B61" s="717"/>
+      <c r="C61" s="717"/>
+      <c r="D61" s="717"/>
+      <c r="E61" s="717"/>
+      <c r="F61" s="717"/>
+      <c r="G61" s="717"/>
+      <c r="H61" s="717"/>
+      <c r="I61" s="717"/>
+      <c r="J61" s="717"/>
+      <c r="K61" s="717"/>
+      <c r="L61" s="717"/>
     </row>
     <row r="62" spans="1:12" s="540" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="536" t="s">
@@ -62863,20 +62872,20 @@
       <c r="L63" s="411"/>
     </row>
     <row r="64" spans="1:12" s="240" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="691" t="s">
+      <c r="A64" s="714" t="s">
         <v>1419</v>
       </c>
-      <c r="B64" s="692"/>
-      <c r="C64" s="692"/>
-      <c r="D64" s="692"/>
-      <c r="E64" s="692"/>
-      <c r="F64" s="692"/>
-      <c r="G64" s="692"/>
-      <c r="H64" s="692"/>
-      <c r="I64" s="692"/>
-      <c r="J64" s="692"/>
-      <c r="K64" s="692"/>
-      <c r="L64" s="693"/>
+      <c r="B64" s="715"/>
+      <c r="C64" s="715"/>
+      <c r="D64" s="715"/>
+      <c r="E64" s="715"/>
+      <c r="F64" s="715"/>
+      <c r="G64" s="715"/>
+      <c r="H64" s="715"/>
+      <c r="I64" s="715"/>
+      <c r="J64" s="715"/>
+      <c r="K64" s="715"/>
+      <c r="L64" s="716"/>
     </row>
     <row r="65" spans="1:12" s="240" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="211" t="s">
@@ -62975,20 +62984,20 @@
       <c r="L68" s="411"/>
     </row>
     <row r="69" spans="1:12" s="240" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="689" t="s">
+      <c r="A69" s="717" t="s">
         <v>1423</v>
       </c>
-      <c r="B69" s="689"/>
-      <c r="C69" s="689"/>
-      <c r="D69" s="689"/>
-      <c r="E69" s="689"/>
-      <c r="F69" s="689"/>
-      <c r="G69" s="689"/>
-      <c r="H69" s="689"/>
-      <c r="I69" s="689"/>
-      <c r="J69" s="689"/>
-      <c r="K69" s="689"/>
-      <c r="L69" s="689"/>
+      <c r="B69" s="717"/>
+      <c r="C69" s="717"/>
+      <c r="D69" s="717"/>
+      <c r="E69" s="717"/>
+      <c r="F69" s="717"/>
+      <c r="G69" s="717"/>
+      <c r="H69" s="717"/>
+      <c r="I69" s="717"/>
+      <c r="J69" s="717"/>
+      <c r="K69" s="717"/>
+      <c r="L69" s="717"/>
     </row>
     <row r="70" spans="1:12" s="540" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="536" t="s">
@@ -63113,20 +63122,20 @@
       <c r="L74" s="411"/>
     </row>
     <row r="75" spans="1:12" s="240" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="689" t="s">
+      <c r="A75" s="717" t="s">
         <v>1428</v>
       </c>
-      <c r="B75" s="689"/>
-      <c r="C75" s="689"/>
-      <c r="D75" s="689"/>
-      <c r="E75" s="689"/>
-      <c r="F75" s="689"/>
-      <c r="G75" s="689"/>
-      <c r="H75" s="689"/>
-      <c r="I75" s="689"/>
-      <c r="J75" s="689"/>
-      <c r="K75" s="689"/>
-      <c r="L75" s="689"/>
+      <c r="B75" s="717"/>
+      <c r="C75" s="717"/>
+      <c r="D75" s="717"/>
+      <c r="E75" s="717"/>
+      <c r="F75" s="717"/>
+      <c r="G75" s="717"/>
+      <c r="H75" s="717"/>
+      <c r="I75" s="717"/>
+      <c r="J75" s="717"/>
+      <c r="K75" s="717"/>
+      <c r="L75" s="717"/>
     </row>
     <row r="76" spans="1:12" s="240" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="211" t="s">
@@ -63201,20 +63210,20 @@
       <c r="L78" s="411"/>
     </row>
     <row r="79" spans="1:12" s="240" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="689" t="s">
+      <c r="A79" s="717" t="s">
         <v>1431</v>
       </c>
-      <c r="B79" s="689"/>
-      <c r="C79" s="689"/>
-      <c r="D79" s="689"/>
-      <c r="E79" s="689"/>
-      <c r="F79" s="689"/>
-      <c r="G79" s="689"/>
-      <c r="H79" s="689"/>
-      <c r="I79" s="689"/>
-      <c r="J79" s="689"/>
-      <c r="K79" s="689"/>
-      <c r="L79" s="689"/>
+      <c r="B79" s="717"/>
+      <c r="C79" s="717"/>
+      <c r="D79" s="717"/>
+      <c r="E79" s="717"/>
+      <c r="F79" s="717"/>
+      <c r="G79" s="717"/>
+      <c r="H79" s="717"/>
+      <c r="I79" s="717"/>
+      <c r="J79" s="717"/>
+      <c r="K79" s="717"/>
+      <c r="L79" s="717"/>
     </row>
     <row r="80" spans="1:12" s="240" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="211" t="s">
@@ -63313,20 +63322,20 @@
       <c r="L83" s="411"/>
     </row>
     <row r="84" spans="1:12" s="240" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="689" t="s">
+      <c r="A84" s="717" t="s">
         <v>1434</v>
       </c>
-      <c r="B84" s="689"/>
-      <c r="C84" s="689"/>
-      <c r="D84" s="689"/>
-      <c r="E84" s="689"/>
-      <c r="F84" s="689"/>
-      <c r="G84" s="689"/>
-      <c r="H84" s="689"/>
-      <c r="I84" s="689"/>
-      <c r="J84" s="689"/>
-      <c r="K84" s="689"/>
-      <c r="L84" s="689"/>
+      <c r="B84" s="717"/>
+      <c r="C84" s="717"/>
+      <c r="D84" s="717"/>
+      <c r="E84" s="717"/>
+      <c r="F84" s="717"/>
+      <c r="G84" s="717"/>
+      <c r="H84" s="717"/>
+      <c r="I84" s="717"/>
+      <c r="J84" s="717"/>
+      <c r="K84" s="717"/>
+      <c r="L84" s="717"/>
     </row>
     <row r="85" spans="1:12" s="240" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="211" t="s">
@@ -63377,20 +63386,20 @@
       <c r="L86" s="411"/>
     </row>
     <row r="87" spans="1:12" s="240" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="689" t="s">
+      <c r="A87" s="717" t="s">
         <v>1436</v>
       </c>
-      <c r="B87" s="689"/>
-      <c r="C87" s="689"/>
-      <c r="D87" s="689"/>
-      <c r="E87" s="689"/>
-      <c r="F87" s="689"/>
-      <c r="G87" s="689"/>
-      <c r="H87" s="689"/>
-      <c r="I87" s="689"/>
-      <c r="J87" s="689"/>
-      <c r="K87" s="689"/>
-      <c r="L87" s="689"/>
+      <c r="B87" s="717"/>
+      <c r="C87" s="717"/>
+      <c r="D87" s="717"/>
+      <c r="E87" s="717"/>
+      <c r="F87" s="717"/>
+      <c r="G87" s="717"/>
+      <c r="H87" s="717"/>
+      <c r="I87" s="717"/>
+      <c r="J87" s="717"/>
+      <c r="K87" s="717"/>
+      <c r="L87" s="717"/>
     </row>
     <row r="88" spans="1:12" s="240" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="211" t="s">
@@ -63489,20 +63498,20 @@
       <c r="L91" s="411"/>
     </row>
     <row r="92" spans="1:12" s="240" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="689" t="s">
+      <c r="A92" s="717" t="s">
         <v>1440</v>
       </c>
-      <c r="B92" s="689"/>
-      <c r="C92" s="689"/>
-      <c r="D92" s="689"/>
-      <c r="E92" s="689"/>
-      <c r="F92" s="689"/>
-      <c r="G92" s="689"/>
-      <c r="H92" s="689"/>
-      <c r="I92" s="689"/>
-      <c r="J92" s="689"/>
-      <c r="K92" s="689"/>
-      <c r="L92" s="689"/>
+      <c r="B92" s="717"/>
+      <c r="C92" s="717"/>
+      <c r="D92" s="717"/>
+      <c r="E92" s="717"/>
+      <c r="F92" s="717"/>
+      <c r="G92" s="717"/>
+      <c r="H92" s="717"/>
+      <c r="I92" s="717"/>
+      <c r="J92" s="717"/>
+      <c r="K92" s="717"/>
+      <c r="L92" s="717"/>
     </row>
     <row r="93" spans="1:12" s="240" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="211" t="s">
@@ -63577,20 +63586,20 @@
       <c r="L95" s="411"/>
     </row>
     <row r="96" spans="1:12" s="240" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="689" t="s">
+      <c r="A96" s="717" t="s">
         <v>1443</v>
       </c>
-      <c r="B96" s="689"/>
-      <c r="C96" s="689"/>
-      <c r="D96" s="689"/>
-      <c r="E96" s="689"/>
-      <c r="F96" s="689"/>
-      <c r="G96" s="689"/>
-      <c r="H96" s="689"/>
-      <c r="I96" s="689"/>
-      <c r="J96" s="689"/>
-      <c r="K96" s="689"/>
-      <c r="L96" s="689"/>
+      <c r="B96" s="717"/>
+      <c r="C96" s="717"/>
+      <c r="D96" s="717"/>
+      <c r="E96" s="717"/>
+      <c r="F96" s="717"/>
+      <c r="G96" s="717"/>
+      <c r="H96" s="717"/>
+      <c r="I96" s="717"/>
+      <c r="J96" s="717"/>
+      <c r="K96" s="717"/>
+      <c r="L96" s="717"/>
     </row>
     <row r="97" spans="1:12" s="240" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="211" t="s">
@@ -63775,20 +63784,20 @@
       <c r="L104" s="530"/>
     </row>
     <row r="105" spans="1:12" s="414" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="690" t="s">
+      <c r="A105" s="718" t="s">
         <v>1161</v>
       </c>
-      <c r="B105" s="690"/>
-      <c r="C105" s="690"/>
-      <c r="D105" s="690"/>
-      <c r="E105" s="690"/>
-      <c r="F105" s="690"/>
-      <c r="G105" s="690"/>
-      <c r="H105" s="690"/>
-      <c r="I105" s="690"/>
-      <c r="J105" s="690"/>
-      <c r="K105" s="690"/>
-      <c r="L105" s="690"/>
+      <c r="B105" s="718"/>
+      <c r="C105" s="718"/>
+      <c r="D105" s="718"/>
+      <c r="E105" s="718"/>
+      <c r="F105" s="718"/>
+      <c r="G105" s="718"/>
+      <c r="H105" s="718"/>
+      <c r="I105" s="718"/>
+      <c r="J105" s="718"/>
+      <c r="K105" s="718"/>
+      <c r="L105" s="718"/>
     </row>
     <row r="106" spans="1:12" s="414" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="415" t="s">
@@ -63999,6 +64008,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A92:L92"/>
+    <mergeCell ref="A96:L96"/>
+    <mergeCell ref="A105:L105"/>
+    <mergeCell ref="A69:L69"/>
+    <mergeCell ref="A75:L75"/>
+    <mergeCell ref="A79:L79"/>
+    <mergeCell ref="A84:L84"/>
+    <mergeCell ref="A87:L87"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A55:L55"/>
+    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="A64:L64"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -64011,19 +64033,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="A55:L55"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="A64:L64"/>
-    <mergeCell ref="A92:L92"/>
-    <mergeCell ref="A96:L96"/>
-    <mergeCell ref="A105:L105"/>
-    <mergeCell ref="A69:L69"/>
-    <mergeCell ref="A75:L75"/>
-    <mergeCell ref="A79:L79"/>
-    <mergeCell ref="A84:L84"/>
-    <mergeCell ref="A87:L87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -64061,10 +64070,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="660" t="s">
+      <c r="A1" s="640" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="660"/>
+      <c r="B1" s="640"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -64099,250 +64108,250 @@
       <c r="AH1" s="38"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="661" t="s">
+      <c r="A2" s="641" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="661" t="s">
+      <c r="B2" s="641" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="661" t="s">
+      <c r="C2" s="641" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="664" t="s">
+      <c r="D2" s="644" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="664"/>
-      <c r="F2" s="664"/>
-      <c r="G2" s="630" t="s">
+      <c r="E2" s="644"/>
+      <c r="F2" s="644"/>
+      <c r="G2" s="653" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="631"/>
-      <c r="I2" s="631"/>
-      <c r="J2" s="636"/>
-      <c r="K2" s="624" t="s">
+      <c r="H2" s="654"/>
+      <c r="I2" s="654"/>
+      <c r="J2" s="655"/>
+      <c r="K2" s="671" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="624"/>
-      <c r="M2" s="630" t="s">
+      <c r="L2" s="671"/>
+      <c r="M2" s="653" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="631"/>
-      <c r="O2" s="636"/>
-      <c r="P2" s="630" t="s">
+      <c r="N2" s="654"/>
+      <c r="O2" s="655"/>
+      <c r="P2" s="653" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="636"/>
-      <c r="R2" s="630" t="s">
+      <c r="Q2" s="655"/>
+      <c r="R2" s="653" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="631"/>
-      <c r="T2" s="630" t="s">
+      <c r="S2" s="654"/>
+      <c r="T2" s="653" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="631"/>
-      <c r="V2" s="631"/>
-      <c r="W2" s="631"/>
-      <c r="X2" s="636"/>
-      <c r="Y2" s="630" t="s">
+      <c r="U2" s="654"/>
+      <c r="V2" s="654"/>
+      <c r="W2" s="654"/>
+      <c r="X2" s="655"/>
+      <c r="Y2" s="653" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="631"/>
-      <c r="AA2" s="631"/>
-      <c r="AB2" s="636"/>
-      <c r="AC2" s="645" t="s">
+      <c r="Z2" s="654"/>
+      <c r="AA2" s="654"/>
+      <c r="AB2" s="655"/>
+      <c r="AC2" s="647" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="646"/>
-      <c r="AE2" s="646"/>
-      <c r="AF2" s="655"/>
-      <c r="AG2" s="645" t="s">
+      <c r="AD2" s="648"/>
+      <c r="AE2" s="648"/>
+      <c r="AF2" s="663"/>
+      <c r="AG2" s="647" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="646"/>
-      <c r="AI2" s="646"/>
+      <c r="AH2" s="648"/>
+      <c r="AI2" s="648"/>
     </row>
     <row r="3" spans="1:35" s="43" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="662"/>
-      <c r="B3" s="662"/>
-      <c r="C3" s="662"/>
-      <c r="D3" s="664"/>
-      <c r="E3" s="664"/>
-      <c r="F3" s="664"/>
-      <c r="G3" s="632"/>
-      <c r="H3" s="633"/>
-      <c r="I3" s="633"/>
-      <c r="J3" s="637"/>
-      <c r="K3" s="624" t="s">
+      <c r="A3" s="642"/>
+      <c r="B3" s="642"/>
+      <c r="C3" s="642"/>
+      <c r="D3" s="644"/>
+      <c r="E3" s="644"/>
+      <c r="F3" s="644"/>
+      <c r="G3" s="649"/>
+      <c r="H3" s="650"/>
+      <c r="I3" s="650"/>
+      <c r="J3" s="656"/>
+      <c r="K3" s="671" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="624"/>
-      <c r="M3" s="632"/>
-      <c r="N3" s="633"/>
-      <c r="O3" s="637"/>
-      <c r="P3" s="632"/>
-      <c r="Q3" s="637"/>
-      <c r="R3" s="632"/>
-      <c r="S3" s="633"/>
-      <c r="T3" s="632"/>
-      <c r="U3" s="633"/>
-      <c r="V3" s="633"/>
-      <c r="W3" s="633"/>
-      <c r="X3" s="637"/>
-      <c r="Y3" s="632"/>
-      <c r="Z3" s="633"/>
-      <c r="AA3" s="633"/>
-      <c r="AB3" s="637"/>
-      <c r="AC3" s="632"/>
-      <c r="AD3" s="633"/>
-      <c r="AE3" s="633"/>
-      <c r="AF3" s="637"/>
-      <c r="AG3" s="632"/>
-      <c r="AH3" s="633"/>
-      <c r="AI3" s="633"/>
+      <c r="L3" s="671"/>
+      <c r="M3" s="649"/>
+      <c r="N3" s="650"/>
+      <c r="O3" s="656"/>
+      <c r="P3" s="649"/>
+      <c r="Q3" s="656"/>
+      <c r="R3" s="649"/>
+      <c r="S3" s="650"/>
+      <c r="T3" s="649"/>
+      <c r="U3" s="650"/>
+      <c r="V3" s="650"/>
+      <c r="W3" s="650"/>
+      <c r="X3" s="656"/>
+      <c r="Y3" s="649"/>
+      <c r="Z3" s="650"/>
+      <c r="AA3" s="650"/>
+      <c r="AB3" s="656"/>
+      <c r="AC3" s="649"/>
+      <c r="AD3" s="650"/>
+      <c r="AE3" s="650"/>
+      <c r="AF3" s="656"/>
+      <c r="AG3" s="649"/>
+      <c r="AH3" s="650"/>
+      <c r="AI3" s="650"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="662"/>
-      <c r="B4" s="662"/>
-      <c r="C4" s="662"/>
-      <c r="D4" s="643" t="s">
+      <c r="A4" s="642"/>
+      <c r="B4" s="642"/>
+      <c r="C4" s="642"/>
+      <c r="D4" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="643" t="s">
+      <c r="E4" s="645" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="643" t="s">
+      <c r="F4" s="645" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="641" t="s">
+      <c r="G4" s="669" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="641" t="s">
+      <c r="H4" s="669" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="641" t="s">
+      <c r="I4" s="669" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="641" t="s">
+      <c r="J4" s="669" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="625" t="s">
+      <c r="K4" s="672" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="625" t="s">
+      <c r="L4" s="672" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="627" t="s">
+      <c r="M4" s="674" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="627" t="s">
+      <c r="N4" s="674" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="638" t="s">
+      <c r="O4" s="678" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="639" t="s">
+      <c r="P4" s="679" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="639" t="s">
+      <c r="Q4" s="679" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="634" t="s">
+      <c r="R4" s="676" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="634" t="s">
+      <c r="S4" s="676" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="647" t="s">
+      <c r="T4" s="651" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="658" t="s">
+      <c r="U4" s="667" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="659"/>
-      <c r="W4" s="629" t="s">
+      <c r="V4" s="668"/>
+      <c r="W4" s="666" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="629" t="s">
+      <c r="X4" s="666" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="649" t="s">
+      <c r="Y4" s="657" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="649" t="s">
+      <c r="Z4" s="657" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="653" t="s">
+      <c r="AA4" s="661" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="654"/>
-      <c r="AC4" s="651" t="s">
+      <c r="AB4" s="662"/>
+      <c r="AC4" s="659" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="651" t="s">
+      <c r="AD4" s="659" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="656" t="s">
+      <c r="AE4" s="664" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="657"/>
-      <c r="AG4" s="643" t="s">
+      <c r="AF4" s="665"/>
+      <c r="AG4" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="643" t="s">
+      <c r="AH4" s="645" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="643" t="s">
+      <c r="AI4" s="645" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="663"/>
-      <c r="B5" s="663"/>
-      <c r="C5" s="663"/>
-      <c r="D5" s="644"/>
-      <c r="E5" s="644"/>
-      <c r="F5" s="644"/>
-      <c r="G5" s="642"/>
-      <c r="H5" s="642"/>
-      <c r="I5" s="642"/>
-      <c r="J5" s="642"/>
-      <c r="K5" s="626"/>
-      <c r="L5" s="626"/>
-      <c r="M5" s="628"/>
-      <c r="N5" s="628"/>
-      <c r="O5" s="628"/>
-      <c r="P5" s="640"/>
-      <c r="Q5" s="640"/>
-      <c r="R5" s="635"/>
-      <c r="S5" s="635"/>
-      <c r="T5" s="648"/>
+      <c r="A5" s="643"/>
+      <c r="B5" s="643"/>
+      <c r="C5" s="643"/>
+      <c r="D5" s="646"/>
+      <c r="E5" s="646"/>
+      <c r="F5" s="646"/>
+      <c r="G5" s="670"/>
+      <c r="H5" s="670"/>
+      <c r="I5" s="670"/>
+      <c r="J5" s="670"/>
+      <c r="K5" s="673"/>
+      <c r="L5" s="673"/>
+      <c r="M5" s="675"/>
+      <c r="N5" s="675"/>
+      <c r="O5" s="675"/>
+      <c r="P5" s="680"/>
+      <c r="Q5" s="680"/>
+      <c r="R5" s="677"/>
+      <c r="S5" s="677"/>
+      <c r="T5" s="652"/>
       <c r="U5" s="60" t="s">
         <v>45</v>
       </c>
       <c r="V5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="629"/>
-      <c r="X5" s="629"/>
-      <c r="Y5" s="650"/>
-      <c r="Z5" s="650"/>
+      <c r="W5" s="666"/>
+      <c r="X5" s="666"/>
+      <c r="Y5" s="658"/>
+      <c r="Z5" s="658"/>
       <c r="AA5" s="52" t="s">
         <v>52</v>
       </c>
       <c r="AB5" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AC5" s="652"/>
-      <c r="AD5" s="652"/>
+      <c r="AC5" s="660"/>
+      <c r="AD5" s="660"/>
       <c r="AE5" s="53" t="s">
         <v>52</v>
       </c>
       <c r="AF5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" s="644"/>
-      <c r="AH5" s="644"/>
-      <c r="AI5" s="644"/>
+      <c r="AG5" s="646"/>
+      <c r="AH5" s="646"/>
+      <c r="AI5" s="646"/>
     </row>
     <row r="6" spans="1:35" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47"/>
@@ -64605,14 +64614,26 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="T4:T5"/>
@@ -64629,26 +64650,14 @@
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -64701,7 +64710,7 @@
     </row>
     <row r="2" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="64"/>
-      <c r="B2" s="666" t="s">
+      <c r="B2" s="685" t="s">
         <v>138</v>
       </c>
       <c r="C2" s="72" t="s">
@@ -64714,7 +64723,7 @@
     </row>
     <row r="3" spans="1:8" s="65" customFormat="1" ht="52.5" x14ac:dyDescent="0.2">
       <c r="A3" s="64"/>
-      <c r="B3" s="667"/>
+      <c r="B3" s="686"/>
       <c r="C3" s="72" t="s">
         <v>145</v>
       </c>
@@ -64725,7 +64734,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="66"/>
-      <c r="B4" s="671" t="s">
+      <c r="B4" s="681" t="s">
         <v>85</v>
       </c>
       <c r="C4" s="71" t="s">
@@ -64738,7 +64747,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="66"/>
-      <c r="B5" s="673"/>
+      <c r="B5" s="682"/>
       <c r="C5" s="71" t="s">
         <v>141</v>
       </c>
@@ -64749,7 +64758,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="66"/>
-      <c r="B6" s="673"/>
+      <c r="B6" s="682"/>
       <c r="C6" s="71" t="s">
         <v>140</v>
       </c>
@@ -64760,7 +64769,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="66"/>
-      <c r="B7" s="673"/>
+      <c r="B7" s="682"/>
       <c r="C7" s="71" t="s">
         <v>142</v>
       </c>
@@ -64771,7 +64780,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="66"/>
-      <c r="B8" s="672"/>
+      <c r="B8" s="683"/>
       <c r="C8" s="71" t="s">
         <v>146</v>
       </c>
@@ -64782,7 +64791,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="66"/>
-      <c r="B9" s="671" t="s">
+      <c r="B9" s="681" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="67" t="s">
@@ -64795,8 +64804,8 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="66"/>
-      <c r="B10" s="673"/>
-      <c r="C10" s="671" t="s">
+      <c r="B10" s="682"/>
+      <c r="C10" s="681" t="s">
         <v>147</v>
       </c>
       <c r="D10" s="70" t="s">
@@ -64808,8 +64817,8 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="66"/>
-      <c r="B11" s="673"/>
-      <c r="C11" s="672"/>
+      <c r="B11" s="682"/>
+      <c r="C11" s="683"/>
       <c r="D11" s="70" t="s">
         <v>149</v>
       </c>
@@ -64819,8 +64828,8 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="66"/>
-      <c r="B12" s="673"/>
-      <c r="C12" s="671" t="s">
+      <c r="B12" s="682"/>
+      <c r="C12" s="681" t="s">
         <v>91</v>
       </c>
       <c r="D12" s="111" t="s">
@@ -64834,9 +64843,9 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="66"/>
-      <c r="B13" s="673"/>
-      <c r="C13" s="673"/>
-      <c r="D13" s="671" t="s">
+      <c r="B13" s="682"/>
+      <c r="C13" s="682"/>
+      <c r="D13" s="681" t="s">
         <v>116</v>
       </c>
       <c r="E13" s="66" t="s">
@@ -64847,9 +64856,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="66"/>
-      <c r="B14" s="673"/>
-      <c r="C14" s="673"/>
-      <c r="D14" s="673"/>
+      <c r="B14" s="682"/>
+      <c r="C14" s="682"/>
+      <c r="D14" s="682"/>
       <c r="E14" s="66" t="s">
         <v>120</v>
       </c>
@@ -64858,9 +64867,9 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="66"/>
-      <c r="B15" s="673"/>
-      <c r="C15" s="673"/>
-      <c r="D15" s="673"/>
+      <c r="B15" s="682"/>
+      <c r="C15" s="682"/>
+      <c r="D15" s="682"/>
       <c r="E15" s="66" t="s">
         <v>121</v>
       </c>
@@ -64869,9 +64878,9 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="66"/>
-      <c r="B16" s="673"/>
-      <c r="C16" s="673"/>
-      <c r="D16" s="673"/>
+      <c r="B16" s="682"/>
+      <c r="C16" s="682"/>
+      <c r="D16" s="682"/>
       <c r="E16" s="66" t="s">
         <v>122</v>
       </c>
@@ -64880,9 +64889,9 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="66"/>
-      <c r="B17" s="673"/>
-      <c r="C17" s="673"/>
-      <c r="D17" s="672"/>
+      <c r="B17" s="682"/>
+      <c r="C17" s="682"/>
+      <c r="D17" s="683"/>
       <c r="E17" s="66" t="s">
         <v>123</v>
       </c>
@@ -64891,8 +64900,8 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="66"/>
-      <c r="B18" s="673"/>
-      <c r="C18" s="673"/>
+      <c r="B18" s="682"/>
+      <c r="C18" s="682"/>
       <c r="D18" s="70" t="s">
         <v>117</v>
       </c>
@@ -64904,9 +64913,9 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="66"/>
-      <c r="B19" s="673"/>
-      <c r="C19" s="673"/>
-      <c r="D19" s="671" t="s">
+      <c r="B19" s="682"/>
+      <c r="C19" s="682"/>
+      <c r="D19" s="681" t="s">
         <v>118</v>
       </c>
       <c r="E19" s="66" t="s">
@@ -64917,9 +64926,9 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="66"/>
-      <c r="B20" s="673"/>
-      <c r="C20" s="672"/>
-      <c r="D20" s="672"/>
+      <c r="B20" s="682"/>
+      <c r="C20" s="683"/>
+      <c r="D20" s="683"/>
       <c r="E20" s="66" t="s">
         <v>123</v>
       </c>
@@ -64928,11 +64937,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="66"/>
-      <c r="B21" s="673"/>
-      <c r="C21" s="671" t="s">
+      <c r="B21" s="682"/>
+      <c r="C21" s="681" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="671" t="s">
+      <c r="D21" s="681" t="s">
         <v>118</v>
       </c>
       <c r="E21" s="66" t="s">
@@ -64943,9 +64952,9 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="66"/>
-      <c r="B22" s="673"/>
-      <c r="C22" s="673"/>
-      <c r="D22" s="672"/>
+      <c r="B22" s="682"/>
+      <c r="C22" s="682"/>
+      <c r="D22" s="683"/>
       <c r="E22" s="66" t="s">
         <v>128</v>
       </c>
@@ -64954,9 +64963,9 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="66"/>
-      <c r="B23" s="673"/>
-      <c r="C23" s="673"/>
-      <c r="D23" s="671" t="s">
+      <c r="B23" s="682"/>
+      <c r="C23" s="682"/>
+      <c r="D23" s="681" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="66" t="s">
@@ -64967,9 +64976,9 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="66"/>
-      <c r="B24" s="673"/>
-      <c r="C24" s="673"/>
-      <c r="D24" s="673"/>
+      <c r="B24" s="682"/>
+      <c r="C24" s="682"/>
+      <c r="D24" s="682"/>
       <c r="E24" s="66" t="s">
         <v>130</v>
       </c>
@@ -64978,9 +64987,9 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="66"/>
-      <c r="B25" s="673"/>
-      <c r="C25" s="673"/>
-      <c r="D25" s="672"/>
+      <c r="B25" s="682"/>
+      <c r="C25" s="682"/>
+      <c r="D25" s="683"/>
       <c r="E25" s="66" t="s">
         <v>131</v>
       </c>
@@ -64989,8 +64998,8 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="66"/>
-      <c r="B26" s="673"/>
-      <c r="C26" s="672"/>
+      <c r="B26" s="682"/>
+      <c r="C26" s="683"/>
       <c r="D26" s="70" t="s">
         <v>116</v>
       </c>
@@ -65002,8 +65011,8 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="66"/>
-      <c r="B27" s="673"/>
-      <c r="C27" s="668" t="s">
+      <c r="B27" s="682"/>
+      <c r="C27" s="687" t="s">
         <v>93</v>
       </c>
       <c r="D27" s="111" t="s">
@@ -65018,8 +65027,8 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="66"/>
-      <c r="B28" s="673"/>
-      <c r="C28" s="669"/>
+      <c r="B28" s="682"/>
+      <c r="C28" s="688"/>
       <c r="D28" s="111" t="s">
         <v>134</v>
       </c>
@@ -65032,8 +65041,8 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="66"/>
-      <c r="B29" s="673"/>
-      <c r="C29" s="670"/>
+      <c r="B29" s="682"/>
+      <c r="C29" s="689"/>
       <c r="D29" s="111" t="s">
         <v>135</v>
       </c>
@@ -65046,7 +65055,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="66"/>
-      <c r="B30" s="673"/>
+      <c r="B30" s="682"/>
       <c r="C30" s="70" t="s">
         <v>74</v>
       </c>
@@ -65057,7 +65066,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="66"/>
-      <c r="B31" s="673"/>
+      <c r="B31" s="682"/>
       <c r="C31" s="67" t="s">
         <v>95</v>
       </c>
@@ -65068,7 +65077,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="66"/>
-      <c r="B32" s="673"/>
+      <c r="B32" s="682"/>
       <c r="C32" s="70" t="s">
         <v>96</v>
       </c>
@@ -65079,8 +65088,8 @@
     </row>
     <row r="33" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="66"/>
-      <c r="B33" s="673"/>
-      <c r="C33" s="671" t="s">
+      <c r="B33" s="682"/>
+      <c r="C33" s="681" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="70" t="s">
@@ -65092,8 +65101,8 @@
     </row>
     <row r="34" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="66"/>
-      <c r="B34" s="673"/>
-      <c r="C34" s="672"/>
+      <c r="B34" s="682"/>
+      <c r="C34" s="683"/>
       <c r="D34" s="70" t="s">
         <v>152</v>
       </c>
@@ -65103,7 +65112,7 @@
     </row>
     <row r="35" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A35" s="66"/>
-      <c r="B35" s="672"/>
+      <c r="B35" s="683"/>
       <c r="C35" s="70" t="s">
         <v>98</v>
       </c>
@@ -65117,7 +65126,7 @@
     </row>
     <row r="36" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A36" s="66"/>
-      <c r="B36" s="671" t="s">
+      <c r="B36" s="681" t="s">
         <v>87</v>
       </c>
       <c r="C36" s="67" t="s">
@@ -65130,7 +65139,7 @@
     </row>
     <row r="37" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A37" s="66"/>
-      <c r="B37" s="673"/>
+      <c r="B37" s="682"/>
       <c r="C37" s="70" t="s">
         <v>99</v>
       </c>
@@ -65141,7 +65150,7 @@
     </row>
     <row r="38" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A38" s="66"/>
-      <c r="B38" s="673"/>
+      <c r="B38" s="682"/>
       <c r="C38" s="70" t="s">
         <v>100</v>
       </c>
@@ -65152,7 +65161,7 @@
     </row>
     <row r="39" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A39" s="66"/>
-      <c r="B39" s="672"/>
+      <c r="B39" s="683"/>
       <c r="C39" s="70" t="s">
         <v>101</v>
       </c>
@@ -65166,7 +65175,7 @@
     </row>
     <row r="40" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A40" s="66"/>
-      <c r="B40" s="671" t="s">
+      <c r="B40" s="681" t="s">
         <v>88</v>
       </c>
       <c r="C40" s="67" t="s">
@@ -65179,8 +65188,8 @@
     </row>
     <row r="41" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A41" s="66"/>
-      <c r="B41" s="673"/>
-      <c r="C41" s="671" t="s">
+      <c r="B41" s="682"/>
+      <c r="C41" s="681" t="s">
         <v>102</v>
       </c>
       <c r="D41" s="70" t="s">
@@ -65192,8 +65201,8 @@
     </row>
     <row r="42" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A42" s="66"/>
-      <c r="B42" s="673"/>
-      <c r="C42" s="672"/>
+      <c r="B42" s="682"/>
+      <c r="C42" s="683"/>
       <c r="D42" s="70" t="s">
         <v>136</v>
       </c>
@@ -65203,7 +65212,7 @@
     </row>
     <row r="43" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A43" s="66"/>
-      <c r="B43" s="672"/>
+      <c r="B43" s="683"/>
       <c r="C43" s="70" t="s">
         <v>103</v>
       </c>
@@ -65214,7 +65223,7 @@
     </row>
     <row r="44" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A44" s="66"/>
-      <c r="B44" s="671" t="s">
+      <c r="B44" s="681" t="s">
         <v>89</v>
       </c>
       <c r="C44" s="67" t="s">
@@ -65228,7 +65237,7 @@
     </row>
     <row r="45" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A45" s="66"/>
-      <c r="B45" s="673"/>
+      <c r="B45" s="682"/>
       <c r="C45" s="70" t="s">
         <v>104</v>
       </c>
@@ -65239,7 +65248,7 @@
     </row>
     <row r="46" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A46" s="66"/>
-      <c r="B46" s="673"/>
+      <c r="B46" s="682"/>
       <c r="C46" s="70" t="s">
         <v>105</v>
       </c>
@@ -65250,7 +65259,7 @@
     </row>
     <row r="47" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A47" s="66"/>
-      <c r="B47" s="673"/>
+      <c r="B47" s="682"/>
       <c r="C47" s="70" t="s">
         <v>106</v>
       </c>
@@ -65261,7 +65270,7 @@
     </row>
     <row r="48" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A48" s="66"/>
-      <c r="B48" s="672"/>
+      <c r="B48" s="683"/>
       <c r="C48" s="70" t="s">
         <v>107</v>
       </c>
@@ -65319,10 +65328,10 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="66"/>
       <c r="B53" s="73"/>
-      <c r="C53" s="671" t="s">
+      <c r="C53" s="681" t="s">
         <v>162</v>
       </c>
-      <c r="D53" s="671" t="s">
+      <c r="D53" s="681" t="s">
         <v>169</v>
       </c>
       <c r="E53" s="66" t="s">
@@ -65334,8 +65343,8 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="66"/>
       <c r="B54" s="73"/>
-      <c r="C54" s="673"/>
-      <c r="D54" s="673"/>
+      <c r="C54" s="682"/>
+      <c r="D54" s="682"/>
       <c r="E54" s="66" t="s">
         <v>173</v>
       </c>
@@ -65345,8 +65354,8 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="66"/>
       <c r="B55" s="73"/>
-      <c r="C55" s="673"/>
-      <c r="D55" s="672"/>
+      <c r="C55" s="682"/>
+      <c r="D55" s="683"/>
       <c r="E55" s="66" t="s">
         <v>174</v>
       </c>
@@ -65356,11 +65365,11 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="66"/>
       <c r="B56" s="73"/>
-      <c r="C56" s="673"/>
-      <c r="D56" s="671" t="s">
+      <c r="C56" s="682"/>
+      <c r="D56" s="681" t="s">
         <v>170</v>
       </c>
-      <c r="E56" s="671" t="s">
+      <c r="E56" s="681" t="s">
         <v>175</v>
       </c>
       <c r="F56" s="66" t="s">
@@ -65371,9 +65380,9 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="66"/>
       <c r="B57" s="73"/>
-      <c r="C57" s="673"/>
-      <c r="D57" s="673"/>
-      <c r="E57" s="673"/>
+      <c r="C57" s="682"/>
+      <c r="D57" s="682"/>
+      <c r="E57" s="682"/>
       <c r="F57" s="66" t="s">
         <v>177</v>
       </c>
@@ -65382,9 +65391,9 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="66"/>
       <c r="B58" s="73"/>
-      <c r="C58" s="673"/>
-      <c r="D58" s="673"/>
-      <c r="E58" s="672"/>
+      <c r="C58" s="682"/>
+      <c r="D58" s="682"/>
+      <c r="E58" s="683"/>
       <c r="F58" s="66" t="s">
         <v>174</v>
       </c>
@@ -65393,9 +65402,9 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="66"/>
       <c r="B59" s="73"/>
-      <c r="C59" s="673"/>
-      <c r="D59" s="673"/>
-      <c r="E59" s="671" t="s">
+      <c r="C59" s="682"/>
+      <c r="D59" s="682"/>
+      <c r="E59" s="681" t="s">
         <v>128</v>
       </c>
       <c r="F59" s="66" t="s">
@@ -65406,9 +65415,9 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="66"/>
       <c r="B60" s="73"/>
-      <c r="C60" s="673"/>
-      <c r="D60" s="672"/>
-      <c r="E60" s="672"/>
+      <c r="C60" s="682"/>
+      <c r="D60" s="683"/>
+      <c r="E60" s="683"/>
       <c r="F60" s="66" t="s">
         <v>179</v>
       </c>
@@ -65417,8 +65426,8 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="66"/>
       <c r="B61" s="73"/>
-      <c r="C61" s="673"/>
-      <c r="D61" s="671" t="s">
+      <c r="C61" s="682"/>
+      <c r="D61" s="681" t="s">
         <v>171</v>
       </c>
       <c r="E61" s="66" t="s">
@@ -65430,8 +65439,8 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="66"/>
       <c r="B62" s="73"/>
-      <c r="C62" s="673"/>
-      <c r="D62" s="673"/>
+      <c r="C62" s="682"/>
+      <c r="D62" s="682"/>
       <c r="E62" s="66" t="s">
         <v>181</v>
       </c>
@@ -65441,8 +65450,8 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="66"/>
       <c r="B63" s="73"/>
-      <c r="C63" s="672"/>
-      <c r="D63" s="672"/>
+      <c r="C63" s="683"/>
+      <c r="D63" s="683"/>
       <c r="E63" s="66" t="s">
         <v>182</v>
       </c>
@@ -65455,7 +65464,7 @@
       <c r="C64" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="D64" s="671" t="s">
+      <c r="D64" s="681" t="s">
         <v>183</v>
       </c>
       <c r="E64" s="66" t="s">
@@ -65468,7 +65477,7 @@
       <c r="A65" s="66"/>
       <c r="B65" s="73"/>
       <c r="C65" s="70"/>
-      <c r="D65" s="672"/>
+      <c r="D65" s="683"/>
       <c r="E65" s="66" t="s">
         <v>185</v>
       </c>
@@ -65554,7 +65563,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="66"/>
-      <c r="B73" s="665" t="s">
+      <c r="B73" s="684" t="s">
         <v>76</v>
       </c>
       <c r="C73" s="67" t="s">
@@ -65567,7 +65576,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="66"/>
-      <c r="B74" s="665"/>
+      <c r="B74" s="684"/>
       <c r="C74" s="70" t="s">
         <v>109</v>
       </c>
@@ -65578,7 +65587,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="66"/>
-      <c r="B75" s="665"/>
+      <c r="B75" s="684"/>
       <c r="C75" s="70" t="s">
         <v>110</v>
       </c>
@@ -65589,7 +65598,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="66"/>
-      <c r="B76" s="665"/>
+      <c r="B76" s="684"/>
       <c r="C76" s="70" t="s">
         <v>111</v>
       </c>
@@ -65600,7 +65609,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="66"/>
-      <c r="B77" s="665"/>
+      <c r="B77" s="684"/>
       <c r="C77" s="70" t="s">
         <v>112</v>
       </c>
@@ -65611,7 +65620,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="66"/>
-      <c r="B78" s="665"/>
+      <c r="B78" s="684"/>
       <c r="C78" s="70" t="s">
         <v>113</v>
       </c>
@@ -65622,7 +65631,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="66"/>
-      <c r="B79" s="665"/>
+      <c r="B79" s="684"/>
       <c r="C79" s="70" t="s">
         <v>114</v>
       </c>
@@ -65633,7 +65642,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="66"/>
-      <c r="B80" s="665"/>
+      <c r="B80" s="684"/>
       <c r="C80" s="70" t="s">
         <v>115</v>
       </c>
@@ -65655,18 +65664,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C21:C26"/>
     <mergeCell ref="B73:B80"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C27:C29"/>
@@ -65679,6 +65676,18 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C53:C63"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D56:D60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -67057,7 +67066,7 @@
       <c r="D36" s="221" t="s">
         <v>717</v>
       </c>
-      <c r="E36" s="674" t="s">
+      <c r="E36" s="690" t="s">
         <v>718</v>
       </c>
       <c r="F36" s="237"/>
@@ -67082,7 +67091,7 @@
       <c r="D37" s="221" t="s">
         <v>719</v>
       </c>
-      <c r="E37" s="675"/>
+      <c r="E37" s="691"/>
       <c r="F37" s="237"/>
       <c r="G37" s="237"/>
       <c r="H37" s="237"/>
@@ -69022,18 +69031,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.125" style="712" customWidth="1"/>
-    <col min="2" max="2" width="65.125" style="712" customWidth="1"/>
-    <col min="3" max="3" width="21" style="712" customWidth="1"/>
-    <col min="4" max="4" width="53.875" style="712" customWidth="1"/>
-    <col min="5" max="5" width="47.125" style="712" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="712"/>
+    <col min="1" max="1" width="32.125" style="588" customWidth="1"/>
+    <col min="2" max="2" width="65.125" style="588" customWidth="1"/>
+    <col min="3" max="3" width="21" style="588" customWidth="1"/>
+    <col min="4" max="4" width="53.875" style="588" customWidth="1"/>
+    <col min="5" max="5" width="47.125" style="588" customWidth="1"/>
+    <col min="6" max="16384" width="9.125" style="588"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -69069,22 +69078,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="714" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="702" t="s">
+    <row r="2" spans="1:11" s="590" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="692" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="702"/>
-      <c r="C2" s="713"/>
-      <c r="D2" s="713"/>
-      <c r="E2" s="713"/>
-      <c r="F2" s="713"/>
-      <c r="G2" s="713"/>
-      <c r="H2" s="713"/>
-      <c r="I2" s="713"/>
-      <c r="J2" s="713"/>
-      <c r="K2" s="713"/>
-    </row>
-    <row r="3" spans="1:11" s="715" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="692"/>
+      <c r="C2" s="589"/>
+      <c r="D2" s="589"/>
+      <c r="E2" s="589"/>
+      <c r="F2" s="589"/>
+      <c r="G2" s="589"/>
+      <c r="H2" s="589"/>
+      <c r="I2" s="589"/>
+      <c r="J2" s="589"/>
+      <c r="K2" s="589"/>
+    </row>
+    <row r="3" spans="1:11" s="591" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="210" t="s">
         <v>2346</v>
       </c>
@@ -69105,7 +69114,7 @@
       <c r="J3" s="183"/>
       <c r="K3" s="183"/>
     </row>
-    <row r="4" spans="1:11" s="715" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="591" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="210" t="s">
         <v>2350</v>
       </c>
@@ -69126,7 +69135,7 @@
       <c r="J4" s="183"/>
       <c r="K4" s="183"/>
     </row>
-    <row r="5" spans="1:11" s="715" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="591" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="210" t="s">
         <v>2353</v>
       </c>
@@ -69147,7 +69156,7 @@
       <c r="J5" s="183"/>
       <c r="K5" s="183"/>
     </row>
-    <row r="6" spans="1:11" s="715" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="591" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="210" t="s">
         <v>2356</v>
       </c>
@@ -69168,7 +69177,7 @@
       <c r="J6" s="183"/>
       <c r="K6" s="183"/>
     </row>
-    <row r="7" spans="1:11" s="715" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="591" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="210" t="s">
         <v>2359</v>
       </c>
@@ -69189,7 +69198,7 @@
       <c r="J7" s="183"/>
       <c r="K7" s="183"/>
     </row>
-    <row r="8" spans="1:11" s="715" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="591" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="210" t="s">
         <v>2362</v>
       </c>
@@ -69210,7 +69219,7 @@
       <c r="J8" s="183"/>
       <c r="K8" s="183"/>
     </row>
-    <row r="9" spans="1:11" s="715" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="591" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="210" t="s">
         <v>2365</v>
       </c>
@@ -69231,7 +69240,7 @@
       <c r="J9" s="183"/>
       <c r="K9" s="183"/>
     </row>
-    <row r="10" spans="1:11" s="715" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="591" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="210" t="s">
         <v>2368</v>
       </c>
@@ -69252,7 +69261,7 @@
       <c r="J10" s="183"/>
       <c r="K10" s="183"/>
     </row>
-    <row r="11" spans="1:11" s="715" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="591" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="210" t="s">
         <v>2371</v>
       </c>
@@ -69273,7 +69282,7 @@
       <c r="J11" s="183"/>
       <c r="K11" s="183"/>
     </row>
-    <row r="12" spans="1:11" s="715" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="591" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="210" t="s">
         <v>2374</v>
       </c>
@@ -69283,7 +69292,7 @@
       <c r="C12" s="182" t="s">
         <v>2348</v>
       </c>
-      <c r="D12" s="716" t="s">
+      <c r="D12" s="592" t="s">
         <v>2376</v>
       </c>
       <c r="E12" s="183"/>
@@ -69294,22 +69303,22 @@
       <c r="J12" s="183"/>
       <c r="K12" s="183"/>
     </row>
-    <row r="13" spans="1:11" s="705" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="702" t="s">
+    <row r="13" spans="1:11" s="581" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="692" t="s">
         <v>292</v>
       </c>
-      <c r="B13" s="702"/>
-      <c r="C13" s="703"/>
-      <c r="D13" s="703"/>
-      <c r="E13" s="703"/>
-      <c r="F13" s="703"/>
-      <c r="G13" s="703"/>
-      <c r="H13" s="703"/>
-      <c r="I13" s="703"/>
-      <c r="J13" s="704"/>
-      <c r="K13" s="704"/>
-    </row>
-    <row r="14" spans="1:11" s="715" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="692"/>
+      <c r="C13" s="579"/>
+      <c r="D13" s="579"/>
+      <c r="E13" s="579"/>
+      <c r="F13" s="579"/>
+      <c r="G13" s="579"/>
+      <c r="H13" s="579"/>
+      <c r="I13" s="579"/>
+      <c r="J13" s="580"/>
+      <c r="K13" s="580"/>
+    </row>
+    <row r="14" spans="1:11" s="591" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="210" t="s">
         <v>2377</v>
       </c>
@@ -69330,7 +69339,7 @@
       <c r="J14" s="183"/>
       <c r="K14" s="183"/>
     </row>
-    <row r="15" spans="1:11" s="715" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="591" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="210" t="s">
         <v>2380</v>
       </c>
@@ -69351,7 +69360,7 @@
       <c r="J15" s="183"/>
       <c r="K15" s="183"/>
     </row>
-    <row r="16" spans="1:11" s="715" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="591" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="210" t="s">
         <v>2382</v>
       </c>
@@ -69372,121 +69381,121 @@
       <c r="J16" s="183"/>
       <c r="K16" s="183"/>
     </row>
-    <row r="17" spans="1:11" s="705" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="702" t="s">
+    <row r="17" spans="1:11" s="581" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="692" t="s">
         <v>2328</v>
       </c>
-      <c r="B17" s="702"/>
-      <c r="C17" s="703"/>
-      <c r="D17" s="703"/>
-      <c r="E17" s="703"/>
-      <c r="F17" s="703"/>
-      <c r="G17" s="703"/>
-      <c r="H17" s="703"/>
-      <c r="I17" s="703"/>
-      <c r="J17" s="704"/>
-      <c r="K17" s="704"/>
-    </row>
-    <row r="18" spans="1:11" s="709" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="706" t="s">
-        <v>2346</v>
-      </c>
-      <c r="B18" s="707" t="s">
+      <c r="B17" s="692"/>
+      <c r="C17" s="579"/>
+      <c r="D17" s="579"/>
+      <c r="E17" s="579"/>
+      <c r="F17" s="579"/>
+      <c r="G17" s="579"/>
+      <c r="H17" s="579"/>
+      <c r="I17" s="579"/>
+      <c r="J17" s="580"/>
+      <c r="K17" s="580"/>
+    </row>
+    <row r="18" spans="1:11" s="585" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="582" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B18" s="583" t="s">
         <v>2330</v>
       </c>
-      <c r="C18" s="707" t="s">
+      <c r="C18" s="583" t="s">
         <v>2331</v>
       </c>
-      <c r="D18" s="707" t="s">
+      <c r="D18" s="583" t="s">
         <v>2332</v>
       </c>
-      <c r="E18" s="708"/>
-      <c r="F18" s="708"/>
-      <c r="G18" s="708"/>
-      <c r="H18" s="708"/>
-      <c r="I18" s="708"/>
-      <c r="J18" s="708"/>
-      <c r="K18" s="708"/>
-    </row>
-    <row r="19" spans="1:11" s="710" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="706" t="s">
-        <v>2350</v>
-      </c>
-      <c r="B19" s="707" t="s">
+      <c r="E18" s="584"/>
+      <c r="F18" s="584"/>
+      <c r="G18" s="584"/>
+      <c r="H18" s="584"/>
+      <c r="I18" s="584"/>
+      <c r="J18" s="584"/>
+      <c r="K18" s="584"/>
+    </row>
+    <row r="19" spans="1:11" s="586" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="582" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B19" s="583" t="s">
         <v>2334</v>
       </c>
-      <c r="C19" s="707" t="s">
+      <c r="C19" s="583" t="s">
         <v>2331</v>
       </c>
-      <c r="D19" s="707" t="s">
+      <c r="D19" s="583" t="s">
         <v>2335</v>
       </c>
-      <c r="E19" s="708"/>
-      <c r="F19" s="708"/>
-      <c r="G19" s="708"/>
-      <c r="H19" s="708"/>
-      <c r="I19" s="708"/>
-      <c r="J19" s="708"/>
-      <c r="K19" s="708"/>
-    </row>
-    <row r="20" spans="1:11" s="709" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="706" t="s">
-        <v>2353</v>
-      </c>
-      <c r="B20" s="707" t="s">
+      <c r="E19" s="584"/>
+      <c r="F19" s="584"/>
+      <c r="G19" s="584"/>
+      <c r="H19" s="584"/>
+      <c r="I19" s="584"/>
+      <c r="J19" s="584"/>
+      <c r="K19" s="584"/>
+    </row>
+    <row r="20" spans="1:11" s="585" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="582" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B20" s="583" t="s">
         <v>2337</v>
       </c>
-      <c r="C20" s="707" t="s">
+      <c r="C20" s="583" t="s">
         <v>2331</v>
       </c>
-      <c r="D20" s="707" t="s">
+      <c r="D20" s="583" t="s">
         <v>2338</v>
       </c>
-      <c r="E20" s="708"/>
-      <c r="F20" s="708"/>
-      <c r="G20" s="708"/>
-      <c r="H20" s="708"/>
-      <c r="I20" s="708"/>
-      <c r="J20" s="708"/>
-      <c r="K20" s="708"/>
-    </row>
-    <row r="21" spans="1:11" s="711" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="711" t="s">
+      <c r="E20" s="584"/>
+      <c r="F20" s="584"/>
+      <c r="G20" s="584"/>
+      <c r="H20" s="584"/>
+      <c r="I20" s="584"/>
+      <c r="J20" s="584"/>
+      <c r="K20" s="584"/>
+    </row>
+    <row r="21" spans="1:11" s="587" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="587" t="s">
         <v>2339</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="710" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="706" t="s">
+    <row r="22" spans="1:11" s="586" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="582" t="s">
         <v>2384</v>
       </c>
-      <c r="B22" s="707" t="s">
+      <c r="B22" s="583" t="s">
         <v>2341</v>
       </c>
-      <c r="C22" s="707" t="s">
+      <c r="C22" s="583" t="s">
         <v>2331</v>
       </c>
-      <c r="D22" s="707" t="s">
+      <c r="D22" s="583" t="s">
         <v>2342</v>
       </c>
-      <c r="E22" s="708"/>
-      <c r="F22" s="708"/>
-      <c r="G22" s="708"/>
-      <c r="H22" s="708"/>
-      <c r="I22" s="708"/>
-      <c r="J22" s="708"/>
-      <c r="K22" s="708"/>
-    </row>
-    <row r="23" spans="1:11" s="710" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="706" t="s">
+      <c r="E22" s="584"/>
+      <c r="F22" s="584"/>
+      <c r="G22" s="584"/>
+      <c r="H22" s="584"/>
+      <c r="I22" s="584"/>
+      <c r="J22" s="584"/>
+      <c r="K22" s="584"/>
+    </row>
+    <row r="23" spans="1:11" s="586" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="582" t="s">
         <v>2385</v>
       </c>
-      <c r="B23" s="707" t="s">
+      <c r="B23" s="583" t="s">
         <v>2344</v>
       </c>
-      <c r="C23" s="707" t="s">
+      <c r="C23" s="583" t="s">
         <v>2331</v>
       </c>
-      <c r="D23" s="707" t="s">
+      <c r="D23" s="583" t="s">
         <v>2345</v>
       </c>
     </row>
